--- a/src/main/webapp/content/files/oncologyTherapies/fda_approved_oncology_therapies.xlsx
+++ b/src/main/webapp/content/files/oncologyTherapies/fda_approved_oncology_therapies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangh2/repos/oncokb-public/src/main/webapp/content/files/precisionOncologyTherapies/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luc2\Desktop\oncokb\oncokb-public\src\main\webapp\content\files\oncologyTherapies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72AEB6C-18D0-6F4C-83BC-96CFF5054C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F379A9-3BA0-4568-815E-3A57B2186A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" xr2:uid="{D862B214-800F-AF40-9BAA-60FE1781D5C8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{D862B214-800F-AF40-9BAA-60FE1781D5C8}"/>
   </bookViews>
   <sheets>
     <sheet name="FDA-Approved Oncology Therapies" sheetId="1" r:id="rId1"/>
@@ -1439,9 +1439,6 @@
   </si>
   <si>
     <t>PIK3CA, AKT1 or PTEN Oncogenic Mutations and HR+/HER2-</t>
-  </si>
-  <si>
-    <t>FGFR2 Fusions,FGFR3 Fusions, S249C, R248C, G370C, Y373C</t>
   </si>
   <si>
     <r>
@@ -1683,6 +1680,9 @@
   </si>
   <si>
     <t>Abbreviations: NGS: Next-generation sequencing, ER: Estrogen receptor, HR: Hormone receptor, MSI-H: Microsatellite instability-high, HRR: Homologous recombination repair, TMB-H: Tumor mutational burden-high, dMMR: Mismatch repair deficient, pMMR: Mismatch repair proficient, PSMA: Prostate-specific membrane antigen, ITD: Internal tandem duplication, TKD: Tyrosine kinase domain, Ph+: Philadelphia chromosome +</t>
+  </si>
+  <si>
+    <t>FGFR3-TACC3 Fusion, FGFR3-BAIAP2L1 Fusion, FGFR3 S249C, R248C, G370C, Y373C</t>
   </si>
 </sst>
 </file>
@@ -2113,32 +2113,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B89377A-76F6-CA40-8081-AAD80BFAB6B8}">
   <dimension ref="A1:H218"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="149" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="149" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D147" sqref="D147"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" customWidth="1"/>
-    <col min="4" max="4" width="25.83203125" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.19921875" customWidth="1"/>
+    <col min="3" max="3" width="26.19921875" customWidth="1"/>
+    <col min="4" max="4" width="25.796875" customWidth="1"/>
+    <col min="5" max="5" width="27.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -2147,10 +2149,10 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -2173,7 +2175,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -2196,7 +2198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -2222,7 +2224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -2245,7 +2247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -2268,7 +2270,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -2294,7 +2296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
@@ -2317,7 +2319,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
@@ -2343,7 +2345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>3</v>
       </c>
@@ -2369,7 +2371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="5" customFormat="1" ht="70" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" s="5" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
@@ -2395,7 +2397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>3</v>
       </c>
@@ -2418,7 +2420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>3</v>
       </c>
@@ -2441,7 +2443,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
@@ -2467,7 +2469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>3</v>
       </c>
@@ -2490,7 +2492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>3</v>
       </c>
@@ -2513,7 +2515,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>2002</v>
       </c>
@@ -2539,7 +2541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>2002</v>
       </c>
@@ -2562,7 +2564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>2002</v>
       </c>
@@ -2585,7 +2587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>2003</v>
       </c>
@@ -2609,7 +2611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>2003</v>
       </c>
@@ -2632,7 +2634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>2003</v>
       </c>
@@ -2658,7 +2660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>2003</v>
       </c>
@@ -2684,7 +2686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>2004</v>
       </c>
@@ -2707,7 +2709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>2004</v>
       </c>
@@ -2730,7 +2732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" s="5" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>2004</v>
       </c>
@@ -2756,7 +2758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>2004</v>
       </c>
@@ -2779,7 +2781,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>2004</v>
       </c>
@@ -2805,7 +2807,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>2004</v>
       </c>
@@ -2829,7 +2831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>2005</v>
       </c>
@@ -2852,7 +2854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>2005</v>
       </c>
@@ -2875,7 +2877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>2006</v>
       </c>
@@ -2901,7 +2903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>2006</v>
       </c>
@@ -2924,7 +2926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>2006</v>
       </c>
@@ -2947,7 +2949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" s="5" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>2006</v>
       </c>
@@ -2973,7 +2975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>2006</v>
       </c>
@@ -2999,7 +3001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>2006</v>
       </c>
@@ -3022,7 +3024,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>2007</v>
       </c>
@@ -3046,7 +3048,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>2007</v>
       </c>
@@ -3072,7 +3074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>2007</v>
       </c>
@@ -3098,7 +3100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>2007</v>
       </c>
@@ -3122,7 +3124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>2008</v>
       </c>
@@ -3145,7 +3147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>2008</v>
       </c>
@@ -3168,7 +3170,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>2009</v>
       </c>
@@ -3194,7 +3196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>2009</v>
       </c>
@@ -3217,7 +3219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>2009</v>
       </c>
@@ -3240,7 +3242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>2009</v>
       </c>
@@ -3264,7 +3266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>2009</v>
       </c>
@@ -3287,7 +3289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>2010</v>
       </c>
@@ -3310,7 +3312,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>2010</v>
       </c>
@@ -3334,7 +3336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>2010</v>
       </c>
@@ -3357,7 +3359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>2011</v>
       </c>
@@ -3380,7 +3382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>2011</v>
       </c>
@@ -3404,7 +3406,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>2011</v>
       </c>
@@ -3430,7 +3432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>2011</v>
       </c>
@@ -3456,7 +3458,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>2011</v>
       </c>
@@ -3480,7 +3482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>2011</v>
       </c>
@@ -3503,7 +3505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>2011</v>
       </c>
@@ -3526,7 +3528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>2011</v>
       </c>
@@ -3550,7 +3552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>2011</v>
       </c>
@@ -3576,7 +3578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>2012</v>
       </c>
@@ -3599,7 +3601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>2012</v>
       </c>
@@ -3623,7 +3625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>2012</v>
       </c>
@@ -3649,7 +3651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>2012</v>
       </c>
@@ -3672,7 +3674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>2012</v>
       </c>
@@ -3696,7 +3698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>2012</v>
       </c>
@@ -3719,7 +3721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>2012</v>
       </c>
@@ -3742,7 +3744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>2012</v>
       </c>
@@ -3768,7 +3770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>2012</v>
       </c>
@@ -3794,7 +3796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>2012</v>
       </c>
@@ -3820,7 +3822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>2012</v>
       </c>
@@ -3844,7 +3846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>2013</v>
       </c>
@@ -3870,7 +3872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>2013</v>
       </c>
@@ -3896,7 +3898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>2013</v>
       </c>
@@ -3922,7 +3924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>2013</v>
       </c>
@@ -3948,7 +3950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>2013</v>
       </c>
@@ -3971,7 +3973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>2013</v>
       </c>
@@ -3995,7 +3997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>2013</v>
       </c>
@@ -4018,7 +4020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>2013</v>
       </c>
@@ -4044,7 +4046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>2014</v>
       </c>
@@ -4068,7 +4070,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>2014</v>
       </c>
@@ -4094,7 +4096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>2014</v>
       </c>
@@ -4120,7 +4122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>2014</v>
       </c>
@@ -4146,7 +4148,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>2014</v>
       </c>
@@ -4169,7 +4171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>2014</v>
       </c>
@@ -4192,7 +4194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>2014</v>
       </c>
@@ -4216,7 +4218,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>2014</v>
       </c>
@@ -4242,7 +4244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>2014</v>
       </c>
@@ -4268,7 +4270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:8" s="5" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" s="5" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>2014</v>
       </c>
@@ -4294,7 +4296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>2014</v>
       </c>
@@ -4317,7 +4319,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>2014</v>
       </c>
@@ -4340,7 +4342,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>2015</v>
       </c>
@@ -4366,7 +4368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>2015</v>
       </c>
@@ -4392,7 +4394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>2015</v>
       </c>
@@ -4415,7 +4417,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>2015</v>
       </c>
@@ -4439,7 +4441,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>2015</v>
       </c>
@@ -4462,7 +4464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>2015</v>
       </c>
@@ -4488,7 +4490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>2015</v>
       </c>
@@ -4512,7 +4514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>2015</v>
       </c>
@@ -4535,7 +4537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>2015</v>
       </c>
@@ -4558,7 +4560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:8" s="5" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>2015</v>
       </c>
@@ -4584,7 +4586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>2015</v>
       </c>
@@ -4610,7 +4612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>2015</v>
       </c>
@@ -4633,7 +4635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>2015</v>
       </c>
@@ -4657,7 +4659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>2015</v>
       </c>
@@ -4680,7 +4682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>2015</v>
       </c>
@@ -4703,7 +4705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>2015</v>
       </c>
@@ -4727,7 +4729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>2016</v>
       </c>
@@ -4753,7 +4755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>2016</v>
       </c>
@@ -4776,7 +4778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:8" s="5" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>2016</v>
       </c>
@@ -4802,7 +4804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>2016</v>
       </c>
@@ -4825,7 +4827,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
         <v>2017</v>
       </c>
@@ -4851,7 +4853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
         <v>2017</v>
       </c>
@@ -4875,7 +4877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>2017</v>
       </c>
@@ -4898,7 +4900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <v>2017</v>
       </c>
@@ -4921,7 +4923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>2017</v>
       </c>
@@ -4947,7 +4949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
         <v>2017</v>
       </c>
@@ -4970,7 +4972,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <v>2017</v>
       </c>
@@ -4993,7 +4995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>2017</v>
       </c>
@@ -5017,7 +5019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>2017</v>
       </c>
@@ -5043,7 +5045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>2017</v>
       </c>
@@ -5066,7 +5068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:8" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:8" s="5" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <v>2017</v>
       </c>
@@ -5092,7 +5094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
         <v>2017</v>
       </c>
@@ -5118,7 +5120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
         <v>2017</v>
       </c>
@@ -5144,7 +5146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
         <v>2017</v>
       </c>
@@ -5170,7 +5172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
         <v>2017</v>
       </c>
@@ -5193,7 +5195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
         <v>2018</v>
       </c>
@@ -5216,7 +5218,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
         <v>2018</v>
       </c>
@@ -5242,7 +5244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
         <v>2018</v>
       </c>
@@ -5265,7 +5267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
         <v>2018</v>
       </c>
@@ -5291,7 +5293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:8" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
         <v>2018</v>
       </c>
@@ -5317,7 +5319,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
         <v>2018</v>
       </c>
@@ -5340,7 +5342,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="5">
         <v>2018</v>
       </c>
@@ -5366,7 +5368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="5">
         <v>2018</v>
       </c>
@@ -5390,7 +5392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
         <v>2018</v>
       </c>
@@ -5413,7 +5415,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
         <v>2018</v>
       </c>
@@ -5439,7 +5441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:8" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
         <v>2018</v>
       </c>
@@ -5465,7 +5467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
         <v>2018</v>
       </c>
@@ -5491,7 +5493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
         <v>2018</v>
       </c>
@@ -5517,7 +5519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
         <v>2018</v>
       </c>
@@ -5541,7 +5543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
         <v>2018</v>
       </c>
@@ -5564,7 +5566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="5">
         <v>2018</v>
       </c>
@@ -5587,7 +5589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:8" s="5" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:8" s="5" customFormat="1" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A143" s="5">
         <v>2018</v>
       </c>
@@ -5613,7 +5615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
         <v>2019</v>
       </c>
@@ -5639,7 +5641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="5">
         <v>2019</v>
       </c>
@@ -5662,7 +5664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="5">
         <v>2019</v>
       </c>
@@ -5686,7 +5688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
         <v>2019</v>
       </c>
@@ -5712,7 +5714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="5">
         <v>2019</v>
       </c>
@@ -5720,7 +5722,7 @@
         <v>274</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>55</v>
@@ -5738,7 +5740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
         <v>2019</v>
       </c>
@@ -5762,7 +5764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A150" s="5">
         <v>2019</v>
       </c>
@@ -5785,7 +5787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
         <v>2019</v>
       </c>
@@ -5808,7 +5810,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" s="5">
         <v>2019</v>
       </c>
@@ -5832,7 +5834,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A153" s="5">
         <v>2019</v>
       </c>
@@ -5858,7 +5860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A154" s="5">
         <v>2019</v>
       </c>
@@ -5881,7 +5883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
         <v>2020</v>
       </c>
@@ -5907,7 +5909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A156" s="5">
         <v>2020</v>
       </c>
@@ -5933,7 +5935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
         <v>2020</v>
       </c>
@@ -5956,7 +5958,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
         <v>2020</v>
       </c>
@@ -5980,7 +5982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A159" s="5">
         <v>2020</v>
       </c>
@@ -6006,7 +6008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A160" s="5">
         <v>2020</v>
       </c>
@@ -6029,7 +6031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A161" s="5">
         <v>2020</v>
       </c>
@@ -6055,7 +6057,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A162" s="5">
         <v>2020</v>
       </c>
@@ -6078,7 +6080,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A163" s="5">
         <v>2020</v>
       </c>
@@ -6101,7 +6103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A164" s="5">
         <v>2020</v>
       </c>
@@ -6127,7 +6129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A165" s="5">
         <v>2020</v>
       </c>
@@ -6147,7 +6149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:8" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:8" s="5" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
         <v>2020</v>
       </c>
@@ -6173,7 +6175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:8" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:8" s="5" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
         <v>2020</v>
       </c>
@@ -6199,7 +6201,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
         <v>2020</v>
       </c>
@@ -6222,7 +6224,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A169" s="5">
         <v>2020</v>
       </c>
@@ -6230,7 +6232,7 @@
         <v>312</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D169" s="5" t="s">
         <v>55</v>
@@ -6248,7 +6250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A170" s="5">
         <v>2020</v>
       </c>
@@ -6274,7 +6276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
         <v>2020</v>
       </c>
@@ -6300,7 +6302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A172" s="5">
         <v>2020</v>
       </c>
@@ -6326,7 +6328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A173" s="5">
         <v>2020</v>
       </c>
@@ -6350,7 +6352,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A174" s="5">
         <v>2020</v>
       </c>
@@ -6376,7 +6378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A175" s="5">
         <v>2020</v>
       </c>
@@ -6402,7 +6404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A176" s="5">
         <v>2021</v>
       </c>
@@ -6428,7 +6430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A177" s="5">
         <v>2021</v>
       </c>
@@ -6454,7 +6456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A178" s="5">
         <v>2021</v>
       </c>
@@ -6480,7 +6482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:8" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:8" s="5" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A179" s="5">
         <v>2021</v>
       </c>
@@ -6506,7 +6508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A180" s="5">
         <v>2021</v>
       </c>
@@ -6529,7 +6531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
         <v>2021</v>
       </c>
@@ -6555,7 +6557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A182" s="5">
         <v>2021</v>
       </c>
@@ -6579,7 +6581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A183" s="5">
         <v>2021</v>
       </c>
@@ -6602,7 +6604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A184" s="5">
         <v>2021</v>
       </c>
@@ -6625,7 +6627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A185" s="5">
         <v>2021</v>
       </c>
@@ -6651,7 +6653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A186" s="5">
         <v>2021</v>
       </c>
@@ -6674,7 +6676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
         <v>2021</v>
       </c>
@@ -6700,7 +6702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:8" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A188" s="5">
         <v>2021</v>
       </c>
@@ -6726,7 +6728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
         <v>2021</v>
       </c>
@@ -6749,7 +6751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A190" s="5">
         <v>2021</v>
       </c>
@@ -6772,7 +6774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
         <v>2021</v>
       </c>
@@ -6798,7 +6800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" s="5">
         <v>2021</v>
       </c>
@@ -6821,7 +6823,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A193" s="5">
         <v>2022</v>
       </c>
@@ -6847,7 +6849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A194" s="5">
         <v>2022</v>
       </c>
@@ -6871,7 +6873,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="195" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A195" s="5">
         <v>2022</v>
       </c>
@@ -6897,7 +6899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
         <v>2022</v>
       </c>
@@ -6923,7 +6925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A197" s="5">
         <v>2022</v>
       </c>
@@ -6947,7 +6949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A198" s="5">
         <v>2022</v>
       </c>
@@ -6970,7 +6972,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A199" s="5">
         <v>2022</v>
       </c>
@@ -6993,7 +6995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A200" s="5">
         <v>2022</v>
       </c>
@@ -7019,7 +7021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A201" s="5">
         <v>2022</v>
       </c>
@@ -7045,7 +7047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A202" s="5">
         <v>2022</v>
       </c>
@@ -7071,7 +7073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A203" s="5">
         <v>2022</v>
       </c>
@@ -7095,7 +7097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A204" s="5">
         <v>2022</v>
       </c>
@@ -7118,7 +7120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A205" s="5">
         <v>2023</v>
       </c>
@@ -7144,7 +7146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:8" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:8" s="5" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A206" s="5">
         <v>2023</v>
       </c>
@@ -7170,7 +7172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="207" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A207" s="5">
         <v>2023</v>
       </c>
@@ -7193,7 +7195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A208" s="5">
         <v>2023</v>
       </c>
@@ -7216,7 +7218,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A209" s="5">
         <v>2023</v>
       </c>
@@ -7240,7 +7242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="210" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A210" s="5">
         <v>2023</v>
       </c>
@@ -7263,7 +7265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="211" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
         <v>2023</v>
       </c>
@@ -7286,7 +7288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A212" s="5">
         <v>2023</v>
       </c>
@@ -7310,7 +7312,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A213" s="5">
         <v>2023</v>
       </c>
@@ -7336,7 +7338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A214" s="5">
         <v>2023</v>
       </c>
@@ -7362,7 +7364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A215" s="5">
         <v>2023</v>
       </c>
@@ -7386,7 +7388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="216" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A216" s="5">
         <v>2023</v>
       </c>
@@ -7409,7 +7411,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A217" s="5">
         <v>2023</v>
       </c>
@@ -7432,18 +7434,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:8" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A218" s="5">
         <v>2023</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D218" s="5" t="s">
         <v>143</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F218" s="5" t="s">
         <v>7</v>
@@ -7472,44 +7474,44 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="153.1640625" customWidth="1"/>
+    <col min="1" max="1" width="153.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="59" x14ac:dyDescent="0.2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="42.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>473</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>474</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/content/files/oncologyTherapies/fda_approved_oncology_therapies.xlsx
+++ b/src/main/webapp/content/files/oncologyTherapies/fda_approved_oncology_therapies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luc2\Desktop\oncokb\oncokb-public\src\main\webapp\content\files\oncologyTherapies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D0D0C4-67AA-4683-9CD6-34CD80FD7BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45EF53A-463B-45D4-BCE1-BA0BB0E9A6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6852" yWindow="2484" windowWidth="21816" windowHeight="13884" xr2:uid="{D862B214-800F-AF40-9BAA-60FE1781D5C8}"/>
+    <workbookView xWindow="4716" yWindow="576" windowWidth="21480" windowHeight="15456" xr2:uid="{D862B214-800F-AF40-9BAA-60FE1781D5C8}"/>
   </bookViews>
   <sheets>
     <sheet name="FDA-Approved Oncology Therapies" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="488">
   <si>
     <t>Year of drug’s first FDA- approval</t>
   </si>
@@ -1707,6 +1707,21 @@
       </rPr>
       <t>d</t>
     </r>
+  </si>
+  <si>
+    <t>Tarlatamab</t>
+  </si>
+  <si>
+    <t>Bispecific DLL3-directed CD3 T-cell engager</t>
+  </si>
+  <si>
+    <t>Imetelstat</t>
+  </si>
+  <si>
+    <t>Telomerase inhibitor</t>
+  </si>
+  <si>
+    <t>Telomerase template antagonist</t>
   </si>
 </sst>
 </file>
@@ -2133,10 +2148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B89377A-76F6-CA40-8081-AAD80BFAB6B8}">
-  <dimension ref="A1:H221"/>
+  <dimension ref="A1:H223"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A207" zoomScale="149" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B225" sqref="B225"/>
+      <selection activeCell="B227" sqref="B227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7554,6 +7569,54 @@
       </c>
       <c r="H221" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A222" s="5">
+        <v>2024</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C222" s="5"/>
+      <c r="D222" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="F222" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G222" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H222" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A223" s="5">
+        <v>2024</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="C223" s="5"/>
+      <c r="D223" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="F223" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G223" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H223" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/content/files/oncologyTherapies/fda_approved_oncology_therapies.xlsx
+++ b/src/main/webapp/content/files/oncologyTherapies/fda_approved_oncology_therapies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luc2\Desktop\oncokb\oncokb-public\src\main\webapp\content\files\oncologyTherapies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luc2/Documents/oncokb/oncokb-public/src/main/webapp/content/files/oncologyTherapies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45EF53A-463B-45D4-BCE1-BA0BB0E9A6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3598799-5264-8C48-B722-891F8EC70695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4716" yWindow="576" windowWidth="21480" windowHeight="15456" xr2:uid="{D862B214-800F-AF40-9BAA-60FE1781D5C8}"/>
+    <workbookView xWindow="10600" yWindow="1480" windowWidth="33820" windowHeight="23700" xr2:uid="{D862B214-800F-AF40-9BAA-60FE1781D5C8}"/>
   </bookViews>
   <sheets>
     <sheet name="FDA-Approved Oncology Therapies" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="495">
   <si>
     <t>Year of drug’s first FDA- approval</t>
   </si>
@@ -1722,6 +1722,27 @@
   </si>
   <si>
     <t>Telomerase template antagonist</t>
+  </si>
+  <si>
+    <t>Afamitresgene autoleucel</t>
+  </si>
+  <si>
+    <t>HLA-A*02:01P, -A*02:02P, -A*02:03P, or -A*02:06P positive and MAGE-A4 antigen positive</t>
+  </si>
+  <si>
+    <t>T cell receptor (TCR) therapy</t>
+  </si>
+  <si>
+    <t>MAGE-A4-directed TCR therapy</t>
+  </si>
+  <si>
+    <t>Vorasidenib</t>
+  </si>
+  <si>
+    <t>IDH1 R132H/C/G/S/L, IDH2 R172K/M/W/S/G</t>
+  </si>
+  <si>
+    <t>IDH1/IDH2 inhibitor</t>
   </si>
 </sst>
 </file>
@@ -2148,22 +2169,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B89377A-76F6-CA40-8081-AAD80BFAB6B8}">
-  <dimension ref="A1:H223"/>
+  <dimension ref="A1:H225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A207" zoomScale="149" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B227" sqref="B227"/>
+      <selection activeCell="E225" sqref="E225"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="22.19921875" customWidth="1"/>
-    <col min="3" max="3" width="26.19921875" customWidth="1"/>
-    <col min="4" max="4" width="25.796875" customWidth="1"/>
-    <col min="5" max="5" width="27.296875" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2189,7 +2210,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2212,7 +2233,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2235,7 +2256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2261,7 +2282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2284,7 +2305,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2307,7 +2328,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -2333,7 +2354,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -2356,7 +2377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -2382,7 +2403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -2408,7 +2429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="70" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -2434,7 +2455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
@@ -2457,7 +2478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
@@ -2480,7 +2501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -2506,7 +2527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
@@ -2529,7 +2550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
@@ -2552,7 +2573,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>2002</v>
       </c>
@@ -2578,7 +2599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>2002</v>
       </c>
@@ -2601,7 +2622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>2002</v>
       </c>
@@ -2624,7 +2645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>2003</v>
       </c>
@@ -2648,7 +2669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>2003</v>
       </c>
@@ -2671,7 +2692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>2003</v>
       </c>
@@ -2697,7 +2718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>2003</v>
       </c>
@@ -2723,7 +2744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>2004</v>
       </c>
@@ -2746,7 +2767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>2004</v>
       </c>
@@ -2769,7 +2790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>2004</v>
       </c>
@@ -2795,7 +2816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>2004</v>
       </c>
@@ -2818,7 +2839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>2004</v>
       </c>
@@ -2844,7 +2865,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>2004</v>
       </c>
@@ -2868,7 +2889,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>2005</v>
       </c>
@@ -2891,7 +2912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>2005</v>
       </c>
@@ -2914,7 +2935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>2006</v>
       </c>
@@ -2940,7 +2961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>2006</v>
       </c>
@@ -2963,7 +2984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>2006</v>
       </c>
@@ -2986,7 +3007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>2006</v>
       </c>
@@ -3012,7 +3033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>2006</v>
       </c>
@@ -3038,7 +3059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>2006</v>
       </c>
@@ -3061,7 +3082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>2007</v>
       </c>
@@ -3085,7 +3106,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>2007</v>
       </c>
@@ -3111,7 +3132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>2007</v>
       </c>
@@ -3137,7 +3158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>2007</v>
       </c>
@@ -3161,7 +3182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>2008</v>
       </c>
@@ -3184,7 +3205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>2008</v>
       </c>
@@ -3207,7 +3228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>2009</v>
       </c>
@@ -3233,7 +3254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>2009</v>
       </c>
@@ -3256,7 +3277,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>2009</v>
       </c>
@@ -3279,7 +3300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>2009</v>
       </c>
@@ -3303,7 +3324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>2009</v>
       </c>
@@ -3326,7 +3347,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>2010</v>
       </c>
@@ -3349,7 +3370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>2010</v>
       </c>
@@ -3373,7 +3394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>2010</v>
       </c>
@@ -3396,7 +3417,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>2011</v>
       </c>
@@ -3419,7 +3440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>2011</v>
       </c>
@@ -3443,7 +3464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>2011</v>
       </c>
@@ -3469,7 +3490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>2011</v>
       </c>
@@ -3495,7 +3516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>2011</v>
       </c>
@@ -3519,7 +3540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>2011</v>
       </c>
@@ -3542,7 +3563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>2011</v>
       </c>
@@ -3565,7 +3586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>2011</v>
       </c>
@@ -3589,7 +3610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>2011</v>
       </c>
@@ -3615,7 +3636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>2012</v>
       </c>
@@ -3638,7 +3659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
         <v>2012</v>
       </c>
@@ -3662,7 +3683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>2012</v>
       </c>
@@ -3688,7 +3709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>2012</v>
       </c>
@@ -3711,7 +3732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
         <v>2012</v>
       </c>
@@ -3735,7 +3756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
         <v>2012</v>
       </c>
@@ -3758,7 +3779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
         <v>2012</v>
       </c>
@@ -3781,7 +3802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
         <v>2012</v>
       </c>
@@ -3807,7 +3828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
         <v>2012</v>
       </c>
@@ -3833,7 +3854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
         <v>2012</v>
       </c>
@@ -3859,7 +3880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
         <v>2012</v>
       </c>
@@ -3883,7 +3904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
         <v>2013</v>
       </c>
@@ -3909,7 +3930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
         <v>2013</v>
       </c>
@@ -3935,7 +3956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
         <v>2013</v>
       </c>
@@ -3961,7 +3982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
         <v>2013</v>
       </c>
@@ -3987,7 +4008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
         <v>2013</v>
       </c>
@@ -4010,7 +4031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
         <v>2013</v>
       </c>
@@ -4034,7 +4055,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
         <v>2013</v>
       </c>
@@ -4057,7 +4078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
         <v>2013</v>
       </c>
@@ -4083,7 +4104,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
         <v>2014</v>
       </c>
@@ -4107,7 +4128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
         <v>2014</v>
       </c>
@@ -4133,7 +4154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
         <v>2014</v>
       </c>
@@ -4159,7 +4180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
         <v>2014</v>
       </c>
@@ -4185,7 +4206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
         <v>2014</v>
       </c>
@@ -4208,7 +4229,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
         <v>2014</v>
       </c>
@@ -4231,7 +4252,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
         <v>2014</v>
       </c>
@@ -4255,7 +4276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
         <v>2014</v>
       </c>
@@ -4281,7 +4302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
         <v>2014</v>
       </c>
@@ -4307,7 +4328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:8" s="2" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" s="2" customFormat="1" ht="56" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
         <v>2014</v>
       </c>
@@ -4333,7 +4354,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
         <v>2014</v>
       </c>
@@ -4356,7 +4377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
         <v>2014</v>
       </c>
@@ -4379,7 +4400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A92" s="2">
         <v>2015</v>
       </c>
@@ -4405,7 +4426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
         <v>2015</v>
       </c>
@@ -4431,7 +4452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="2">
         <v>2015</v>
       </c>
@@ -4454,7 +4475,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A95" s="2">
         <v>2015</v>
       </c>
@@ -4478,7 +4499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="2">
         <v>2015</v>
       </c>
@@ -4501,7 +4522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="2">
         <v>2015</v>
       </c>
@@ -4527,7 +4548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A98" s="2">
         <v>2015</v>
       </c>
@@ -4551,7 +4572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="2">
         <v>2015</v>
       </c>
@@ -4574,7 +4595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="2">
         <v>2015</v>
       </c>
@@ -4597,7 +4618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A101" s="2">
         <v>2015</v>
       </c>
@@ -4623,7 +4644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="2">
         <v>2015</v>
       </c>
@@ -4649,7 +4670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="2">
         <v>2015</v>
       </c>
@@ -4672,7 +4693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A104" s="2">
         <v>2015</v>
       </c>
@@ -4696,7 +4717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="2">
         <v>2015</v>
       </c>
@@ -4719,7 +4740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="2">
         <v>2015</v>
       </c>
@@ -4742,7 +4763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A107" s="2">
         <v>2015</v>
       </c>
@@ -4766,7 +4787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="2">
         <v>2016</v>
       </c>
@@ -4792,7 +4813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="2">
         <v>2016</v>
       </c>
@@ -4815,7 +4836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A110" s="2">
         <v>2016</v>
       </c>
@@ -4841,7 +4862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="2">
         <v>2016</v>
       </c>
@@ -4864,7 +4885,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="2">
         <v>2017</v>
       </c>
@@ -4890,7 +4911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A113" s="2">
         <v>2017</v>
       </c>
@@ -4914,7 +4935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="2">
         <v>2017</v>
       </c>
@@ -4937,7 +4958,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="2">
         <v>2017</v>
       </c>
@@ -4960,7 +4981,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A116" s="2">
         <v>2017</v>
       </c>
@@ -4986,7 +5007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="2">
         <v>2017</v>
       </c>
@@ -5009,7 +5030,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="2">
         <v>2017</v>
       </c>
@@ -5032,7 +5053,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A119" s="2">
         <v>2017</v>
       </c>
@@ -5056,7 +5077,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="2">
         <v>2017</v>
       </c>
@@ -5082,7 +5103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="2">
         <v>2017</v>
       </c>
@@ -5108,7 +5129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:8" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A122" s="2">
         <v>2017</v>
       </c>
@@ -5134,7 +5155,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="2">
         <v>2017</v>
       </c>
@@ -5160,7 +5181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="2">
         <v>2017</v>
       </c>
@@ -5186,7 +5207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A125" s="2">
         <v>2017</v>
       </c>
@@ -5212,7 +5233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="2">
         <v>2017</v>
       </c>
@@ -5235,7 +5256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="2">
         <v>2018</v>
       </c>
@@ -5258,7 +5279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A128" s="2">
         <v>2018</v>
       </c>
@@ -5284,7 +5305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="2">
         <v>2018</v>
       </c>
@@ -5307,7 +5328,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="2">
         <v>2018</v>
       </c>
@@ -5333,7 +5354,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A131" s="2">
         <v>2018</v>
       </c>
@@ -5359,7 +5380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="2">
         <v>2018</v>
       </c>
@@ -5382,7 +5403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="2">
         <v>2018</v>
       </c>
@@ -5408,7 +5429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A134" s="2">
         <v>2018</v>
       </c>
@@ -5432,7 +5453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="2">
         <v>2018</v>
       </c>
@@ -5455,7 +5476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="2">
         <v>2018</v>
       </c>
@@ -5481,7 +5502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A137" s="2">
         <v>2018</v>
       </c>
@@ -5507,7 +5528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="2">
         <v>2018</v>
       </c>
@@ -5533,7 +5554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="2">
         <v>2018</v>
       </c>
@@ -5559,7 +5580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A140" s="2">
         <v>2018</v>
       </c>
@@ -5583,7 +5604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="2">
         <v>2018</v>
       </c>
@@ -5606,7 +5627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="2">
         <v>2018</v>
       </c>
@@ -5629,7 +5650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:8" s="2" customFormat="1" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" s="2" customFormat="1" ht="98" x14ac:dyDescent="0.15">
       <c r="A143" s="2">
         <v>2018</v>
       </c>
@@ -5655,7 +5676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="2">
         <v>2019</v>
       </c>
@@ -5681,7 +5702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="2">
         <v>2019</v>
       </c>
@@ -5704,7 +5725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A146" s="2">
         <v>2019</v>
       </c>
@@ -5728,7 +5749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="2">
         <v>2019</v>
       </c>
@@ -5754,7 +5775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="2">
         <v>2019</v>
       </c>
@@ -5780,7 +5801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A149" s="2">
         <v>2019</v>
       </c>
@@ -5804,7 +5825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="2">
         <v>2019</v>
       </c>
@@ -5827,7 +5848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="2">
         <v>2019</v>
       </c>
@@ -5850,7 +5871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A152" s="2">
         <v>2019</v>
       </c>
@@ -5874,7 +5895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="2">
         <v>2019</v>
       </c>
@@ -5900,7 +5921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="2">
         <v>2019</v>
       </c>
@@ -5923,7 +5944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A155" s="2">
         <v>2020</v>
       </c>
@@ -5949,7 +5970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="2">
         <v>2020</v>
       </c>
@@ -5975,7 +5996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="2">
         <v>2020</v>
       </c>
@@ -5998,7 +6019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A158" s="2">
         <v>2020</v>
       </c>
@@ -6022,7 +6043,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="2">
         <v>2020</v>
       </c>
@@ -6048,7 +6069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="2">
         <v>2020</v>
       </c>
@@ -6071,7 +6092,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A161" s="2">
         <v>2020</v>
       </c>
@@ -6097,7 +6118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="2">
         <v>2020</v>
       </c>
@@ -6120,7 +6141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="2">
         <v>2020</v>
       </c>
@@ -6143,7 +6164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A164" s="2">
         <v>2020</v>
       </c>
@@ -6169,7 +6190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="2">
         <v>2020</v>
       </c>
@@ -6189,7 +6210,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:8" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A166" s="2">
         <v>2020</v>
       </c>
@@ -6215,7 +6236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:8" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A167" s="2">
         <v>2020</v>
       </c>
@@ -6241,7 +6262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="2">
         <v>2020</v>
       </c>
@@ -6264,7 +6285,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="2">
         <v>2020</v>
       </c>
@@ -6290,7 +6311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A170" s="2">
         <v>2020</v>
       </c>
@@ -6316,7 +6337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="2">
         <v>2020</v>
       </c>
@@ -6342,7 +6363,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="2">
         <v>2020</v>
       </c>
@@ -6368,7 +6389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A173" s="2">
         <v>2020</v>
       </c>
@@ -6392,7 +6413,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="2">
         <v>2020</v>
       </c>
@@ -6418,7 +6439,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="2">
         <v>2020</v>
       </c>
@@ -6444,7 +6465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A176" s="2">
         <v>2021</v>
       </c>
@@ -6470,7 +6491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="2">
         <v>2021</v>
       </c>
@@ -6496,7 +6517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="2">
         <v>2021</v>
       </c>
@@ -6522,7 +6543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:8" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A179" s="2">
         <v>2021</v>
       </c>
@@ -6548,7 +6569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="2">
         <v>2021</v>
       </c>
@@ -6571,7 +6592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="2">
         <v>2021</v>
       </c>
@@ -6597,7 +6618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A182" s="2">
         <v>2021</v>
       </c>
@@ -6621,7 +6642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="2">
         <v>2021</v>
       </c>
@@ -6644,7 +6665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="2">
         <v>2021</v>
       </c>
@@ -6667,7 +6688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A185" s="2">
         <v>2021</v>
       </c>
@@ -6693,7 +6714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="2">
         <v>2021</v>
       </c>
@@ -6716,7 +6737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="2">
         <v>2021</v>
       </c>
@@ -6742,7 +6763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A188" s="2">
         <v>2021</v>
       </c>
@@ -6768,7 +6789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="2">
         <v>2021</v>
       </c>
@@ -6791,7 +6812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A190" s="2">
         <v>2021</v>
       </c>
@@ -6814,7 +6835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A191" s="2">
         <v>2021</v>
       </c>
@@ -6840,7 +6861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" s="2">
         <v>2021</v>
       </c>
@@ -6863,7 +6884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="2">
         <v>2022</v>
       </c>
@@ -6889,7 +6910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A194" s="2">
         <v>2022</v>
       </c>
@@ -6913,7 +6934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="195" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A195" s="2">
         <v>2022</v>
       </c>
@@ -6939,7 +6960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" s="2">
         <v>2022</v>
       </c>
@@ -6965,7 +6986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A197" s="2">
         <v>2022</v>
       </c>
@@ -6989,7 +7010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A198" s="2">
         <v>2022</v>
       </c>
@@ -7012,7 +7033,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" s="2">
         <v>2022</v>
       </c>
@@ -7035,7 +7056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A200" s="2">
         <v>2022</v>
       </c>
@@ -7061,7 +7082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A201" s="2">
         <v>2022</v>
       </c>
@@ -7087,7 +7108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A202" s="2">
         <v>2022</v>
       </c>
@@ -7113,7 +7134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A203" s="2">
         <v>2022</v>
       </c>
@@ -7137,7 +7158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A204" s="2">
         <v>2022</v>
       </c>
@@ -7160,7 +7181,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A205" s="2">
         <v>2023</v>
       </c>
@@ -7186,7 +7207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:8" s="2" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A206" s="2">
         <v>2023</v>
       </c>
@@ -7212,7 +7233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="207" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A207" s="2">
         <v>2023</v>
       </c>
@@ -7235,7 +7256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A208" s="2">
         <v>2023</v>
       </c>
@@ -7258,7 +7279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A209" s="2">
         <v>2023</v>
       </c>
@@ -7282,7 +7303,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="210" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A210" s="2">
         <v>2023</v>
       </c>
@@ -7305,7 +7326,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="211" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A211" s="2">
         <v>2023</v>
       </c>
@@ -7328,7 +7349,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A212" s="2">
         <v>2023</v>
       </c>
@@ -7352,7 +7373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A213" s="2">
         <v>2023</v>
       </c>
@@ -7378,7 +7399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A214" s="2">
         <v>2023</v>
       </c>
@@ -7404,7 +7425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A215" s="2">
         <v>2023</v>
       </c>
@@ -7428,7 +7449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="216" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A216" s="2">
         <v>2023</v>
       </c>
@@ -7451,7 +7472,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A217" s="2">
         <v>2023</v>
       </c>
@@ -7474,7 +7495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A218" s="2">
         <v>2023</v>
       </c>
@@ -7497,7 +7518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>2024</v>
       </c>
@@ -7521,7 +7542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="5">
         <v>2024</v>
       </c>
@@ -7545,7 +7566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>2024</v>
       </c>
@@ -7571,7 +7592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="5">
         <v>2024</v>
       </c>
@@ -7595,7 +7616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="5">
         <v>2024</v>
       </c>
@@ -7617,6 +7638,58 @@
       </c>
       <c r="H223" s="5" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="43" x14ac:dyDescent="0.2">
+      <c r="A224" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G224" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H224" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="29" x14ac:dyDescent="0.2">
+      <c r="A225" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H225" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -7636,42 +7709,42 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="153.19921875" customWidth="1"/>
+    <col min="1" max="1" width="153.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="55.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="59" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="42.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>468</v>
       </c>

--- a/src/main/webapp/content/files/oncologyTherapies/fda_approved_oncology_therapies.xlsx
+++ b/src/main/webapp/content/files/oncologyTherapies/fda_approved_oncology_therapies.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/konecnyj/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cavendk1/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC6B696-0767-EF44-AA2E-14DB91F2AF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31F40C8-5D6A-4342-AC5E-1B0E463E0856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{D862B214-800F-AF40-9BAA-60FE1781D5C8}"/>
+    <workbookView xWindow="920" yWindow="760" windowWidth="29140" windowHeight="17240" xr2:uid="{D862B214-800F-AF40-9BAA-60FE1781D5C8}"/>
   </bookViews>
   <sheets>
     <sheet name="FDA-Approved Oncology Therapies" sheetId="1" r:id="rId1"/>
     <sheet name="Footnotes" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FDA-Approved Oncology Therapies'!$A$1:$H$229</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FDA-Approved Oncology Therapies'!$A$1:$H$233</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="514">
   <si>
     <t>Year of drug’s first FDA- approval</t>
   </si>
@@ -1380,9 +1380,6 @@
   <si>
     <t>Ph+ (BCR-ABL1 Fusion) or
 ABL1 T315I</t>
-  </si>
-  <si>
-    <t>*BRCA1, BRCA2 Oncogenic Mutations  *ATM, BARD1, BRCA1, BRCA2, BRIP1, CDK12, CHEK1, CHEK2, FANCL, PALB2, RAD51B, RAD51C, RAD51D, RAD54 Oncogenic Mutations</t>
   </si>
   <si>
     <t>*MSI-H or dMMR
@@ -1620,9 +1617,6 @@
     <t>Telomerase template antagonist</t>
   </si>
   <si>
-    <t>dMMR</t>
-  </si>
-  <si>
     <t>*ROS1 Fusions 
 *NTRK Fusions</t>
   </si>
@@ -1758,6 +1752,40 @@
   <si>
     <t>*EGFR Exon 20 Insertions 
 *EGFR Exon 19 Deletions, L858R</t>
+  </si>
+  <si>
+    <t>CAR T-cell therapy (CD19-directed)</t>
+  </si>
+  <si>
+    <t>Obecabtagene autoleucel</t>
+  </si>
+  <si>
+    <t>Revumenib</t>
+  </si>
+  <si>
+    <t>KMT2A Rearrangement</t>
+  </si>
+  <si>
+    <t>Zanidatamab</t>
+  </si>
+  <si>
+    <t>Zenocutuzumab</t>
+  </si>
+  <si>
+    <t>NRG1 Fusion</t>
+  </si>
+  <si>
+    <t>*BRCA1, BRCA2 Oncogenic Mutations  
+*ATM, BARD1, BRCA1, BRCA2, BRIP1, CDK12, CHEK1, CHEK2, FANCL, PALB2, RAD51B, RAD51C, RAD51D, RAD54 Oncogenic Mutations</t>
+  </si>
+  <si>
+    <t>dMMR</t>
+  </si>
+  <si>
+    <t>Bispecific HER2/HER3-directed T-cell engager</t>
+  </si>
+  <si>
+    <t>Menin inhibitor</t>
   </si>
 </sst>
 </file>
@@ -1862,7 +1890,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1874,15 +1902,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2204,47 +2231,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B89377A-76F6-CA40-8081-AAD80BFAB6B8}">
-  <dimension ref="A1:H230"/>
+  <dimension ref="A1:H233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="149" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" zoomScale="149" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E236" sqref="E236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" customWidth="1"/>
-    <col min="4" max="4" width="55.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="77" customWidth="1"/>
-    <col min="9" max="16384" width="11.1640625" style="6"/>
+    <col min="1" max="1" width="20.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="29.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="77" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="11.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>483</v>
+      <c r="H1" s="9" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -2300,7 +2327,7 @@
       <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="10" t="s">
         <v>394</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -2372,7 +2399,7 @@
       <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="10" t="s">
         <v>402</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -2421,7 +2448,7 @@
       <c r="B9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="10" t="s">
         <v>406</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -2447,7 +2474,7 @@
       <c r="B10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="10" t="s">
         <v>407</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -2545,7 +2572,7 @@
       <c r="B14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="10" t="s">
         <v>438</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -2557,7 +2584,7 @@
       <c r="F14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H14" s="5" t="s">
@@ -2617,7 +2644,7 @@
       <c r="B17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="10" t="s">
         <v>389</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -2629,7 +2656,7 @@
       <c r="F17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H17" s="5" t="s">
@@ -2689,7 +2716,7 @@
       <c r="B20" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="8"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="5" t="s">
         <v>25</v>
       </c>
@@ -2699,7 +2726,7 @@
       <c r="F20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H20" s="5" t="s">
@@ -2762,7 +2789,7 @@
       <c r="B23" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="10" t="s">
         <v>419</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -2774,7 +2801,7 @@
       <c r="F23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H23" s="5" t="s">
@@ -2834,7 +2861,7 @@
       <c r="B26" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="10" t="s">
         <v>401</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -2846,7 +2873,7 @@
       <c r="F26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H26" s="5" t="s">
@@ -2909,7 +2936,7 @@
       <c r="B29" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="8"/>
+      <c r="C29" s="10"/>
       <c r="D29" s="5" t="s">
         <v>13</v>
       </c>
@@ -2919,7 +2946,7 @@
       <c r="F29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H29" s="5" t="s">
@@ -2956,7 +2983,7 @@
       <c r="B31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="10" t="s">
         <v>437</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -3051,7 +3078,7 @@
       <c r="B35" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="10" t="s">
         <v>425</v>
       </c>
       <c r="D35" s="5" t="s">
@@ -3063,7 +3090,7 @@
       <c r="F35" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H35" s="5" t="s">
@@ -3078,7 +3105,7 @@
         <v>269</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>54</v>
@@ -3126,7 +3153,7 @@
       <c r="B38" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="8"/>
+      <c r="C38" s="10"/>
       <c r="D38" s="5" t="s">
         <v>13</v>
       </c>
@@ -3136,7 +3163,7 @@
       <c r="F38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H38" s="5" t="s">
@@ -3176,7 +3203,7 @@
       <c r="B40" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="10" t="s">
         <v>429</v>
       </c>
       <c r="D40" s="5" t="s">
@@ -3188,7 +3215,7 @@
       <c r="F40" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="G40" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H40" s="5" t="s">
@@ -3202,7 +3229,7 @@
       <c r="B41" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="8"/>
+      <c r="C41" s="10"/>
       <c r="D41" s="5" t="s">
         <v>86</v>
       </c>
@@ -3212,7 +3239,7 @@
       <c r="F41" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="G41" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H41" s="5" t="s">
@@ -3272,7 +3299,7 @@
       <c r="B44" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="10" t="s">
         <v>441</v>
       </c>
       <c r="D44" s="5" t="s">
@@ -3284,7 +3311,7 @@
       <c r="F44" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G44" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H44" s="5" t="s">
@@ -3321,7 +3348,7 @@
       <c r="B46" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C46" s="8"/>
+      <c r="C46" s="10"/>
       <c r="D46" s="5" t="s">
         <v>30</v>
       </c>
@@ -3331,7 +3358,7 @@
       <c r="F46" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G46" s="8" t="s">
+      <c r="G46" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H46" s="5" t="s">
@@ -3345,7 +3372,7 @@
       <c r="B47" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="8"/>
+      <c r="C47" s="10"/>
       <c r="D47" s="5" t="s">
         <v>13</v>
       </c>
@@ -3355,7 +3382,7 @@
       <c r="F47" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="G47" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H47" s="5" t="s">
@@ -3415,7 +3442,7 @@
       <c r="B50" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C50" s="8"/>
+      <c r="C50" s="10"/>
       <c r="D50" s="5" t="s">
         <v>13</v>
       </c>
@@ -3425,7 +3452,7 @@
       <c r="F50" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G50" s="8" t="s">
+      <c r="G50" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H50" s="5" t="s">
@@ -3485,7 +3512,7 @@
       <c r="B53" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C53" s="8"/>
+      <c r="C53" s="10"/>
       <c r="D53" s="5" t="s">
         <v>103</v>
       </c>
@@ -3495,7 +3522,7 @@
       <c r="F53" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="G53" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H53" s="5" t="s">
@@ -3535,7 +3562,7 @@
       <c r="B55" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="10" t="s">
         <v>433</v>
       </c>
       <c r="D55" s="5" t="s">
@@ -3561,7 +3588,7 @@
       <c r="B56" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C56" s="8"/>
+      <c r="C56" s="10"/>
       <c r="D56" s="5" t="s">
         <v>110</v>
       </c>
@@ -3571,7 +3598,7 @@
       <c r="F56" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G56" s="8" t="s">
+      <c r="G56" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H56" s="5" t="s">
@@ -3706,7 +3733,7 @@
       <c r="B62" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="8"/>
+      <c r="C62" s="10"/>
       <c r="D62" s="5" t="s">
         <v>30</v>
       </c>
@@ -3716,7 +3743,7 @@
       <c r="F62" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G62" s="8" t="s">
+      <c r="G62" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H62" s="5" t="s">
@@ -3753,8 +3780,8 @@
       <c r="B64" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="C64" s="8" t="s">
-        <v>476</v>
+      <c r="C64" s="10" t="s">
+        <v>474</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>54</v>
@@ -3779,7 +3806,7 @@
       <c r="B65" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="8"/>
+      <c r="C65" s="10"/>
       <c r="D65" s="5" t="s">
         <v>51</v>
       </c>
@@ -3789,7 +3816,7 @@
       <c r="F65" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G65" s="8" t="s">
+      <c r="G65" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H65" s="5" t="s">
@@ -3849,7 +3876,7 @@
       <c r="B68" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="10" t="s">
         <v>438</v>
       </c>
       <c r="D68" s="5" t="s">
@@ -3861,7 +3888,7 @@
       <c r="F68" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G68" s="8" t="s">
+      <c r="G68" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H68" s="5" t="s">
@@ -3875,7 +3902,7 @@
       <c r="B69" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="10" t="s">
         <v>439</v>
       </c>
       <c r="D69" s="5" t="s">
@@ -3887,7 +3914,7 @@
       <c r="F69" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G69" s="8" t="s">
+      <c r="G69" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H69" s="5" t="s">
@@ -3924,7 +3951,7 @@
       <c r="B71" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C71" s="8"/>
+      <c r="C71" s="10"/>
       <c r="D71" s="5" t="s">
         <v>142</v>
       </c>
@@ -3934,7 +3961,7 @@
       <c r="F71" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G71" s="8" t="s">
+      <c r="G71" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H71" s="5" t="s">
@@ -4000,7 +4027,7 @@
       <c r="B74" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="10" t="s">
         <v>397</v>
       </c>
       <c r="D74" s="5" t="s">
@@ -4012,7 +4039,7 @@
       <c r="F74" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G74" s="8" t="s">
+      <c r="G74" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H74" s="5" t="s">
@@ -4075,7 +4102,7 @@
       <c r="B77" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C77" s="8"/>
+      <c r="C77" s="10"/>
       <c r="D77" s="5" t="s">
         <v>35</v>
       </c>
@@ -4085,7 +4112,7 @@
       <c r="F77" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G77" s="8" t="s">
+      <c r="G77" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H77" s="5" t="s">
@@ -4148,7 +4175,7 @@
       <c r="B80" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C80" s="8"/>
+      <c r="C80" s="10"/>
       <c r="D80" s="5" t="s">
         <v>77</v>
       </c>
@@ -4158,7 +4185,7 @@
       <c r="F80" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G80" s="8" t="s">
+      <c r="G80" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H80" s="5" t="s">
@@ -4224,7 +4251,7 @@
       <c r="B83" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="10" t="s">
         <v>397</v>
       </c>
       <c r="D83" s="5" t="s">
@@ -4236,7 +4263,7 @@
       <c r="F83" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G83" s="8" t="s">
+      <c r="G83" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H83" s="5" t="s">
@@ -4296,7 +4323,7 @@
       <c r="B86" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C86" s="8"/>
+      <c r="C86" s="10"/>
       <c r="D86" s="5" t="s">
         <v>13</v>
       </c>
@@ -4306,7 +4333,7 @@
       <c r="F86" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G86" s="8" t="s">
+      <c r="G86" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H86" s="5" t="s">
@@ -4339,15 +4366,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" s="5" customFormat="1" ht="98" x14ac:dyDescent="0.15">
       <c r="A88" s="5">
         <v>2014</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C88" s="5" t="s">
-        <v>443</v>
+      <c r="C88" s="10" t="s">
+        <v>510</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>142</v>
@@ -4372,8 +4399,8 @@
       <c r="B89" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C89" s="8" t="s">
-        <v>444</v>
+      <c r="C89" s="10" t="s">
+        <v>443</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>110</v>
@@ -4384,7 +4411,7 @@
       <c r="F89" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G89" s="8" t="s">
+      <c r="G89" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H89" s="5" t="s">
@@ -4444,7 +4471,7 @@
       <c r="B92" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="10" t="s">
         <v>391</v>
       </c>
       <c r="D92" s="5" t="s">
@@ -4456,7 +4483,7 @@
       <c r="F92" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G92" s="8" t="s">
+      <c r="G92" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H92" s="5" t="s">
@@ -4468,7 +4495,7 @@
         <v>2015</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>397</v>
@@ -4519,7 +4546,7 @@
       <c r="B95" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C95" s="8"/>
+      <c r="C95" s="10"/>
       <c r="D95" s="5" t="s">
         <v>38</v>
       </c>
@@ -4529,7 +4556,7 @@
       <c r="F95" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G95" s="8" t="s">
+      <c r="G95" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H95" s="5" t="s">
@@ -4567,7 +4594,7 @@
         <v>189</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>110</v>
@@ -4592,7 +4619,7 @@
       <c r="B98" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C98" s="8"/>
+      <c r="C98" s="10"/>
       <c r="D98" s="5" t="s">
         <v>51</v>
       </c>
@@ -4602,7 +4629,7 @@
       <c r="F98" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G98" s="8" t="s">
+      <c r="G98" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H98" s="5" t="s">
@@ -4662,7 +4689,7 @@
       <c r="B101" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="10" t="s">
         <v>427</v>
       </c>
       <c r="D101" s="5" t="s">
@@ -4674,7 +4701,7 @@
       <c r="F101" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G101" s="8" t="s">
+      <c r="G101" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H101" s="5" t="s">
@@ -4737,7 +4764,7 @@
       <c r="B104" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C104" s="8"/>
+      <c r="C104" s="10"/>
       <c r="D104" s="5" t="s">
         <v>142</v>
       </c>
@@ -4747,7 +4774,7 @@
       <c r="F104" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G104" s="8" t="s">
+      <c r="G104" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H104" s="5" t="s">
@@ -4807,7 +4834,7 @@
       <c r="B107" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C107" s="8"/>
+      <c r="C107" s="10"/>
       <c r="D107" s="5" t="s">
         <v>18</v>
       </c>
@@ -4817,7 +4844,7 @@
       <c r="F107" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G107" s="8" t="s">
+      <c r="G107" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H107" s="5" t="s">
@@ -4832,7 +4859,7 @@
         <v>206</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>110</v>
@@ -4880,7 +4907,7 @@
       <c r="B110" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C110" s="8" t="s">
+      <c r="C110" s="10" t="s">
         <v>428</v>
       </c>
       <c r="D110" s="5" t="s">
@@ -4892,7 +4919,7 @@
       <c r="F110" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G110" s="8" t="s">
+      <c r="G110" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H110" s="5" t="s">
@@ -4955,7 +4982,7 @@
       <c r="B113" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C113" s="8"/>
+      <c r="C113" s="10"/>
       <c r="D113" s="5" t="s">
         <v>54</v>
       </c>
@@ -4965,7 +4992,7 @@
       <c r="F113" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G113" s="8" t="s">
+      <c r="G113" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H113" s="5" t="s">
@@ -5025,7 +5052,7 @@
       <c r="B116" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="C116" s="10" t="s">
         <v>391</v>
       </c>
       <c r="D116" s="5" t="s">
@@ -5037,7 +5064,7 @@
       <c r="F116" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G116" s="8" t="s">
+      <c r="G116" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H116" s="5" t="s">
@@ -5097,8 +5124,8 @@
       <c r="B119" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C119" s="8" t="s">
-        <v>475</v>
+      <c r="C119" s="10" t="s">
+        <v>511</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>110</v>
@@ -5109,7 +5136,7 @@
       <c r="F119" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G119" s="8" t="s">
+      <c r="G119" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H119" s="5" t="s">
@@ -5124,7 +5151,7 @@
         <v>225</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>142</v>
@@ -5150,7 +5177,7 @@
         <v>227</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>20</v>
@@ -5253,7 +5280,7 @@
       <c r="B125" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C125" s="8" t="s">
+      <c r="C125" s="10" t="s">
         <v>389</v>
       </c>
       <c r="D125" s="5" t="s">
@@ -5265,7 +5292,7 @@
       <c r="F125" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G125" s="8" t="s">
+      <c r="G125" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H125" s="5" t="s">
@@ -5323,9 +5350,9 @@
         <v>2018</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="C128" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="C128" s="10" t="s">
         <v>397</v>
       </c>
       <c r="D128" s="5" t="s">
@@ -5337,7 +5364,7 @@
       <c r="F128" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G128" s="8" t="s">
+      <c r="G128" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H128" s="5" t="s">
@@ -5375,7 +5402,7 @@
         <v>237</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>110</v>
@@ -5400,7 +5427,7 @@
       <c r="B131" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C131" s="8" t="s">
+      <c r="C131" s="10" t="s">
         <v>405</v>
       </c>
       <c r="D131" s="5" t="s">
@@ -5412,7 +5439,7 @@
       <c r="F131" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G131" s="8" t="s">
+      <c r="G131" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H131" s="5" t="s">
@@ -5449,7 +5476,7 @@
       <c r="B133" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C133" s="8"/>
+      <c r="C133" s="10"/>
       <c r="D133" s="5" t="s">
         <v>30</v>
       </c>
@@ -5459,7 +5486,7 @@
       <c r="F133" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G133" s="8" t="s">
+      <c r="G133" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H133" s="5" t="s">
@@ -5473,7 +5500,7 @@
       <c r="B134" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="C134" s="8"/>
+      <c r="C134" s="10"/>
       <c r="D134" s="5" t="s">
         <v>142</v>
       </c>
@@ -5483,7 +5510,7 @@
       <c r="F134" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G134" s="8" t="s">
+      <c r="G134" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H134" s="5" t="s">
@@ -5546,7 +5573,7 @@
       <c r="B137" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C137" s="8" t="s">
+      <c r="C137" s="10" t="s">
         <v>430</v>
       </c>
       <c r="D137" s="5" t="s">
@@ -5558,7 +5585,7 @@
       <c r="F137" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G137" s="8" t="s">
+      <c r="G137" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H137" s="5" t="s">
@@ -5621,7 +5648,7 @@
       <c r="B140" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C140" s="8"/>
+      <c r="C140" s="10"/>
       <c r="D140" s="5" t="s">
         <v>113</v>
       </c>
@@ -5631,7 +5658,7 @@
       <c r="F140" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G140" s="8" t="s">
+      <c r="G140" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H140" s="5" t="s">
@@ -5691,7 +5718,7 @@
       <c r="B143" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C143" s="8" t="s">
+      <c r="C143" s="10" t="s">
         <v>431</v>
       </c>
       <c r="D143" s="5" t="s">
@@ -5703,7 +5730,7 @@
       <c r="F143" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G143" s="8" t="s">
+      <c r="G143" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H143" s="5" t="s">
@@ -5766,7 +5793,7 @@
       <c r="B146" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C146" s="8"/>
+      <c r="C146" s="10"/>
       <c r="D146" s="5" t="s">
         <v>145</v>
       </c>
@@ -5776,7 +5803,7 @@
       <c r="F146" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G146" s="8" t="s">
+      <c r="G146" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H146" s="5" t="s">
@@ -5914,7 +5941,7 @@
       <c r="B152" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="C152" s="8"/>
+      <c r="C152" s="10"/>
       <c r="D152" s="5" t="s">
         <v>142</v>
       </c>
@@ -5924,7 +5951,7 @@
       <c r="F152" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G152" s="8" t="s">
+      <c r="G152" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H152" s="5" t="s">
@@ -5938,8 +5965,8 @@
       <c r="B153" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C153" s="8" t="s">
-        <v>448</v>
+      <c r="C153" s="10" t="s">
+        <v>447</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>145</v>
@@ -5987,7 +6014,7 @@
       <c r="B155" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C155" s="8" t="s">
+      <c r="C155" s="10" t="s">
         <v>395</v>
       </c>
       <c r="D155" s="5" t="s">
@@ -5999,7 +6026,7 @@
       <c r="F155" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G155" s="8" t="s">
+      <c r="G155" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H155" s="5" t="s">
@@ -6013,7 +6040,7 @@
       <c r="B156" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C156" s="8" t="s">
+      <c r="C156" s="10" t="s">
         <v>442</v>
       </c>
       <c r="D156" s="5" t="s">
@@ -6062,7 +6089,7 @@
       <c r="B158" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="C158" s="8"/>
+      <c r="C158" s="10"/>
       <c r="D158" s="5" t="s">
         <v>217</v>
       </c>
@@ -6072,7 +6099,7 @@
       <c r="F158" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G158" s="8" t="s">
+      <c r="G158" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H158" s="5" t="s">
@@ -6135,19 +6162,19 @@
       <c r="B161" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="C161" s="8" t="s">
+      <c r="C161" s="10" t="s">
         <v>403</v>
       </c>
       <c r="D161" s="5" t="s">
         <v>295</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F161" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G161" s="8" t="s">
+      <c r="G161" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H161" s="5" t="s">
@@ -6207,7 +6234,7 @@
       <c r="B164" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="C164" s="8" t="s">
+      <c r="C164" s="10" t="s">
         <v>438</v>
       </c>
       <c r="D164" s="5" t="s">
@@ -6219,7 +6246,7 @@
       <c r="F164" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G164" s="8" t="s">
+      <c r="G164" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H164" s="5" t="s">
@@ -6245,6 +6272,9 @@
       <c r="G165" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="H165" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="166" spans="1:8" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A166" s="5">
@@ -6253,7 +6283,7 @@
       <c r="B166" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="C166" s="8" t="s">
+      <c r="C166" s="10" t="s">
         <v>423</v>
       </c>
       <c r="D166" s="5" t="s">
@@ -6279,7 +6309,7 @@
       <c r="B167" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="C167" s="8" t="s">
+      <c r="C167" s="10" t="s">
         <v>413</v>
       </c>
       <c r="D167" s="5" t="s">
@@ -6291,7 +6321,7 @@
       <c r="F167" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G167" s="8" t="s">
+      <c r="G167" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H167" s="5" t="s">
@@ -6329,7 +6359,7 @@
         <v>306</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D169" s="5" t="s">
         <v>54</v>
@@ -6354,7 +6384,7 @@
       <c r="B170" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="C170" s="8" t="s">
+      <c r="C170" s="10" t="s">
         <v>415</v>
       </c>
       <c r="D170" s="5" t="s">
@@ -6366,7 +6396,7 @@
       <c r="F170" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G170" s="8" t="s">
+      <c r="G170" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H170" s="5" t="s">
@@ -6432,7 +6462,7 @@
       <c r="B173" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="C173" s="8"/>
+      <c r="C173" s="10"/>
       <c r="D173" s="5" t="s">
         <v>20</v>
       </c>
@@ -6442,7 +6472,7 @@
       <c r="F173" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G173" s="8" t="s">
+      <c r="G173" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H173" s="5" t="s">
@@ -6482,8 +6512,8 @@
       <c r="B175" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="C175" s="8" t="s">
-        <v>449</v>
+      <c r="C175" s="10" t="s">
+        <v>448</v>
       </c>
       <c r="D175" s="5" t="s">
         <v>295</v>
@@ -6508,8 +6538,8 @@
       <c r="B176" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="C176" s="8" t="s">
-        <v>504</v>
+      <c r="C176" s="10" t="s">
+        <v>502</v>
       </c>
       <c r="D176" s="5" t="s">
         <v>38</v>
@@ -6520,22 +6550,22 @@
       <c r="F176" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G176" s="8" t="s">
+      <c r="G176" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H176" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:8" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A177" s="5">
         <v>2021</v>
       </c>
       <c r="B177" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="C177" s="5" t="s">
-        <v>450</v>
+      <c r="C177" s="10" t="s">
+        <v>449</v>
       </c>
       <c r="D177" s="5" t="s">
         <v>54</v>
@@ -6586,7 +6616,7 @@
       <c r="B179" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C179" s="8" t="s">
+      <c r="C179" s="10" t="s">
         <v>434</v>
       </c>
       <c r="D179" s="5" t="s">
@@ -6598,7 +6628,7 @@
       <c r="F179" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G179" s="8" t="s">
+      <c r="G179" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H179" s="5" t="s">
@@ -6661,7 +6691,7 @@
       <c r="B182" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="C182" s="8"/>
+      <c r="C182" s="10"/>
       <c r="D182" s="5" t="s">
         <v>217</v>
       </c>
@@ -6671,7 +6701,7 @@
       <c r="F182" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G182" s="8" t="s">
+      <c r="G182" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H182" s="5" t="s">
@@ -6731,7 +6761,7 @@
       <c r="B185" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="C185" s="8" t="s">
+      <c r="C185" s="10" t="s">
         <v>393</v>
       </c>
       <c r="D185" s="5" t="s">
@@ -6743,7 +6773,7 @@
       <c r="F185" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G185" s="8" t="s">
+      <c r="G185" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H185" s="5" t="s">
@@ -6806,7 +6836,7 @@
       <c r="B188" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="C188" s="8" t="s">
+      <c r="C188" s="10" t="s">
         <v>400</v>
       </c>
       <c r="D188" s="5" t="s">
@@ -6818,7 +6848,7 @@
       <c r="F188" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G188" s="8" t="s">
+      <c r="G188" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H188" s="5" t="s">
@@ -6881,7 +6911,7 @@
       <c r="B191" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="C191" s="8" t="s">
+      <c r="C191" s="10" t="s">
         <v>438</v>
       </c>
       <c r="D191" s="5" t="s">
@@ -6893,7 +6923,7 @@
       <c r="F191" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G191" s="8" t="s">
+      <c r="G191" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H191" s="5" t="s">
@@ -6959,7 +6989,7 @@
       <c r="B194" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="C194" s="8"/>
+      <c r="C194" s="10"/>
       <c r="D194" s="5" t="s">
         <v>217</v>
       </c>
@@ -6969,7 +6999,7 @@
       <c r="F194" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G194" s="8" t="s">
+      <c r="G194" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H194" s="5" t="s">
@@ -7035,7 +7065,7 @@
       <c r="B197" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="C197" s="8"/>
+      <c r="C197" s="10"/>
       <c r="D197" s="5" t="s">
         <v>161</v>
       </c>
@@ -7045,7 +7075,7 @@
       <c r="F197" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G197" s="8" t="s">
+      <c r="G197" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H197" s="5" t="s">
@@ -7105,7 +7135,7 @@
       <c r="B200" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="C200" s="8" t="s">
+      <c r="C200" s="10" t="s">
         <v>421</v>
       </c>
       <c r="D200" s="5" t="s">
@@ -7117,7 +7147,7 @@
       <c r="F200" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G200" s="8" t="s">
+      <c r="G200" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H200" s="5" t="s">
@@ -7183,7 +7213,7 @@
       <c r="B203" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C203" s="8"/>
+      <c r="C203" s="10"/>
       <c r="D203" s="5" t="s">
         <v>161</v>
       </c>
@@ -7193,7 +7223,7 @@
       <c r="F203" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G203" s="8" t="s">
+      <c r="G203" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H203" s="5" t="s">
@@ -7231,7 +7261,7 @@
         <v>387</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D205" s="5" t="s">
         <v>54</v>
@@ -7256,7 +7286,7 @@
       <c r="B206" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="C206" s="8" t="s">
+      <c r="C206" s="10" t="s">
         <v>422</v>
       </c>
       <c r="D206" s="5" t="s">
@@ -7268,7 +7298,7 @@
       <c r="F206" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G206" s="8" t="s">
+      <c r="G206" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H206" s="5" t="s">
@@ -7328,7 +7358,7 @@
       <c r="B209" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C209" s="8"/>
+      <c r="C209" s="10"/>
       <c r="D209" s="5" t="s">
         <v>161</v>
       </c>
@@ -7338,7 +7368,7 @@
       <c r="F209" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G209" s="8" t="s">
+      <c r="G209" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H209" s="5" t="s">
@@ -7398,7 +7428,7 @@
       <c r="B212" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="C212" s="8"/>
+      <c r="C212" s="10"/>
       <c r="D212" s="5" t="s">
         <v>54</v>
       </c>
@@ -7408,7 +7438,7 @@
       <c r="F212" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G212" s="8" t="s">
+      <c r="G212" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H212" s="5" t="s">
@@ -7423,7 +7453,7 @@
         <v>378</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D213" s="5" t="s">
         <v>142</v>
@@ -7471,7 +7501,7 @@
       <c r="B215" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="C215" s="8"/>
+      <c r="C215" s="10"/>
       <c r="D215" s="5" t="s">
         <v>110</v>
       </c>
@@ -7481,7 +7511,7 @@
       <c r="F215" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G215" s="8" t="s">
+      <c r="G215" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H215" s="5" t="s">
@@ -7539,13 +7569,13 @@
         <v>2023</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D218" s="5" t="s">
         <v>142</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F218" s="5" t="s">
         <v>6</v>
@@ -7562,14 +7592,13 @@
         <v>2024</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="C219" s="6"/>
+        <v>463</v>
+      </c>
       <c r="D219" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F219" s="5" t="s">
         <v>6</v>
@@ -7586,14 +7615,14 @@
         <v>2024</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="C220" s="12"/>
+        <v>468</v>
+      </c>
+      <c r="C220" s="11"/>
       <c r="D220" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F220" s="5" t="s">
         <v>6</v>
@@ -7610,16 +7639,16 @@
         <v>2024</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="C221" s="8" t="s">
-        <v>468</v>
+        <v>464</v>
+      </c>
+      <c r="C221" s="10" t="s">
+        <v>467</v>
       </c>
       <c r="D221" s="5" t="s">
         <v>54</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F221" s="5" t="s">
         <v>6</v>
@@ -7636,14 +7665,14 @@
         <v>2024</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C222" s="5"/>
       <c r="D222" s="5" t="s">
         <v>161</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F222" s="5" t="s">
         <v>6</v>
@@ -7660,15 +7689,15 @@
         <v>2024</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C223" s="5"/>
       <c r="D223" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="E223" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="E223" s="5" t="s">
-        <v>474</v>
-      </c>
       <c r="F223" s="5" t="s">
         <v>6</v>
       </c>
@@ -7680,54 +7709,54 @@
       </c>
     </row>
     <row r="224" spans="1:8" ht="43" x14ac:dyDescent="0.2">
-      <c r="A224" s="8">
+      <c r="A224" s="10">
         <v>2024</v>
       </c>
-      <c r="B224" s="8" t="s">
+      <c r="B224" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="C224" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="D224" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="C224" s="8" t="s">
+      <c r="E224" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="D224" s="8" t="s">
+      <c r="F224" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G224" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H224" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="10">
+        <v>2024</v>
+      </c>
+      <c r="B225" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="E224" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="F224" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G224" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H224" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="8">
-        <v>2024</v>
-      </c>
-      <c r="B225" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="C225" s="8" t="s">
-        <v>484</v>
+      <c r="C225" s="10" t="s">
+        <v>482</v>
       </c>
       <c r="D225" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E225" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="F225" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G225" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H225" s="8" t="s">
+      <c r="E225" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="F225" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G225" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H225" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7736,21 +7765,21 @@
         <v>2024</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="C226" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="C226" s="10" t="s">
         <v>405</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F226" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G226" s="8" t="s">
+      <c r="G226" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H226" s="5" t="s">
@@ -7762,16 +7791,16 @@
         <v>2024</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D227" s="5" t="s">
         <v>262</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F227" s="5" t="s">
         <v>6</v>
@@ -7788,7 +7817,7 @@
         <v>2024</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C228" s="5" t="s">
         <v>417</v>
@@ -7797,7 +7826,7 @@
         <v>295</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F228" s="5" t="s">
         <v>6</v>
@@ -7814,16 +7843,16 @@
         <v>2024</v>
       </c>
       <c r="B229" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C229" s="5" t="s">
         <v>492</v>
-      </c>
-      <c r="C229" s="5" t="s">
-        <v>494</v>
       </c>
       <c r="D229" s="5" t="s">
         <v>38</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F229" s="5" t="s">
         <v>6</v>
@@ -7836,21 +7865,108 @@
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A230" s="7"/>
-      <c r="B230" s="7"/>
-      <c r="C230" s="7"/>
-      <c r="D230" s="7"/>
-      <c r="E230" s="7"/>
-      <c r="F230" s="7"/>
-      <c r="G230" s="7"/>
-      <c r="H230" s="7"/>
+      <c r="A230" s="4">
+        <v>2024</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="C230" s="4"/>
+      <c r="D230" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E230" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="F230" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G230" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H230" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A231" s="4">
+        <v>2024</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E231" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="F231" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G231" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H231" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A232" s="4">
+        <v>2024</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E232" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F232" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G232" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H232" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A233" s="4">
+        <v>2024</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E233" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="F233" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G233" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H233" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H229" xr:uid="{6B89377A-76F6-CA40-8081-AAD80BFAB6B8}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:H214">
-      <sortCondition ref="E1:E229"/>
-    </sortState>
-  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H217">
     <sortCondition ref="B2:B217"/>
   </sortState>
@@ -7874,22 +7990,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="59" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -7899,12 +8015,12 @@
     </row>
     <row r="6" spans="1:1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/content/files/oncologyTherapies/fda_approved_oncology_therapies.xlsx
+++ b/src/main/webapp/content/files/oncologyTherapies/fda_approved_oncology_therapies.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cavendk1/Documents/New onc therapies/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mskcc-my.sharepoint.com/personal/phillis2_mskcc_org/Documents/Precision Oncology Drug Page for Website/FDA-Approved_Oncology_therapies_bi_monthly updates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{602E1A6E-F8B5-3C40-807D-ACF627C90F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{8C0F3825-168A-3C4C-913E-753BB014F271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33F0D526-34CA-1149-A4CE-440D95A17625}"/>
   <bookViews>
-    <workbookView xWindow="30500" yWindow="540" windowWidth="24200" windowHeight="18540" xr2:uid="{D862B214-800F-AF40-9BAA-60FE1781D5C8}"/>
+    <workbookView xWindow="49820" yWindow="2800" windowWidth="29560" windowHeight="16900" xr2:uid="{D862B214-800F-AF40-9BAA-60FE1781D5C8}"/>
   </bookViews>
   <sheets>
     <sheet name="FDA-Approved Oncology Therapies" sheetId="1" r:id="rId1"/>
     <sheet name="Footnotes" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FDA-Approved Oncology Therapies'!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FDA-Approved Oncology Therapies'!$A$1:$H$243</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="532">
   <si>
     <t>Year of drug’s first FDA- approval</t>
   </si>
@@ -1796,36 +1796,55 @@
     <t>Datopotamab deruxtecan</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">*HER2+ (ERBB2 Amplification)
+    <t>Mirdametinib</t>
+  </si>
+  <si>
+    <t>Brentuximab vedotin</t>
+  </si>
+  <si>
+    <t>Vimseltinib</t>
+  </si>
+  <si>
+    <t>CSF1R inhibitor</t>
+  </si>
+  <si>
+    <t>TROP2-directed antibody and topoisomerase inhibitor conjugate</t>
+  </si>
+  <si>
+    <t>*HER2+ (ERBB2 Amplification)
 *HER2-low
 *ERBB2 Oncogenic Mutations 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>*HR+/HER2-low or HER2-ultralow</t>
-    </r>
-  </si>
-  <si>
-    <t>Mirdametinib</t>
-  </si>
-  <si>
-    <t>Brentuximab vedotin</t>
-  </si>
-  <si>
-    <t>Vimseltinib</t>
-  </si>
-  <si>
-    <t>CSF1R inhibitor</t>
-  </si>
-  <si>
-    <t>TROP2-directed antibody and topoisomerase inhibitor conjugate</t>
+*HR+/HER2-low or HER2-ultralow</t>
+  </si>
+  <si>
+    <t>Avutometinib + Defactinib</t>
+  </si>
+  <si>
+    <t>MEK1 inhibitor + FAK inhibitor</t>
+  </si>
+  <si>
+    <t>KRAS Oncogenic Mutations</t>
+  </si>
+  <si>
+    <t>c-Met-directed antibody microtubule inhibitor conjugate</t>
+  </si>
+  <si>
+    <t>Taletrectinib</t>
+  </si>
+  <si>
+    <t>ROS1 inhibitor</t>
+  </si>
+  <si>
+    <t>ROS1+ (ROS1 Fusions)</t>
+  </si>
+  <si>
+    <t>Penpulimab</t>
+  </si>
+  <si>
+    <t>c-Met+</t>
+  </si>
+  <si>
+    <t>Telisotuzumab</t>
   </si>
 </sst>
 </file>
@@ -1953,18 +1972,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2279,5570 +2306,5789 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B89377A-76F6-CA40-8081-AAD80BFAB6B8}">
-  <dimension ref="A1:H240"/>
+  <dimension ref="A1:I244"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B230" sqref="B230"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="3" width="26.1640625" customWidth="1"/>
-    <col min="4" max="4" width="29.5" customWidth="1"/>
-    <col min="5" max="5" width="77" customWidth="1"/>
-    <col min="9" max="16384" width="11.1640625" style="6"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="29.5" style="12" customWidth="1"/>
+    <col min="5" max="5" width="77" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="11.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" s="13" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="11" t="s">
         <v>507</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>509</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="8" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
+      <c r="F3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
+      <c r="F4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
+      <c r="F5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
+      <c r="F6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+      <c r="F7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
+      <c r="F8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
+      <c r="F9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" s="9">
+      <c r="F10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
         <v>2018</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
+      <c r="F11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
+      <c r="F12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A14" s="9" t="s">
+      <c r="F13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A15" s="9" t="s">
+      <c r="H14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A16" s="9" t="s">
+      <c r="F15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A17" s="9">
+      <c r="F16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A17" s="7">
         <v>2002</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A18" s="9">
+      <c r="H17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A18" s="7">
         <v>2002</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9" t="s">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A19" s="9">
+      <c r="F18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A19" s="7">
         <v>2002</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A20" s="9">
+      <c r="F19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A20" s="7">
         <v>2003</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A21" s="9">
+      <c r="H20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A21" s="7">
         <v>2003</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A22" s="9">
+      <c r="F21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A22" s="7">
         <v>2003</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A23" s="9">
+      <c r="F22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A23" s="7">
         <v>2003</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A24" s="9">
+      <c r="H23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A24" s="7">
         <v>2004</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9" t="s">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A25" s="9">
+      <c r="F24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A25" s="7">
         <v>2004</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9" t="s">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A26" s="9">
+      <c r="F25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A26" s="7">
         <v>2004</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A27" s="9">
+      <c r="H26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A27" s="7">
         <v>2004</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9" t="s">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A28" s="9">
+      <c r="F27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A28" s="7">
         <v>2004</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A29" s="9">
+      <c r="F28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A29" s="7">
         <v>2004</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H29" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A30" s="9">
+      <c r="H29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A30" s="7">
         <v>2005</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9" t="s">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="5" customFormat="1" ht="70" x14ac:dyDescent="0.15">
-      <c r="A31" s="9" t="s">
+      <c r="F30" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:9" s="5" customFormat="1" ht="70" x14ac:dyDescent="0.15">
+      <c r="A31" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A32" s="9">
+      <c r="F31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A32" s="7">
         <v>2019</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9" t="s">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="F32" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A33" s="9">
+      <c r="F32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A33" s="7">
         <v>2006</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9" t="s">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A34" s="9">
+      <c r="F33" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A34" s="7">
         <v>2006</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9" t="s">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A35" s="9">
+      <c r="F34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A35" s="7">
         <v>2006</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H35" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A36" s="9">
+      <c r="H35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:9" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A36" s="7">
         <v>2019</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F36" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A37" s="9">
+      <c r="F36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A37" s="7">
         <v>2006</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9" t="s">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F37" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A38" s="9">
+      <c r="F37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A38" s="7">
         <v>2007</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C38" s="2"/>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H38" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A39" s="9">
+      <c r="H38" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A39" s="7">
         <v>2007</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A40" s="9">
+      <c r="F39" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A40" s="7">
         <v>2017</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="2" t="s">
         <v>227</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H40" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A41" s="9">
+      <c r="H40" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A41" s="7">
         <v>2007</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C41" s="2"/>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H41" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A42" s="9">
+      <c r="H41" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A42" s="7">
         <v>2008</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9" t="s">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A43" s="9">
+      <c r="F42" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A43" s="7">
         <v>2008</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9" t="s">
+      <c r="C43" s="2"/>
+      <c r="D43" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F43" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A44" s="9">
+      <c r="F43" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A44" s="7">
         <v>2009</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H44" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A45" s="9">
+      <c r="H44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I44" s="7"/>
+    </row>
+    <row r="45" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A45" s="7">
         <v>2009</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9" t="s">
+      <c r="C45" s="2"/>
+      <c r="D45" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F45" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A46" s="9">
+      <c r="F45" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="7"/>
+    </row>
+    <row r="46" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A46" s="7">
         <v>2019</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="2" t="s">
         <v>272</v>
       </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H46" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A47" s="9">
+      <c r="H46" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="7"/>
+    </row>
+    <row r="47" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A47" s="7">
         <v>2009</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C47" s="2"/>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H47" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A48" s="9">
+      <c r="H47" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="7"/>
+    </row>
+    <row r="48" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A48" s="7">
         <v>2009</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9" t="s">
+      <c r="C48" s="2"/>
+      <c r="D48" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F48" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A49" s="9">
+      <c r="F48" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A49" s="7">
         <v>2010</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9" t="s">
+      <c r="C49" s="2"/>
+      <c r="D49" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F49" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A50" s="9">
+      <c r="F49" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="7"/>
+    </row>
+    <row r="50" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A50" s="7">
         <v>2010</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C50" s="2"/>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H50" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A51" s="9">
+      <c r="H50" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" s="7"/>
+    </row>
+    <row r="51" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A51" s="7">
         <v>2010</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9" t="s">
+      <c r="C51" s="2"/>
+      <c r="D51" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F51" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A52" s="9">
+      <c r="F51" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="7"/>
+    </row>
+    <row r="52" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A52" s="7">
         <v>2011</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9" t="s">
+      <c r="C52" s="2"/>
+      <c r="D52" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F52" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A53" s="9">
+      <c r="F52" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="7"/>
+    </row>
+    <row r="53" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A53" s="7">
         <v>2011</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C53" s="2"/>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E53" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F53" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H53" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A54" s="9">
+      <c r="H53" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="7"/>
+    </row>
+    <row r="54" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A54" s="7">
         <v>2011</v>
       </c>
-      <c r="B54" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="C54" s="9" t="s">
+      <c r="B54" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E54" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F54" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A55" s="9">
+      <c r="F54" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I54" s="7"/>
+    </row>
+    <row r="55" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A55" s="7">
         <v>2020</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="2" t="s">
         <v>284</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="E55" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="F55" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A56" s="9">
+      <c r="F55" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I55" s="7"/>
+    </row>
+    <row r="56" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A56" s="7">
         <v>2011</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C56" s="2"/>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E56" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F56" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H56" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A57" s="9">
+      <c r="H56" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I56" s="7"/>
+    </row>
+    <row r="57" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A57" s="7">
         <v>2011</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9" t="s">
+      <c r="C57" s="2"/>
+      <c r="D57" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="E57" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F57" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A58" s="9">
+      <c r="F57" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="7"/>
+    </row>
+    <row r="58" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A58" s="7">
         <v>2011</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9" t="s">
+      <c r="C58" s="2"/>
+      <c r="D58" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E58" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F58" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A59" s="9">
+      <c r="F58" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="7"/>
+    </row>
+    <row r="59" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A59" s="7">
         <v>2019</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="E59" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="F59" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H59" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A60" s="9">
+      <c r="F59" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I59" s="7"/>
+    </row>
+    <row r="60" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A60" s="7">
         <v>2011</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D60" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="E60" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F60" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H60" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A61" s="9">
+      <c r="F60" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I60" s="7"/>
+    </row>
+    <row r="61" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A61" s="7">
         <v>2012</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9" t="s">
+      <c r="C61" s="2"/>
+      <c r="D61" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="E61" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F61" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A62" s="9">
+      <c r="F61" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I61" s="7"/>
+    </row>
+    <row r="62" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A62" s="7">
         <v>2012</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C62" s="2"/>
-      <c r="D62" s="9" t="s">
+      <c r="D62" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E62" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F62" s="9" t="s">
+      <c r="F62" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H62" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A63" s="9">
+      <c r="H62" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="7"/>
+    </row>
+    <row r="63" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A63" s="7">
         <v>2021</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9" t="s">
+      <c r="C63" s="2"/>
+      <c r="D63" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="E63" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="F63" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H63" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A64" s="9">
+      <c r="F63" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I63" s="7"/>
+    </row>
+    <row r="64" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A64" s="7">
         <v>2023</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="2" t="s">
         <v>382</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D64" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E64" s="9" t="s">
+      <c r="E64" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="F64" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H64" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A65" s="9">
+      <c r="F64" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I64" s="7"/>
+    </row>
+    <row r="65" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A65" s="7">
         <v>2012</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C65" s="2"/>
-      <c r="D65" s="9" t="s">
+      <c r="D65" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E65" s="9" t="s">
+      <c r="E65" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F65" s="9" t="s">
+      <c r="F65" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H65" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A66" s="9">
+      <c r="H65" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I65" s="7"/>
+    </row>
+    <row r="66" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A66" s="7">
         <v>2012</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9" t="s">
+      <c r="C66" s="2"/>
+      <c r="D66" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="E66" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F66" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H66" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A67" s="9">
+      <c r="F66" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" s="7"/>
+    </row>
+    <row r="67" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A67" s="7">
         <v>2012</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9" t="s">
+      <c r="C67" s="2"/>
+      <c r="D67" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E67" s="9" t="s">
+      <c r="E67" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F67" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G67" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H67" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A68" s="9">
+      <c r="F67" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I67" s="7"/>
+    </row>
+    <row r="68" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A68" s="7">
         <v>2012</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D68" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E68" s="9" t="s">
+      <c r="E68" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F68" s="9" t="s">
+      <c r="F68" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H68" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A69" s="9">
+      <c r="H68" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I68" s="7"/>
+    </row>
+    <row r="69" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A69" s="7">
         <v>2006</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D69" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="E69" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="F69" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H69" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A70" s="9">
+      <c r="H69" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I69" s="7"/>
+    </row>
+    <row r="70" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A70" s="7">
         <v>2005</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9" t="s">
+      <c r="C70" s="2"/>
+      <c r="D70" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E70" s="9" t="s">
+      <c r="E70" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F70" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A71" s="9">
+      <c r="F70" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I70" s="7"/>
+    </row>
+    <row r="71" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A71" s="7">
         <v>2012</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C71" s="2"/>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E71" s="9" t="s">
+      <c r="E71" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F71" s="9" t="s">
+      <c r="F71" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H71" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A72" s="9">
+      <c r="H71" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I71" s="7"/>
+    </row>
+    <row r="72" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A72" s="7">
         <v>2013</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D72" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E72" s="9" t="s">
+      <c r="E72" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F72" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G72" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H72" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A73" s="9">
+      <c r="F72" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I72" s="7"/>
+    </row>
+    <row r="73" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A73" s="7">
         <v>2013</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D73" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E73" s="9" t="s">
+      <c r="E73" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F73" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G73" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H73" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A74" s="9">
+      <c r="F73" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I73" s="7"/>
+    </row>
+    <row r="74" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A74" s="7">
         <v>2013</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="D74" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E74" s="9" t="s">
+      <c r="E74" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F74" s="9" t="s">
+      <c r="F74" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H74" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A75" s="9">
+      <c r="H74" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I74" s="7"/>
+    </row>
+    <row r="75" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A75" s="7">
         <v>2013</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C75" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="D75" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="E75" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F75" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H75" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A76" s="9">
+      <c r="F75" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I75" s="7"/>
+    </row>
+    <row r="76" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A76" s="7">
         <v>2013</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9" t="s">
+      <c r="C76" s="2"/>
+      <c r="D76" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E76" s="9" t="s">
+      <c r="E76" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F76" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G76" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H76" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A77" s="9">
+      <c r="F76" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" s="7"/>
+    </row>
+    <row r="77" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A77" s="7">
         <v>2013</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C77" s="2"/>
-      <c r="D77" s="9" t="s">
+      <c r="D77" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="E77" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F77" s="9" t="s">
+      <c r="F77" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H77" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A78" s="9">
+      <c r="H77" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I77" s="7"/>
+    </row>
+    <row r="78" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A78" s="7">
         <v>2013</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9" t="s">
+      <c r="C78" s="2"/>
+      <c r="D78" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E78" s="9" t="s">
+      <c r="E78" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F78" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G78" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H78" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A79" s="9">
+      <c r="F78" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I78" s="7"/>
+    </row>
+    <row r="79" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A79" s="7">
         <v>2013</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C79" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="D79" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E79" s="9" t="s">
+      <c r="E79" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F79" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H79" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A80" s="9">
+      <c r="F79" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I79" s="7"/>
+    </row>
+    <row r="80" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A80" s="7">
         <v>2014</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C80" s="2"/>
-      <c r="D80" s="9" t="s">
+      <c r="D80" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E80" s="9" t="s">
+      <c r="E80" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F80" s="9" t="s">
+      <c r="F80" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H80" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A81" s="9">
+      <c r="H80" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I80" s="7"/>
+    </row>
+    <row r="81" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A81" s="7">
         <v>2014</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C81" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D81" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E81" s="9" t="s">
+      <c r="E81" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F81" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H81" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A82" s="9">
+      <c r="F81" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I81" s="7"/>
+    </row>
+    <row r="82" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A82" s="7">
         <v>2014</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C82" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="D82" s="9" t="s">
+      <c r="D82" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="E82" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F82" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G82" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H82" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A83" s="9">
+      <c r="F82" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I82" s="7"/>
+    </row>
+    <row r="83" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A83" s="7">
         <v>2014</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="2" t="s">
         <v>164</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="D83" s="9" t="s">
+      <c r="D83" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E83" s="9" t="s">
+      <c r="E83" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F83" s="9" t="s">
+      <c r="F83" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H83" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A84" s="9">
+      <c r="H83" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I83" s="7"/>
+    </row>
+    <row r="84" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A84" s="7">
         <v>2014</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9" t="s">
+      <c r="C84" s="2"/>
+      <c r="D84" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E84" s="9" t="s">
+      <c r="E84" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F84" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G84" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H84" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A85" s="9">
+      <c r="F84" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I84" s="7"/>
+    </row>
+    <row r="85" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A85" s="7">
         <v>2014</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9" t="s">
+      <c r="C85" s="2"/>
+      <c r="D85" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E85" s="9" t="s">
+      <c r="E85" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F85" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G85" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H85" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A86" s="9">
+      <c r="F85" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I85" s="7"/>
+    </row>
+    <row r="86" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A86" s="7">
         <v>2014</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="2" t="s">
         <v>171</v>
       </c>
       <c r="C86" s="2"/>
-      <c r="D86" s="9" t="s">
+      <c r="D86" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="E86" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F86" s="9" t="s">
+      <c r="F86" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H86" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A87" s="9">
+      <c r="H86" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I86" s="7"/>
+    </row>
+    <row r="87" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A87" s="7">
         <v>2014</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C87" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="D87" s="9" t="s">
+      <c r="D87" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E87" s="9" t="s">
+      <c r="E87" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F87" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G87" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H87" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" s="5" customFormat="1" ht="98" x14ac:dyDescent="0.15">
-      <c r="A88" s="9">
+      <c r="F87" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I87" s="7"/>
+    </row>
+    <row r="88" spans="1:9" s="5" customFormat="1" ht="98" x14ac:dyDescent="0.15">
+      <c r="A88" s="7">
         <v>2014</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="2" t="s">
         <v>175</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="D88" s="9" t="s">
+      <c r="D88" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E88" s="9" t="s">
+      <c r="E88" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F88" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G88" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H88" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" s="5" customFormat="1" ht="56" x14ac:dyDescent="0.15">
-      <c r="A89" s="9">
+      <c r="F88" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I88" s="7"/>
+    </row>
+    <row r="89" spans="1:9" s="5" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+      <c r="A89" s="7">
         <v>2014</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="2" t="s">
         <v>177</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="D89" s="9" t="s">
+      <c r="D89" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E89" s="9" t="s">
+      <c r="E89" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F89" s="9" t="s">
+      <c r="F89" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H89" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A90" s="9">
+      <c r="H89" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I89" s="7"/>
+    </row>
+    <row r="90" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A90" s="7">
         <v>2014</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9" t="s">
+      <c r="C90" s="2"/>
+      <c r="D90" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E90" s="9" t="s">
+      <c r="E90" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F90" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G90" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H90" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A91" s="9">
+      <c r="F90" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I90" s="7"/>
+    </row>
+    <row r="91" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A91" s="7">
         <v>2014</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9" t="s">
+      <c r="C91" s="2"/>
+      <c r="D91" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E91" s="9" t="s">
+      <c r="E91" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F91" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G91" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H91" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A92" s="9">
+      <c r="F91" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="7"/>
+    </row>
+    <row r="92" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A92" s="7">
         <v>2015</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="2" t="s">
         <v>182</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="D92" s="9" t="s">
+      <c r="D92" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E92" s="9" t="s">
+      <c r="E92" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F92" s="9" t="s">
+      <c r="F92" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H92" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A93" s="9">
+      <c r="H92" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I92" s="7"/>
+    </row>
+    <row r="93" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A93" s="7">
         <v>2015</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="C93" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="D93" s="9" t="s">
+      <c r="D93" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E93" s="9" t="s">
+      <c r="E93" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F93" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G93" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H93" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A94" s="9">
+      <c r="F93" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I93" s="7"/>
+    </row>
+    <row r="94" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A94" s="7">
         <v>2015</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9" t="s">
+      <c r="C94" s="2"/>
+      <c r="D94" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E94" s="9" t="s">
+      <c r="E94" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="F94" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G94" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H94" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A95" s="9">
+      <c r="F94" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="7"/>
+    </row>
+    <row r="95" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A95" s="7">
         <v>2015</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C95" s="2"/>
-      <c r="D95" s="9" t="s">
+      <c r="D95" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E95" s="9" t="s">
+      <c r="E95" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F95" s="9" t="s">
+      <c r="F95" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H95" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A96" s="9">
+      <c r="H95" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I95" s="7"/>
+    </row>
+    <row r="96" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A96" s="7">
         <v>2015</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9" t="s">
+      <c r="C96" s="2"/>
+      <c r="D96" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E96" s="9" t="s">
+      <c r="E96" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F96" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G96" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H96" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A97" s="9">
+      <c r="F96" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I96" s="7"/>
+    </row>
+    <row r="97" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A97" s="7">
         <v>2015</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="C97" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="D97" s="9" t="s">
+      <c r="D97" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E97" s="9" t="s">
+      <c r="E97" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F97" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G97" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H97" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A98" s="9">
+      <c r="F97" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I97" s="7"/>
+    </row>
+    <row r="98" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A98" s="7">
         <v>2015</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="2" t="s">
         <v>190</v>
       </c>
       <c r="C98" s="2"/>
-      <c r="D98" s="9" t="s">
+      <c r="D98" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E98" s="9" t="s">
+      <c r="E98" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F98" s="9" t="s">
+      <c r="F98" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H98" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A99" s="9">
+      <c r="H98" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I98" s="7"/>
+    </row>
+    <row r="99" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A99" s="7">
         <v>2021</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9" t="s">
+      <c r="C99" s="2"/>
+      <c r="D99" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E99" s="9" t="s">
+      <c r="E99" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="F99" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G99" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H99" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A100" s="9">
+      <c r="F99" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I99" s="7"/>
+    </row>
+    <row r="100" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A100" s="7">
         <v>2015</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9" t="s">
+      <c r="C100" s="2"/>
+      <c r="D100" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E100" s="9" t="s">
+      <c r="E100" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F100" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G100" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H100" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A101" s="9">
+      <c r="F100" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="7"/>
+    </row>
+    <row r="101" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A101" s="7">
         <v>2015</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="2" t="s">
         <v>194</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="D101" s="9" t="s">
+      <c r="D101" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E101" s="9" t="s">
+      <c r="E101" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F101" s="9" t="s">
+      <c r="F101" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H101" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A102" s="9">
+      <c r="H101" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I101" s="7"/>
+    </row>
+    <row r="102" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A102" s="7">
         <v>2015</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="C102" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="D102" s="9" t="s">
+      <c r="D102" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E102" s="9" t="s">
+      <c r="E102" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F102" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G102" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H102" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A103" s="9">
+      <c r="F102" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I102" s="7"/>
+    </row>
+    <row r="103" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A103" s="7">
         <v>2015</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9" t="s">
+      <c r="C103" s="2"/>
+      <c r="D103" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E103" s="9" t="s">
+      <c r="E103" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F103" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G103" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H103" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A104" s="9">
+      <c r="F103" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I103" s="7"/>
+    </row>
+    <row r="104" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A104" s="7">
         <v>2015</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C104" s="2"/>
-      <c r="D104" s="9" t="s">
+      <c r="D104" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E104" s="9" t="s">
+      <c r="E104" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F104" s="9" t="s">
+      <c r="F104" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H104" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A105" s="9">
+      <c r="H104" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I104" s="7"/>
+    </row>
+    <row r="105" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A105" s="7">
         <v>2015</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9" t="s">
+      <c r="C105" s="2"/>
+      <c r="D105" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E105" s="9" t="s">
+      <c r="E105" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="F105" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G105" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H105" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A106" s="9">
+      <c r="F105" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I105" s="7"/>
+    </row>
+    <row r="106" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A106" s="7">
         <v>2015</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9" t="s">
+      <c r="C106" s="2"/>
+      <c r="D106" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E106" s="9" t="s">
+      <c r="E106" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F106" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G106" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H106" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A107" s="9">
+      <c r="F106" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I106" s="7"/>
+    </row>
+    <row r="107" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A107" s="7">
         <v>2015</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="B107" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C107" s="2"/>
-      <c r="D107" s="9" t="s">
+      <c r="D107" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E107" s="9" t="s">
+      <c r="E107" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F107" s="9" t="s">
+      <c r="F107" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H107" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A108" s="9">
+      <c r="H107" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I107" s="7"/>
+    </row>
+    <row r="108" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A108" s="7">
         <v>2016</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C108" s="9" t="s">
+      <c r="C108" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="D108" s="9" t="s">
+      <c r="D108" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E108" s="9" t="s">
+      <c r="E108" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="F108" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G108" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H108" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A109" s="9">
+      <c r="F108" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I108" s="7"/>
+    </row>
+    <row r="109" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A109" s="7">
         <v>2016</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9" t="s">
+      <c r="C109" s="2"/>
+      <c r="D109" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E109" s="9" t="s">
+      <c r="E109" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F109" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G109" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H109" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A110" s="9">
+      <c r="F109" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I109" s="7"/>
+    </row>
+    <row r="110" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A110" s="7">
         <v>2016</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="2" t="s">
         <v>209</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="D110" s="9" t="s">
+      <c r="D110" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E110" s="9" t="s">
+      <c r="E110" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F110" s="9" t="s">
+      <c r="F110" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H110" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A111" s="9">
+      <c r="H110" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I110" s="7"/>
+    </row>
+    <row r="111" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A111" s="7">
         <v>2016</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="B111" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9" t="s">
+      <c r="C111" s="2"/>
+      <c r="D111" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E111" s="9" t="s">
+      <c r="E111" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F111" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G111" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H111" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A112" s="9">
+      <c r="F111" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I111" s="7"/>
+    </row>
+    <row r="112" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A112" s="7">
         <v>2017</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="C112" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="D112" s="9" t="s">
+      <c r="D112" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E112" s="9" t="s">
+      <c r="E112" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F112" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G112" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H112" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A113" s="9">
+      <c r="F112" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H112" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I112" s="7"/>
+    </row>
+    <row r="113" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A113" s="7">
         <v>2017</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="B113" s="2" t="s">
         <v>213</v>
       </c>
       <c r="C113" s="2"/>
-      <c r="D113" s="9" t="s">
+      <c r="D113" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E113" s="9" t="s">
+      <c r="E113" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F113" s="9" t="s">
+      <c r="F113" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H113" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A114" s="9">
+      <c r="H113" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I113" s="7"/>
+    </row>
+    <row r="114" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A114" s="7">
         <v>2017</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9" t="s">
+      <c r="C114" s="2"/>
+      <c r="D114" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E114" s="9" t="s">
+      <c r="E114" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F114" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G114" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H114" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A115" s="9">
+      <c r="F114" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H114" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I114" s="7"/>
+    </row>
+    <row r="115" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A115" s="7">
         <v>2017</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="B115" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9" t="s">
+      <c r="C115" s="2"/>
+      <c r="D115" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E115" s="9" t="s">
+      <c r="E115" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F115" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G115" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H115" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A116" s="9">
+      <c r="F115" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I115" s="7"/>
+    </row>
+    <row r="116" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A116" s="7">
         <v>2017</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="B116" s="2" t="s">
         <v>218</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="D116" s="9" t="s">
+      <c r="D116" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E116" s="9" t="s">
+      <c r="E116" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F116" s="9" t="s">
+      <c r="F116" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H116" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A117" s="9">
+      <c r="H116" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I116" s="7"/>
+    </row>
+    <row r="117" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A117" s="7">
         <v>2017</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="B117" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9" t="s">
+      <c r="C117" s="2"/>
+      <c r="D117" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E117" s="9" t="s">
+      <c r="E117" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="F117" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G117" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H117" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A118" s="9">
+      <c r="F117" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I117" s="7"/>
+    </row>
+    <row r="118" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A118" s="7">
         <v>2017</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B118" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9" t="s">
+      <c r="C118" s="2"/>
+      <c r="D118" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E118" s="9" t="s">
+      <c r="E118" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F118" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G118" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H118" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A119" s="9">
+      <c r="F118" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H118" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I118" s="7"/>
+    </row>
+    <row r="119" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A119" s="7">
         <v>2017</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="2" t="s">
         <v>223</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="D119" s="9" t="s">
+      <c r="D119" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E119" s="9" t="s">
+      <c r="E119" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F119" s="9" t="s">
+      <c r="F119" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H119" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A120" s="9">
+      <c r="H119" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I119" s="7"/>
+    </row>
+    <row r="120" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A120" s="7">
         <v>2017</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C120" s="9" t="s">
+      <c r="C120" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="D120" s="9" t="s">
+      <c r="D120" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E120" s="9" t="s">
+      <c r="E120" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F120" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G120" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H120" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A121" s="9">
+      <c r="F120" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I120" s="7"/>
+    </row>
+    <row r="121" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A121" s="7">
         <v>2017</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B121" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C121" s="9" t="s">
+      <c r="C121" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="D121" s="9" t="s">
+      <c r="D121" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E121" s="9" t="s">
+      <c r="E121" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F121" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G121" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H121" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A122" s="9">
+      <c r="F121" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I121" s="7"/>
+    </row>
+    <row r="122" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A122" s="7">
         <v>2011</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C122" s="9" t="s">
+      <c r="C122" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="D122" s="9" t="s">
+      <c r="D122" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E122" s="9" t="s">
+      <c r="E122" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F122" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G122" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H122" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A123" s="9">
+      <c r="F122" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I122" s="7"/>
+    </row>
+    <row r="123" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A123" s="7">
         <v>2017</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="B123" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C123" s="9" t="s">
+      <c r="C123" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="D123" s="9" t="s">
+      <c r="D123" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E123" s="9" t="s">
+      <c r="E123" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="F123" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G123" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H123" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A124" s="9">
+      <c r="F123" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I123" s="7"/>
+    </row>
+    <row r="124" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A124" s="7">
         <v>2017</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B124" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C124" s="9" t="s">
+      <c r="C124" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="D124" s="9" t="s">
+      <c r="D124" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E124" s="9" t="s">
+      <c r="E124" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F124" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G124" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H124" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A125" s="9">
+      <c r="F124" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I124" s="7"/>
+    </row>
+    <row r="125" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A125" s="7">
         <v>2017</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="2" t="s">
         <v>232</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="D125" s="9" t="s">
+      <c r="D125" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E125" s="9" t="s">
+      <c r="E125" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F125" s="9" t="s">
+      <c r="F125" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H125" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A126" s="9">
+      <c r="H125" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I125" s="7"/>
+    </row>
+    <row r="126" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A126" s="7">
         <v>2017</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="B126" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9" t="s">
+      <c r="C126" s="2"/>
+      <c r="D126" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E126" s="9" t="s">
+      <c r="E126" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F126" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G126" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H126" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A127" s="9">
+      <c r="F126" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I126" s="7"/>
+    </row>
+    <row r="127" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A127" s="7">
         <v>2018</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B127" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9" t="s">
+      <c r="C127" s="2"/>
+      <c r="D127" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E127" s="9" t="s">
+      <c r="E127" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F127" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G127" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H127" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A128" s="9">
+      <c r="F127" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I127" s="7"/>
+    </row>
+    <row r="128" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A128" s="7">
         <v>2018</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="B128" s="2" t="s">
         <v>491</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="D128" s="9" t="s">
+      <c r="D128" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E128" s="9" t="s">
+      <c r="E128" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F128" s="9" t="s">
+      <c r="F128" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H128" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A129" s="9">
+      <c r="H128" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I128" s="7"/>
+    </row>
+    <row r="129" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A129" s="7">
         <v>2018</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B129" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9" t="s">
+      <c r="C129" s="2"/>
+      <c r="D129" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E129" s="9" t="s">
+      <c r="E129" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="F129" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G129" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H129" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A130" s="9">
+      <c r="F129" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I129" s="7"/>
+    </row>
+    <row r="130" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A130" s="7">
         <v>2018</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B130" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C130" s="9" t="s">
+      <c r="C130" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="D130" s="9" t="s">
+      <c r="D130" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E130" s="9" t="s">
+      <c r="E130" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F130" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G130" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H130" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A131" s="9">
+      <c r="F130" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I130" s="7"/>
+    </row>
+    <row r="131" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A131" s="7">
         <v>2018</v>
       </c>
-      <c r="B131" s="9" t="s">
+      <c r="B131" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="D131" s="9" t="s">
+      <c r="D131" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E131" s="9" t="s">
+      <c r="E131" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F131" s="9" t="s">
+      <c r="F131" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H131" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A132" s="9">
+      <c r="H131" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I131" s="7"/>
+    </row>
+    <row r="132" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A132" s="7">
         <v>2018</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9" t="s">
+      <c r="C132" s="2"/>
+      <c r="D132" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E132" s="9" t="s">
+      <c r="E132" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F132" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G132" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H132" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A133" s="9">
+      <c r="F132" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H132" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I132" s="7"/>
+    </row>
+    <row r="133" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A133" s="7">
         <v>2011</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="B133" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C133" s="2"/>
-      <c r="D133" s="9" t="s">
+      <c r="D133" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E133" s="9" t="s">
+      <c r="E133" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F133" s="9" t="s">
+      <c r="F133" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H133" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A134" s="9">
+      <c r="H133" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I133" s="7"/>
+    </row>
+    <row r="134" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A134" s="7">
         <v>2018</v>
       </c>
-      <c r="B134" s="9" t="s">
+      <c r="B134" s="2" t="s">
         <v>242</v>
       </c>
       <c r="C134" s="2"/>
-      <c r="D134" s="9" t="s">
+      <c r="D134" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E134" s="9" t="s">
+      <c r="E134" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F134" s="9" t="s">
+      <c r="F134" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H134" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A135" s="9">
+      <c r="H134" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I134" s="7"/>
+    </row>
+    <row r="135" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A135" s="7">
         <v>2018</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="B135" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9" t="s">
+      <c r="C135" s="2"/>
+      <c r="D135" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E135" s="9" t="s">
+      <c r="E135" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="F135" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G135" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H135" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A136" s="9">
+      <c r="F135" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I135" s="7"/>
+    </row>
+    <row r="136" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A136" s="7">
         <v>2018</v>
       </c>
-      <c r="B136" s="9" t="s">
+      <c r="B136" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C136" s="9" t="s">
+      <c r="C136" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D136" s="9" t="s">
+      <c r="D136" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E136" s="9" t="s">
+      <c r="E136" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="F136" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G136" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H136" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A137" s="9">
+      <c r="F136" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G136" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H136" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I136" s="7"/>
+    </row>
+    <row r="137" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A137" s="7">
         <v>2018</v>
       </c>
-      <c r="B137" s="9" t="s">
+      <c r="B137" s="2" t="s">
         <v>247</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="D137" s="9" t="s">
+      <c r="D137" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E137" s="9" t="s">
+      <c r="E137" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="F137" s="9" t="s">
+      <c r="F137" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H137" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A138" s="9">
+      <c r="H137" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I137" s="7"/>
+    </row>
+    <row r="138" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A138" s="7">
         <v>2012</v>
       </c>
-      <c r="B138" s="9" t="s">
+      <c r="B138" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9" t="s">
+      <c r="C138" s="2"/>
+      <c r="D138" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E138" s="9" t="s">
+      <c r="E138" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F138" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G138" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H138" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A139" s="9">
+      <c r="F138" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G138" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H138" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I138" s="7"/>
+    </row>
+    <row r="139" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A139" s="7">
         <v>2018</v>
       </c>
-      <c r="B139" s="9" t="s">
+      <c r="B139" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C139" s="9" t="s">
+      <c r="C139" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="D139" s="9" t="s">
+      <c r="D139" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E139" s="9" t="s">
+      <c r="E139" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F139" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G139" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H139" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A140" s="9">
+      <c r="F139" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G139" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H139" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I139" s="7"/>
+    </row>
+    <row r="140" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A140" s="7">
         <v>2018</v>
       </c>
-      <c r="B140" s="9" t="s">
+      <c r="B140" s="2" t="s">
         <v>253</v>
       </c>
       <c r="C140" s="2"/>
-      <c r="D140" s="9" t="s">
+      <c r="D140" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E140" s="9" t="s">
+      <c r="E140" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="F140" s="9" t="s">
+      <c r="F140" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H140" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A141" s="9">
+      <c r="H140" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I140" s="7"/>
+    </row>
+    <row r="141" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A141" s="7">
         <v>2018</v>
       </c>
-      <c r="B141" s="9" t="s">
+      <c r="B141" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C141" s="9"/>
-      <c r="D141" s="9" t="s">
+      <c r="C141" s="2"/>
+      <c r="D141" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E141" s="9" t="s">
+      <c r="E141" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F141" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G141" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H141" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A142" s="9">
+      <c r="F141" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G141" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H141" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I141" s="7"/>
+    </row>
+    <row r="142" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A142" s="7">
         <v>2018</v>
       </c>
-      <c r="B142" s="9" t="s">
+      <c r="B142" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C142" s="9"/>
-      <c r="D142" s="9" t="s">
+      <c r="C142" s="2"/>
+      <c r="D142" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E142" s="9" t="s">
+      <c r="E142" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="F142" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G142" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H142" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" s="5" customFormat="1" ht="84" x14ac:dyDescent="0.15">
-      <c r="A143" s="9">
+      <c r="F142" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G142" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H142" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I142" s="7"/>
+    </row>
+    <row r="143" spans="1:9" s="5" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A143" s="7">
         <v>2018</v>
       </c>
-      <c r="B143" s="9" t="s">
+      <c r="B143" s="2" t="s">
         <v>259</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="D143" s="9" t="s">
+      <c r="D143" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E143" s="9" t="s">
+      <c r="E143" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F143" s="9" t="s">
+      <c r="F143" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H143" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A144" s="9">
+      <c r="H143" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I143" s="7"/>
+    </row>
+    <row r="144" spans="1:9" s="5" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+      <c r="A144" s="7">
         <v>2019</v>
       </c>
-      <c r="B144" s="9" t="s">
+      <c r="B144" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C144" s="9" t="s">
+      <c r="C144" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="D144" s="9" t="s">
+      <c r="D144" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="E144" s="9" t="s">
+      <c r="E144" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="F144" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G144" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H144" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A145" s="9">
+      <c r="F144" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H144" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I144" s="7"/>
+    </row>
+    <row r="145" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A145" s="7">
         <v>2019</v>
       </c>
-      <c r="B145" s="9" t="s">
+      <c r="B145" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C145" s="9"/>
-      <c r="D145" s="9" t="s">
+      <c r="C145" s="2"/>
+      <c r="D145" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E145" s="9" t="s">
+      <c r="E145" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F145" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G145" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H145" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A146" s="9">
+      <c r="F145" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G145" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H145" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I145" s="7"/>
+    </row>
+    <row r="146" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A146" s="7">
         <v>2019</v>
       </c>
-      <c r="B146" s="9" t="s">
+      <c r="B146" s="2" t="s">
         <v>264</v>
       </c>
       <c r="C146" s="2"/>
-      <c r="D146" s="9" t="s">
+      <c r="D146" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E146" s="9" t="s">
+      <c r="E146" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="F146" s="9" t="s">
+      <c r="F146" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H146" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A147" s="9">
+      <c r="H146" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I146" s="7"/>
+    </row>
+    <row r="147" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A147" s="7">
         <v>2015</v>
       </c>
-      <c r="B147" s="9" t="s">
+      <c r="B147" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C147" s="9"/>
-      <c r="D147" s="9" t="s">
+      <c r="C147" s="2"/>
+      <c r="D147" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E147" s="9" t="s">
+      <c r="E147" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F147" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G147" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H147" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A148" s="9">
+      <c r="F147" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G147" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H147" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I147" s="7"/>
+    </row>
+    <row r="148" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A148" s="7">
         <v>2006</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="B148" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C148" s="9" t="s">
+      <c r="C148" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="D148" s="9" t="s">
+      <c r="D148" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E148" s="9" t="s">
+      <c r="E148" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F148" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G148" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H148" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A149" s="9">
+      <c r="F148" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G148" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H148" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I148" s="7"/>
+    </row>
+    <row r="149" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A149" s="7">
         <v>2012</v>
       </c>
-      <c r="B149" s="9" t="s">
+      <c r="B149" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C149" s="9" t="s">
+      <c r="C149" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="D149" s="9" t="s">
+      <c r="D149" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E149" s="9" t="s">
+      <c r="E149" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F149" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G149" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H149" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A150" s="9">
+      <c r="F149" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G149" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H149" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I149" s="7"/>
+    </row>
+    <row r="150" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A150" s="7">
         <v>2007</v>
       </c>
-      <c r="B150" s="9" t="s">
+      <c r="B150" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C150" s="9" t="s">
+      <c r="C150" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="D150" s="9" t="s">
+      <c r="D150" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E150" s="9" t="s">
+      <c r="E150" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F150" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G150" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H150" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A151" s="9">
+      <c r="F150" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G150" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H150" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I150" s="7"/>
+    </row>
+    <row r="151" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A151" s="7">
         <v>2019</v>
       </c>
-      <c r="B151" s="9" t="s">
+      <c r="B151" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C151" s="9"/>
-      <c r="D151" s="9" t="s">
+      <c r="C151" s="2"/>
+      <c r="D151" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E151" s="9" t="s">
+      <c r="E151" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="F151" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G151" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H151" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A152" s="9">
+      <c r="F151" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G151" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H151" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I151" s="7"/>
+    </row>
+    <row r="152" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A152" s="7">
         <v>2019</v>
       </c>
-      <c r="B152" s="9" t="s">
+      <c r="B152" s="2" t="s">
         <v>278</v>
       </c>
       <c r="C152" s="2"/>
-      <c r="D152" s="9" t="s">
+      <c r="D152" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E152" s="9" t="s">
+      <c r="E152" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="F152" s="9" t="s">
+      <c r="F152" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H152" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" s="5" customFormat="1" ht="70" x14ac:dyDescent="0.15">
-      <c r="A153" s="9">
+      <c r="H152" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I152" s="7"/>
+    </row>
+    <row r="153" spans="1:9" s="5" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+      <c r="A153" s="7">
         <v>2019</v>
       </c>
-      <c r="B153" s="9" t="s">
+      <c r="B153" s="2" t="s">
         <v>270</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="D153" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E153" s="9" t="s">
+      <c r="E153" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="F153" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G153" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H153" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A154" s="9">
+      <c r="F153" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G153" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H153" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I153" s="7"/>
+    </row>
+    <row r="154" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A154" s="7">
         <v>2019</v>
       </c>
-      <c r="B154" s="9" t="s">
+      <c r="B154" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C154" s="9"/>
-      <c r="D154" s="9" t="s">
+      <c r="C154" s="2"/>
+      <c r="D154" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E154" s="9" t="s">
+      <c r="E154" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F154" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G154" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H154" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A155" s="9">
+      <c r="F154" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G154" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H154" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I154" s="7"/>
+    </row>
+    <row r="155" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A155" s="7">
         <v>2020</v>
       </c>
-      <c r="B155" s="9" t="s">
+      <c r="B155" s="2" t="s">
         <v>281</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="D155" s="9" t="s">
+      <c r="D155" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E155" s="9" t="s">
+      <c r="E155" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="F155" s="9" t="s">
+      <c r="F155" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H155" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A156" s="9">
+      <c r="H155" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I155" s="7"/>
+    </row>
+    <row r="156" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A156" s="7">
         <v>2012</v>
       </c>
-      <c r="B156" s="9" t="s">
+      <c r="B156" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="D156" s="9" t="s">
+      <c r="D156" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E156" s="9" t="s">
+      <c r="E156" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F156" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G156" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H156" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A157" s="9">
+      <c r="F156" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G156" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H156" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I156" s="7"/>
+    </row>
+    <row r="157" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A157" s="7">
         <v>2020</v>
       </c>
-      <c r="B157" s="9" t="s">
+      <c r="B157" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C157" s="9"/>
-      <c r="D157" s="9" t="s">
+      <c r="C157" s="2"/>
+      <c r="D157" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E157" s="9" t="s">
+      <c r="E157" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="F157" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G157" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H157" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A158" s="9">
+      <c r="F157" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G157" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H157" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I157" s="7"/>
+    </row>
+    <row r="158" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A158" s="7">
         <v>2020</v>
       </c>
-      <c r="B158" s="9" t="s">
+      <c r="B158" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C158" s="2"/>
-      <c r="D158" s="9" t="s">
+      <c r="D158" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E158" s="9" t="s">
+      <c r="E158" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F158" s="9" t="s">
+      <c r="F158" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H158" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A159" s="9">
+      <c r="H158" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I158" s="7"/>
+    </row>
+    <row r="159" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A159" s="7">
         <v>2020</v>
       </c>
-      <c r="B159" s="9" t="s">
+      <c r="B159" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C159" s="9" t="s">
+      <c r="C159" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="D159" s="9" t="s">
+      <c r="D159" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E159" s="9" t="s">
+      <c r="E159" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="F159" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G159" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H159" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A160" s="9">
+      <c r="F159" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G159" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H159" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I159" s="7"/>
+    </row>
+    <row r="160" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A160" s="7">
         <v>2020</v>
       </c>
-      <c r="B160" s="9" t="s">
+      <c r="B160" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C160" s="9"/>
-      <c r="D160" s="9" t="s">
+      <c r="C160" s="2"/>
+      <c r="D160" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E160" s="9" t="s">
+      <c r="E160" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="F160" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G160" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H160" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A161" s="9">
+      <c r="F160" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G160" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H160" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I160" s="7"/>
+    </row>
+    <row r="161" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A161" s="7">
         <v>2020</v>
       </c>
-      <c r="B161" s="9" t="s">
+      <c r="B161" s="2" t="s">
         <v>293</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D161" s="9" t="s">
+      <c r="D161" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="E161" s="9" t="s">
+      <c r="E161" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="F161" s="9" t="s">
+      <c r="F161" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H161" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A162" s="9">
+      <c r="H161" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I161" s="7"/>
+    </row>
+    <row r="162" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A162" s="7">
         <v>2020</v>
       </c>
-      <c r="B162" s="9" t="s">
+      <c r="B162" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C162" s="9"/>
-      <c r="D162" s="9" t="s">
+      <c r="C162" s="2"/>
+      <c r="D162" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E162" s="9" t="s">
+      <c r="E162" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="F162" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G162" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H162" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A163" s="9">
+      <c r="F162" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G162" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H162" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I162" s="7"/>
+    </row>
+    <row r="163" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A163" s="7">
         <v>2020</v>
       </c>
-      <c r="B163" s="9" t="s">
+      <c r="B163" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C163" s="9"/>
-      <c r="D163" s="9" t="s">
+      <c r="C163" s="2"/>
+      <c r="D163" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E163" s="9" t="s">
+      <c r="E163" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F163" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G163" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H163" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A164" s="9">
+      <c r="F163" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G163" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H163" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I163" s="7"/>
+    </row>
+    <row r="164" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A164" s="7">
         <v>2020</v>
       </c>
-      <c r="B164" s="9" t="s">
+      <c r="B164" s="2" t="s">
         <v>298</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="D164" s="9" t="s">
+      <c r="D164" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E164" s="9" t="s">
+      <c r="E164" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F164" s="9" t="s">
+      <c r="F164" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H164" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A165" s="9">
+      <c r="H164" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I164" s="7"/>
+    </row>
+    <row r="165" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A165" s="7">
         <v>2020</v>
       </c>
-      <c r="B165" s="9" t="s">
+      <c r="B165" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C165" s="9"/>
-      <c r="D165" s="9" t="s">
+      <c r="C165" s="2"/>
+      <c r="D165" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E165" s="9" t="s">
+      <c r="E165" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F165" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G165" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H165" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A166" s="9">
+      <c r="F165" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G165" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H165" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I165" s="7"/>
+    </row>
+    <row r="166" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A166" s="7">
         <v>2020</v>
       </c>
-      <c r="B166" s="9" t="s">
+      <c r="B166" s="2" t="s">
         <v>300</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D166" s="9" t="s">
+      <c r="D166" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E166" s="9" t="s">
+      <c r="E166" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="F166" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G166" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H166" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A167" s="9">
+      <c r="F166" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G166" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H166" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I166" s="7"/>
+    </row>
+    <row r="167" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A167" s="7">
         <v>2020</v>
       </c>
-      <c r="B167" s="9" t="s">
+      <c r="B167" s="2" t="s">
         <v>302</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="D167" s="9" t="s">
+      <c r="D167" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E167" s="9" t="s">
+      <c r="E167" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="F167" s="9" t="s">
+      <c r="F167" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H167" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A168" s="9">
+      <c r="H167" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I167" s="7"/>
+    </row>
+    <row r="168" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A168" s="7">
         <v>2020</v>
       </c>
-      <c r="B168" s="9" t="s">
+      <c r="B168" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C168" s="9"/>
-      <c r="D168" s="9" t="s">
+      <c r="C168" s="2"/>
+      <c r="D168" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E168" s="9" t="s">
+      <c r="E168" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F168" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G168" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H168" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A169" s="9">
+      <c r="F168" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G168" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H168" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I168" s="7"/>
+    </row>
+    <row r="169" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A169" s="7">
         <v>2020</v>
       </c>
-      <c r="B169" s="9" t="s">
+      <c r="B169" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C169" s="9" t="s">
+      <c r="C169" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="D169" s="9" t="s">
+      <c r="D169" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E169" s="9" t="s">
+      <c r="E169" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="F169" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G169" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H169" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A170" s="9">
+      <c r="F169" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G169" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H169" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I169" s="7"/>
+    </row>
+    <row r="170" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A170" s="7">
         <v>2020</v>
       </c>
-      <c r="B170" s="9" t="s">
+      <c r="B170" s="2" t="s">
         <v>307</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="D170" s="9" t="s">
+      <c r="D170" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E170" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="F170" s="9" t="s">
+      <c r="E170" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="F170" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G170" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H170" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A171" s="9">
+      <c r="H170" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I170" s="7"/>
+    </row>
+    <row r="171" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A171" s="7">
         <v>2020</v>
       </c>
-      <c r="B171" s="9" t="s">
+      <c r="B171" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C171" s="9" t="s">
+      <c r="C171" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="D171" s="9" t="s">
+      <c r="D171" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E171" s="9" t="s">
+      <c r="E171" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="F171" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G171" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H171" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A172" s="9">
+      <c r="F171" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G171" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H171" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I171" s="7"/>
+    </row>
+    <row r="172" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A172" s="7">
         <v>2020</v>
       </c>
-      <c r="B172" s="9" t="s">
+      <c r="B172" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C172" s="9" t="s">
+      <c r="C172" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D172" s="9" t="s">
+      <c r="D172" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E172" s="9" t="s">
+      <c r="E172" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F172" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G172" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H172" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A173" s="9">
+      <c r="F172" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G172" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H172" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I172" s="7"/>
+    </row>
+    <row r="173" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A173" s="7">
         <v>2020</v>
       </c>
-      <c r="B173" s="9" t="s">
+      <c r="B173" s="2" t="s">
         <v>311</v>
       </c>
       <c r="C173" s="2"/>
-      <c r="D173" s="9" t="s">
+      <c r="D173" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E173" s="9" t="s">
+      <c r="E173" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="F173" s="9" t="s">
+      <c r="F173" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G173" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H173" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A174" s="9">
+      <c r="H173" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I173" s="7"/>
+    </row>
+    <row r="174" spans="1:9" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A174" s="7">
         <v>2020</v>
       </c>
-      <c r="B174" s="9" t="s">
+      <c r="B174" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C174" s="9" t="s">
+      <c r="C174" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="D174" s="9" t="s">
+      <c r="D174" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E174" s="9" t="s">
+      <c r="E174" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="F174" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G174" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H174" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A175" s="9">
+      <c r="F174" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G174" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H174" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I174" s="7"/>
+    </row>
+    <row r="175" spans="1:9" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A175" s="7">
         <v>2020</v>
       </c>
-      <c r="B175" s="9" t="s">
+      <c r="B175" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="D175" s="9" t="s">
+      <c r="D175" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="E175" s="9" t="s">
+      <c r="E175" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="F175" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G175" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H175" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A176" s="9">
+      <c r="F175" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G175" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H175" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I175" s="7"/>
+    </row>
+    <row r="176" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A176" s="7">
         <v>2021</v>
       </c>
-      <c r="B176" s="9" t="s">
+      <c r="B176" s="2" t="s">
         <v>317</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="D176" s="9" t="s">
+      <c r="D176" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E176" s="9" t="s">
+      <c r="E176" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="F176" s="9" t="s">
+      <c r="F176" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G176" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H176" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A177" s="9">
+      <c r="H176" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I176" s="7"/>
+    </row>
+    <row r="177" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A177" s="7">
         <v>2021</v>
       </c>
-      <c r="B177" s="9" t="s">
+      <c r="B177" s="2" t="s">
         <v>319</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="D177" s="9" t="s">
+      <c r="D177" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E177" s="9" t="s">
+      <c r="E177" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="F177" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G177" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H177" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A178" s="9">
+      <c r="F177" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G177" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H177" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I177" s="7"/>
+    </row>
+    <row r="178" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A178" s="7">
         <v>2021</v>
       </c>
-      <c r="B178" s="9" t="s">
+      <c r="B178" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C178" s="9" t="s">
+      <c r="C178" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="D178" s="9" t="s">
+      <c r="D178" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E178" s="9" t="s">
+      <c r="E178" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="F178" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G178" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H178" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A179" s="9">
+      <c r="F178" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G178" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H178" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I178" s="7"/>
+    </row>
+    <row r="179" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A179" s="7">
         <v>2021</v>
       </c>
-      <c r="B179" s="9" t="s">
+      <c r="B179" s="2" t="s">
         <v>323</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="D179" s="9" t="s">
+      <c r="D179" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E179" s="9" t="s">
+      <c r="E179" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="F179" s="9" t="s">
+      <c r="F179" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H179" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A180" s="9">
+      <c r="H179" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I179" s="7"/>
+    </row>
+    <row r="180" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A180" s="7">
         <v>2021</v>
       </c>
-      <c r="B180" s="9" t="s">
+      <c r="B180" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C180" s="9"/>
-      <c r="D180" s="9" t="s">
+      <c r="C180" s="2"/>
+      <c r="D180" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E180" s="9" t="s">
+      <c r="E180" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="F180" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G180" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H180" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A181" s="9">
+      <c r="F180" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G180" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H180" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I180" s="7"/>
+    </row>
+    <row r="181" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A181" s="7">
         <v>2021</v>
       </c>
-      <c r="B181" s="9" t="s">
+      <c r="B181" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C181" s="9" t="s">
+      <c r="C181" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="D181" s="9" t="s">
+      <c r="D181" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E181" s="9" t="s">
+      <c r="E181" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="F181" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G181" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H181" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A182" s="9">
+      <c r="F181" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G181" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H181" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I181" s="7"/>
+    </row>
+    <row r="182" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A182" s="7">
         <v>2021</v>
       </c>
-      <c r="B182" s="9" t="s">
+      <c r="B182" s="2" t="s">
         <v>328</v>
       </c>
       <c r="C182" s="2"/>
-      <c r="D182" s="9" t="s">
+      <c r="D182" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E182" s="9" t="s">
+      <c r="E182" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F182" s="9" t="s">
+      <c r="F182" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H182" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A183" s="9">
+      <c r="H182" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I182" s="7"/>
+    </row>
+    <row r="183" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A183" s="7">
         <v>2021</v>
       </c>
-      <c r="B183" s="9" t="s">
+      <c r="B183" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C183" s="9"/>
-      <c r="D183" s="9" t="s">
+      <c r="C183" s="2"/>
+      <c r="D183" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E183" s="9" t="s">
+      <c r="E183" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="F183" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G183" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H183" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A184" s="9">
+      <c r="F183" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G183" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H183" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I183" s="7"/>
+    </row>
+    <row r="184" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A184" s="7">
         <v>2021</v>
       </c>
-      <c r="B184" s="9" t="s">
+      <c r="B184" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C184" s="9"/>
-      <c r="D184" s="9" t="s">
+      <c r="C184" s="2"/>
+      <c r="D184" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E184" s="9" t="s">
+      <c r="E184" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F184" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G184" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H184" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A185" s="9">
+      <c r="F184" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G184" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H184" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I184" s="7"/>
+    </row>
+    <row r="185" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A185" s="7">
         <v>2021</v>
       </c>
-      <c r="B185" s="9" t="s">
+      <c r="B185" s="2" t="s">
         <v>332</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D185" s="9" t="s">
+      <c r="D185" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E185" s="9" t="s">
+      <c r="E185" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F185" s="9" t="s">
+      <c r="F185" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H185" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A186" s="9">
+      <c r="H185" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I185" s="7"/>
+    </row>
+    <row r="186" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A186" s="7">
         <v>2021</v>
       </c>
-      <c r="B186" s="9" t="s">
+      <c r="B186" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C186" s="9"/>
-      <c r="D186" s="9" t="s">
+      <c r="C186" s="2"/>
+      <c r="D186" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E186" s="9" t="s">
+      <c r="E186" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F186" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G186" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H186" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A187" s="9">
+      <c r="F186" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G186" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H186" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I186" s="7"/>
+    </row>
+    <row r="187" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A187" s="7">
         <v>2021</v>
       </c>
-      <c r="B187" s="9" t="s">
+      <c r="B187" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C187" s="9" t="s">
+      <c r="C187" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="D187" s="9" t="s">
+      <c r="D187" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E187" s="9" t="s">
+      <c r="E187" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="F187" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G187" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H187" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A188" s="9">
+      <c r="F187" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G187" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H187" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I187" s="7"/>
+    </row>
+    <row r="188" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A188" s="7">
         <v>2021</v>
       </c>
-      <c r="B188" s="9" t="s">
+      <c r="B188" s="2" t="s">
         <v>337</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="D188" s="9" t="s">
+      <c r="D188" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E188" s="9" t="s">
+      <c r="E188" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="F188" s="9" t="s">
+      <c r="F188" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H188" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A189" s="9">
+      <c r="H188" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I188" s="7"/>
+    </row>
+    <row r="189" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A189" s="7">
         <v>2021</v>
       </c>
-      <c r="B189" s="9" t="s">
+      <c r="B189" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C189" s="9"/>
-      <c r="D189" s="9" t="s">
+      <c r="C189" s="2"/>
+      <c r="D189" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E189" s="9" t="s">
+      <c r="E189" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F189" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G189" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H189" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A190" s="9">
+      <c r="F189" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G189" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H189" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I189" s="7"/>
+    </row>
+    <row r="190" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A190" s="7">
         <v>2012</v>
       </c>
-      <c r="B190" s="9" t="s">
+      <c r="B190" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C190" s="9" t="s">
+      <c r="C190" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="D190" s="9" t="s">
+      <c r="D190" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E190" s="9" t="s">
+      <c r="E190" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F190" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G190" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H190" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A191" s="9">
+      <c r="F190" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G190" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H190" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I190" s="7"/>
+    </row>
+    <row r="191" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A191" s="7">
         <v>2021</v>
       </c>
-      <c r="B191" s="9" t="s">
+      <c r="B191" s="2" t="s">
         <v>342</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="D191" s="9" t="s">
+      <c r="D191" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="E191" s="9" t="s">
+      <c r="E191" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="F191" s="9" t="s">
+      <c r="F191" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H191" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A192" s="9">
+      <c r="H191" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I191" s="7"/>
+    </row>
+    <row r="192" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A192" s="7">
         <v>2018</v>
       </c>
-      <c r="B192" s="9" t="s">
+      <c r="B192" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C192" s="9" t="s">
+      <c r="C192" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="D192" s="9" t="s">
+      <c r="D192" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E192" s="9" t="s">
+      <c r="E192" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="F192" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G192" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H192" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A193" s="9">
+      <c r="F192" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G192" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H192" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I192" s="7"/>
+    </row>
+    <row r="193" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A193" s="7">
         <v>2022</v>
       </c>
-      <c r="B193" s="9" t="s">
+      <c r="B193" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C193" s="9" t="s">
+      <c r="C193" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="D193" s="9" t="s">
+      <c r="D193" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E193" s="9" t="s">
+      <c r="E193" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="F193" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G193" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H193" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A194" s="9">
+      <c r="F193" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G193" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H193" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I193" s="7"/>
+    </row>
+    <row r="194" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A194" s="7">
         <v>2022</v>
       </c>
-      <c r="B194" s="9" t="s">
+      <c r="B194" s="2" t="s">
         <v>347</v>
       </c>
       <c r="C194" s="2"/>
-      <c r="D194" s="9" t="s">
+      <c r="D194" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E194" s="9" t="s">
+      <c r="E194" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="F194" s="9" t="s">
+      <c r="F194" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G194" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H194" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A195" s="9">
+      <c r="H194" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I194" s="7"/>
+    </row>
+    <row r="195" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A195" s="7">
         <v>2022</v>
       </c>
-      <c r="B195" s="9" t="s">
+      <c r="B195" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C195" s="9" t="s">
+      <c r="C195" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="D195" s="9" t="s">
+      <c r="D195" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E195" s="9" t="s">
+      <c r="E195" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="F195" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G195" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H195" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A196" s="9">
+      <c r="F195" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G195" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H195" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I195" s="7"/>
+    </row>
+    <row r="196" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A196" s="7">
         <v>2022</v>
       </c>
-      <c r="B196" s="9" t="s">
+      <c r="B196" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C196" s="9" t="s">
+      <c r="C196" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="D196" s="9" t="s">
+      <c r="D196" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E196" s="9" t="s">
+      <c r="E196" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="F196" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G196" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H196" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A197" s="9">
+      <c r="F196" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G196" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H196" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I196" s="7"/>
+    </row>
+    <row r="197" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A197" s="7">
         <v>2022</v>
       </c>
-      <c r="B197" s="9" t="s">
+      <c r="B197" s="2" t="s">
         <v>364</v>
       </c>
       <c r="C197" s="2"/>
-      <c r="D197" s="9" t="s">
+      <c r="D197" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E197" s="9" t="s">
+      <c r="E197" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="F197" s="9" t="s">
+      <c r="F197" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G197" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H197" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A198" s="9">
+      <c r="H197" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I197" s="7"/>
+    </row>
+    <row r="198" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A198" s="7">
         <v>2022</v>
       </c>
-      <c r="B198" s="9" t="s">
+      <c r="B198" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C198" s="9"/>
-      <c r="D198" s="9" t="s">
+      <c r="C198" s="2"/>
+      <c r="D198" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="E198" s="9" t="s">
+      <c r="E198" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="F198" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G198" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H198" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A199" s="9">
+      <c r="F198" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G198" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H198" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I198" s="7"/>
+    </row>
+    <row r="199" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A199" s="7">
         <v>2022</v>
       </c>
-      <c r="B199" s="9" t="s">
+      <c r="B199" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="C199" s="9"/>
-      <c r="D199" s="9" t="s">
+      <c r="C199" s="2"/>
+      <c r="D199" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E199" s="9" t="s">
+      <c r="E199" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="F199" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G199" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H199" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A200" s="9">
+      <c r="F199" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G199" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H199" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I199" s="7"/>
+    </row>
+    <row r="200" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A200" s="7">
         <v>2022</v>
       </c>
-      <c r="B200" s="9" t="s">
+      <c r="B200" s="2" t="s">
         <v>359</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D200" s="9" t="s">
+      <c r="D200" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E200" s="9" t="s">
+      <c r="E200" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="F200" s="9" t="s">
+      <c r="F200" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G200" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H200" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A201" s="9">
+      <c r="H200" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I200" s="7"/>
+    </row>
+    <row r="201" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A201" s="7">
         <v>2022</v>
       </c>
-      <c r="B201" s="9" t="s">
+      <c r="B201" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C201" s="9" t="s">
+      <c r="C201" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="D201" s="9" t="s">
+      <c r="D201" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E201" s="9" t="s">
+      <c r="E201" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F201" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G201" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H201" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A202" s="9">
+      <c r="F201" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G201" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H201" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I201" s="7"/>
+    </row>
+    <row r="202" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A202" s="7">
         <v>2022</v>
       </c>
-      <c r="B202" s="9" t="s">
+      <c r="B202" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C202" s="9" t="s">
+      <c r="C202" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="D202" s="9" t="s">
+      <c r="D202" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E202" s="9" t="s">
+      <c r="E202" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="F202" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G202" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H202" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A203" s="9">
+      <c r="F202" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G202" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H202" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I202" s="7"/>
+    </row>
+    <row r="203" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A203" s="7">
         <v>2022</v>
       </c>
-      <c r="B203" s="9" t="s">
+      <c r="B203" s="2" t="s">
         <v>354</v>
       </c>
       <c r="C203" s="2"/>
-      <c r="D203" s="9" t="s">
+      <c r="D203" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E203" s="9" t="s">
+      <c r="E203" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="F203" s="9" t="s">
+      <c r="F203" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G203" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H203" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A204" s="9">
+      <c r="H203" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I203" s="7"/>
+    </row>
+    <row r="204" spans="1:9" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A204" s="7">
         <v>2022</v>
       </c>
-      <c r="B204" s="9" t="s">
+      <c r="B204" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C204" s="9"/>
-      <c r="D204" s="9" t="s">
+      <c r="C204" s="2"/>
+      <c r="D204" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E204" s="9" t="s">
+      <c r="E204" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F204" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G204" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H204" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A205" s="9">
+      <c r="F204" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G204" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H204" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I204" s="7"/>
+    </row>
+    <row r="205" spans="1:9" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A205" s="7">
         <v>2023</v>
       </c>
-      <c r="B205" s="9" t="s">
+      <c r="B205" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="C205" s="9" t="s">
+      <c r="C205" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="D205" s="9" t="s">
+      <c r="D205" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E205" s="9" t="s">
+      <c r="E205" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="F205" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G205" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H205" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A206" s="9">
+      <c r="F205" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G205" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H205" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I205" s="7"/>
+    </row>
+    <row r="206" spans="1:9" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A206" s="7">
         <v>2023</v>
       </c>
-      <c r="B206" s="9" t="s">
+      <c r="B206" s="2" t="s">
         <v>367</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="D206" s="9" t="s">
+      <c r="D206" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E206" s="9" t="s">
+      <c r="E206" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F206" s="9" t="s">
+      <c r="F206" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G206" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H206" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A207" s="9">
+      <c r="H206" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I206" s="7"/>
+    </row>
+    <row r="207" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A207" s="7">
         <v>2023</v>
       </c>
-      <c r="B207" s="9" t="s">
+      <c r="B207" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C207" s="9"/>
-      <c r="D207" s="9" t="s">
+      <c r="C207" s="2"/>
+      <c r="D207" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E207" s="9" t="s">
+      <c r="E207" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="F207" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G207" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H207" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A208" s="9">
+      <c r="F207" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G207" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H207" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I207" s="7"/>
+    </row>
+    <row r="208" spans="1:9" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A208" s="7">
         <v>2023</v>
       </c>
-      <c r="B208" s="9" t="s">
+      <c r="B208" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C208" s="9"/>
-      <c r="D208" s="9" t="s">
+      <c r="C208" s="2"/>
+      <c r="D208" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="E208" s="9" t="s">
+      <c r="E208" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="F208" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G208" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H208" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A209" s="9">
+      <c r="F208" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G208" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H208" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I208" s="7"/>
+    </row>
+    <row r="209" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A209" s="7">
         <v>2023</v>
       </c>
-      <c r="B209" s="9" t="s">
+      <c r="B209" s="2" t="s">
         <v>372</v>
       </c>
       <c r="C209" s="2"/>
-      <c r="D209" s="9" t="s">
+      <c r="D209" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E209" s="9" t="s">
+      <c r="E209" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="F209" s="9" t="s">
+      <c r="F209" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G209" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H209" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A210" s="9">
+      <c r="H209" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I209" s="7"/>
+    </row>
+    <row r="210" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A210" s="7">
         <v>2023</v>
       </c>
-      <c r="B210" s="9" t="s">
+      <c r="B210" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C210" s="9"/>
-      <c r="D210" s="9" t="s">
+      <c r="C210" s="2"/>
+      <c r="D210" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E210" s="9" t="s">
+      <c r="E210" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F210" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G210" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H210" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A211" s="9">
+      <c r="F210" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G210" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H210" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I210" s="7"/>
+    </row>
+    <row r="211" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A211" s="7">
         <v>2023</v>
       </c>
-      <c r="B211" s="9" t="s">
+      <c r="B211" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C211" s="9"/>
-      <c r="D211" s="9" t="s">
+      <c r="C211" s="2"/>
+      <c r="D211" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E211" s="9" t="s">
+      <c r="E211" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="F211" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G211" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H211" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A212" s="9">
+      <c r="F211" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G211" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H211" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I211" s="7"/>
+    </row>
+    <row r="212" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A212" s="7">
         <v>2023</v>
       </c>
-      <c r="B212" s="9" t="s">
+      <c r="B212" s="2" t="s">
         <v>366</v>
       </c>
       <c r="C212" s="2"/>
-      <c r="D212" s="9" t="s">
+      <c r="D212" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E212" s="9" t="s">
+      <c r="E212" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F212" s="9" t="s">
+      <c r="F212" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G212" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H212" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A213" s="9">
+      <c r="H212" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I212" s="7"/>
+    </row>
+    <row r="213" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A213" s="7">
         <v>2023</v>
       </c>
-      <c r="B213" s="9" t="s">
+      <c r="B213" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C213" s="9" t="s">
+      <c r="C213" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="D213" s="9" t="s">
+      <c r="D213" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E213" s="9" t="s">
+      <c r="E213" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="F213" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G213" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H213" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A214" s="9">
+      <c r="F213" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G213" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H213" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I213" s="7"/>
+    </row>
+    <row r="214" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A214" s="7">
         <v>2009</v>
       </c>
-      <c r="B214" s="9" t="s">
+      <c r="B214" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C214" s="9"/>
-      <c r="D214" s="9" t="s">
+      <c r="C214" s="2"/>
+      <c r="D214" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E214" s="9" t="s">
+      <c r="E214" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F214" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G214" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H214" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A215" s="9">
+      <c r="F214" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G214" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H214" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I214" s="7"/>
+    </row>
+    <row r="215" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A215" s="7">
         <v>2023</v>
       </c>
-      <c r="B215" s="9" t="s">
+      <c r="B215" s="2" t="s">
         <v>368</v>
       </c>
       <c r="C215" s="2"/>
-      <c r="D215" s="9" t="s">
+      <c r="D215" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E215" s="9" t="s">
+      <c r="E215" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F215" s="9" t="s">
+      <c r="F215" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G215" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H215" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A216" s="9">
+      <c r="H215" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I215" s="7"/>
+    </row>
+    <row r="216" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A216" s="7">
         <v>2023</v>
       </c>
-      <c r="B216" s="9" t="s">
+      <c r="B216" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C216" s="9"/>
-      <c r="D216" s="9" t="s">
+      <c r="C216" s="2"/>
+      <c r="D216" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E216" s="9" t="s">
+      <c r="E216" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="F216" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G216" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H216" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A217" s="9">
+      <c r="F216" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G216" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H216" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I216" s="7"/>
+    </row>
+    <row r="217" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A217" s="7">
         <v>2023</v>
       </c>
-      <c r="B217" s="9" t="s">
+      <c r="B217" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C217" s="9"/>
-      <c r="D217" s="9" t="s">
+      <c r="C217" s="2"/>
+      <c r="D217" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E217" s="9" t="s">
+      <c r="E217" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="F217" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G217" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H217" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A218" s="9">
+      <c r="F217" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G217" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H217" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I217" s="7"/>
+    </row>
+    <row r="218" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A218" s="7">
         <v>2023</v>
       </c>
-      <c r="B218" s="9" t="s">
+      <c r="B218" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="C218" s="9"/>
-      <c r="D218" s="9" t="s">
+      <c r="C218" s="2"/>
+      <c r="D218" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E218" s="9" t="s">
+      <c r="E218" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="F218" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G218" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H218" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A219" s="9">
+      <c r="F218" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G218" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H218" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I218" s="7"/>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A219" s="7">
         <v>2024</v>
       </c>
-      <c r="B219" s="9" t="s">
+      <c r="B219" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="D219" s="9" t="s">
+      <c r="D219" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E219" s="9" t="s">
+      <c r="E219" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="F219" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G219" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H219" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A220" s="9">
+      <c r="F219" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G219" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H219" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A220" s="7">
         <v>2024</v>
       </c>
-      <c r="B220" s="9" t="s">
+      <c r="B220" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="C220" s="10"/>
-      <c r="D220" s="9" t="s">
+      <c r="C220" s="14"/>
+      <c r="D220" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E220" s="9" t="s">
+      <c r="E220" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="F220" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G220" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H220" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" ht="29" x14ac:dyDescent="0.2">
-      <c r="A221" s="9">
+      <c r="F220" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G220" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H220" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" ht="29" x14ac:dyDescent="0.2">
+      <c r="A221" s="7">
         <v>2024</v>
       </c>
-      <c r="B221" s="9" t="s">
+      <c r="B221" s="2" t="s">
         <v>460</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="D221" s="9" t="s">
+      <c r="D221" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E221" s="9" t="s">
+      <c r="E221" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="F221" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G221" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H221" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A222" s="9">
+      <c r="F221" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G221" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H221" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A222" s="7">
         <v>2024</v>
       </c>
-      <c r="B222" s="9" t="s">
+      <c r="B222" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="C222" s="9"/>
-      <c r="D222" s="9" t="s">
+      <c r="C222" s="2"/>
+      <c r="D222" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E222" s="9" t="s">
+      <c r="E222" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="F222" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G222" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H222" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A223" s="9">
+      <c r="F222" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G222" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H222" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A223" s="7">
         <v>2024</v>
       </c>
-      <c r="B223" s="9" t="s">
+      <c r="B223" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="C223" s="9"/>
-      <c r="D223" s="9" t="s">
+      <c r="C223" s="2"/>
+      <c r="D223" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="E223" s="9" t="s">
+      <c r="E223" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="F223" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G223" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H223" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" ht="43" x14ac:dyDescent="0.2">
+      <c r="F223" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G223" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H223" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" ht="43" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>2024</v>
       </c>
@@ -7855,7 +8101,7 @@
       <c r="D224" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="E224" s="9" t="s">
+      <c r="E224" s="2" t="s">
         <v>474</v>
       </c>
       <c r="F224" s="2" t="s">
@@ -7868,7 +8114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>2024</v>
       </c>
@@ -7878,7 +8124,7 @@
       <c r="C225" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D225" s="9" t="s">
+      <c r="D225" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E225" s="2" t="s">
@@ -7894,370 +8140,469 @@
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A226" s="9">
+    <row r="226" spans="1:9" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A226" s="7">
         <v>2024</v>
       </c>
-      <c r="B226" s="9" t="s">
+      <c r="B226" s="2" t="s">
         <v>483</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="D226" s="9" t="s">
+      <c r="D226" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="E226" s="9" t="s">
+      <c r="E226" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="F226" s="9" t="s">
+      <c r="F226" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G226" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H226" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A227" s="9">
+      <c r="H226" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I226" s="7"/>
+    </row>
+    <row r="227" spans="1:9" ht="29" x14ac:dyDescent="0.2">
+      <c r="A227" s="7">
         <v>2024</v>
       </c>
-      <c r="B227" s="9" t="s">
+      <c r="B227" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="C227" s="9" t="s">
+      <c r="C227" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="D227" s="9" t="s">
+      <c r="D227" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="E227" s="9" t="s">
+      <c r="E227" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="F227" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G227" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H227" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A228" s="9">
+      <c r="F227" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G227" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H227" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" ht="29" x14ac:dyDescent="0.2">
+      <c r="A228" s="7">
         <v>2024</v>
       </c>
-      <c r="B228" s="9" t="s">
+      <c r="B228" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="C228" s="9" t="s">
+      <c r="C228" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="D228" s="9" t="s">
+      <c r="D228" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="E228" s="9" t="s">
+      <c r="E228" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="F228" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G228" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H228" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A229" s="9">
+      <c r="F228" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G228" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H228" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A229" s="7">
         <v>2024</v>
       </c>
-      <c r="B229" s="9" t="s">
+      <c r="B229" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="C229" s="9" t="s">
+      <c r="C229" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="D229" s="9" t="s">
+      <c r="D229" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E229" s="9" t="s">
+      <c r="E229" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="F229" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G229" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H229" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A230" s="9">
+      <c r="F229" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G229" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H229" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A230" s="7">
         <v>2024</v>
       </c>
-      <c r="B230" s="9" t="s">
+      <c r="B230" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="C230" s="9"/>
-      <c r="D230" s="9" t="s">
+      <c r="C230" s="2"/>
+      <c r="D230" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E230" s="9" t="s">
+      <c r="E230" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="F230" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G230" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H230" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A231" s="9">
+      <c r="F230" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G230" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H230" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A231" s="7">
         <v>2024</v>
       </c>
-      <c r="B231" s="9" t="s">
+      <c r="B231" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="C231" s="9" t="s">
+      <c r="C231" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="D231" s="9" t="s">
+      <c r="D231" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E231" s="9" t="s">
+      <c r="E231" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="F231" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G231" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H231" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A232" s="9">
+      <c r="F231" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G231" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H231" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A232" s="7">
         <v>2024</v>
       </c>
-      <c r="B232" s="9" t="s">
+      <c r="B232" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="C232" s="9" t="s">
+      <c r="C232" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="D232" s="9" t="s">
+      <c r="D232" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E232" s="9" t="s">
+      <c r="E232" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F232" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G232" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H232" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A233" s="9">
+      <c r="F232" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G232" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H232" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A233" s="7">
         <v>2024</v>
       </c>
-      <c r="B233" s="9" t="s">
+      <c r="B233" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="C233" s="9" t="s">
+      <c r="C233" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="D233" s="9" t="s">
+      <c r="D233" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E233" s="9" t="s">
+      <c r="E233" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="F233" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G233" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H233" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A234" s="12">
+      <c r="F233" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G233" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H233" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A234" s="7">
         <v>2024</v>
       </c>
-      <c r="B234" s="12" t="s">
+      <c r="B234" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="C234" s="13"/>
-      <c r="D234" s="12" t="s">
+      <c r="D234" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E234" s="12" t="s">
+      <c r="E234" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="F234" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G234" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H234" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A235" s="12">
+      <c r="F234" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G234" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H234" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A235" s="7">
         <v>2024</v>
       </c>
-      <c r="B235" s="12" t="s">
+      <c r="B235" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="C235" s="12" t="s">
+      <c r="C235" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="D235" s="12" t="s">
+      <c r="D235" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E235" s="12" t="s">
+      <c r="E235" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F235" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G235" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H235" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A236" s="12">
+      <c r="F235" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G235" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H235" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" ht="29" x14ac:dyDescent="0.2">
+      <c r="A236" s="7">
         <v>2025</v>
       </c>
-      <c r="B236" s="12" t="s">
+      <c r="B236" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="C236" s="12" t="s">
+      <c r="C236" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="D236" s="12" t="s">
+      <c r="D236" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="E236" s="12" t="s">
+      <c r="E236" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="F236" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G236" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H236" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A237" s="12">
+      <c r="F236" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G236" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H236" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A237" s="7">
         <v>2025</v>
       </c>
-      <c r="B237" s="12" t="s">
+      <c r="B237" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="C237" s="12" t="s">
+      <c r="C237" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="D237" s="12" t="s">
+      <c r="D237" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E237" s="12" t="s">
-        <v>521</v>
-      </c>
-      <c r="F237" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G237" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H237" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A238" s="12">
+      <c r="E237" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="F237" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G237" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H237" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A238" s="7">
         <v>2025</v>
       </c>
-      <c r="B238" s="12" t="s">
-        <v>517</v>
-      </c>
-      <c r="C238" s="12" t="s">
+      <c r="B238" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C238" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D238" s="12" t="s">
+      <c r="D238" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E238" s="12" t="s">
+      <c r="E238" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F238" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G238" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H238" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A239" s="12">
+      <c r="F238" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G238" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H238" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A239" s="7">
         <v>2025</v>
       </c>
-      <c r="B239" s="12" t="s">
+      <c r="B239" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E239" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="C239" s="14"/>
-      <c r="D239" s="12" t="s">
+      <c r="F239" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G239" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H239" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="7">
+        <v>2025</v>
+      </c>
+      <c r="B240" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="C240" s="12"/>
+      <c r="D240" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F240" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G240" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H240" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.2">
+      <c r="A241" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B241" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="C241" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="D241" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E241" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="F241" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G241" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H241" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B242" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="C242" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="D242" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E242" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="F242" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G242" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H242" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B243" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="C243" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="D243" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E239" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="F239" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G239" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H239" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D240" s="9"/>
-      <c r="E240" s="9"/>
+      <c r="E243" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="F243" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G243" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H243" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E244" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{6B89377A-76F6-CA40-8081-AAD80BFAB6B8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H217">
     <sortCondition ref="B2:B217"/>
   </sortState>

--- a/src/main/webapp/content/files/oncologyTherapies/fda_approved_oncology_therapies.xlsx
+++ b/src/main/webapp/content/files/oncologyTherapies/fda_approved_oncology_therapies.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mskcc-my.sharepoint.com/personal/phillis2_mskcc_org/Documents/Precision Oncology Drug Page for Website/FDA-Approved_Oncology_therapies_bi_monthly updates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cavendk1/Documents/New onc therapies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{8C0F3825-168A-3C4C-913E-753BB014F271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33F0D526-34CA-1149-A4CE-440D95A17625}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E48DA2-5F66-174E-9D87-A0BE250055A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49820" yWindow="2800" windowWidth="29560" windowHeight="16900" xr2:uid="{D862B214-800F-AF40-9BAA-60FE1781D5C8}"/>
+    <workbookView xWindow="3480" yWindow="-21100" windowWidth="30240" windowHeight="17460" xr2:uid="{D862B214-800F-AF40-9BAA-60FE1781D5C8}"/>
   </bookViews>
   <sheets>
     <sheet name="FDA-Approved Oncology Therapies" sheetId="1" r:id="rId1"/>
     <sheet name="Footnotes" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FDA-Approved Oncology Therapies'!$A$1:$H$243</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FDA-Approved Oncology Therapies'!$A$1:$I$247</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="543">
   <si>
     <t>Year of drug’s first FDA- approval</t>
   </si>
@@ -728,9 +728,6 @@
   </si>
   <si>
     <t>Neratinib</t>
-  </si>
-  <si>
-    <t>EGFR//HER2 (ERBB2)/HER4 (ERBB4) inhibitor</t>
   </si>
   <si>
     <t>Niraparib</t>
@@ -1708,9 +1705,6 @@
     <t>dMMR</t>
   </si>
   <si>
-    <t>Bispecific HER2/HER3-directed T-cell engager</t>
-  </si>
-  <si>
     <t>Menin inhibitor</t>
   </si>
   <si>
@@ -1845,6 +1839,46 @@
   </si>
   <si>
     <t>Telisotuzumab</t>
+  </si>
+  <si>
+    <t>*HR+/HER2-
+*EGFR Oncogenic Mutations</t>
+  </si>
+  <si>
+    <t>Linvoseltamab</t>
+  </si>
+  <si>
+    <t>Bispecific antibody</t>
+  </si>
+  <si>
+    <t>Bispecific HER2/HER3 antibody</t>
+  </si>
+  <si>
+    <t>Sunvozertinib</t>
+  </si>
+  <si>
+    <t>Dordaviprone</t>
+  </si>
+  <si>
+    <t>Protease activator</t>
+  </si>
+  <si>
+    <t>H3 K27M (K28M): H3-3A (H3F3A), H3C2 (HIST1H3B), H3C3 (HIST1H3C)</t>
+  </si>
+  <si>
+    <t>DRD2 and ClpP agonist</t>
+  </si>
+  <si>
+    <t>Zongertinib</t>
+  </si>
+  <si>
+    <t>ERBB2 TKD activating mutations</t>
+  </si>
+  <si>
+    <t>HER2 (ERBB2) inhibitor</t>
+  </si>
+  <si>
+    <t>EGFR/HER2 (ERBB2)/HER4 (ERBB4) inhibitor</t>
   </si>
 </sst>
 </file>
@@ -1977,9 +2011,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1990,6 +2021,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2010,9 +2044,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2050,7 +2084,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2156,7 +2190,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2298,7 +2332,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2306,38 +2340,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B89377A-76F6-CA40-8081-AAD80BFAB6B8}">
-  <dimension ref="A1:I244"/>
+  <dimension ref="A1:I247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B173" sqref="B173"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C245" sqref="C245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.1640625" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="29.5" style="12" customWidth="1"/>
-    <col min="5" max="5" width="77" style="12" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="29.5" style="11" customWidth="1"/>
+    <col min="5" max="5" width="77" style="11" customWidth="1"/>
     <col min="10" max="16384" width="11.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="13" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="12" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>507</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>509</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>1</v>
@@ -2346,9 +2380,9 @@
         <v>2</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="I1" s="12"/>
+        <v>476</v>
+      </c>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
@@ -2408,7 +2442,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
@@ -2485,7 +2519,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
@@ -2537,7 +2571,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>25</v>
@@ -2564,7 +2598,7 @@
         <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>20</v>
@@ -2588,16 +2622,16 @@
         <v>2018</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>6</v>
@@ -2668,7 +2702,7 @@
         <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>38</v>
@@ -2699,7 +2733,7 @@
         <v>25</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>6</v>
@@ -2745,7 +2779,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>25</v>
@@ -2872,7 +2906,7 @@
         <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>54</v>
@@ -2899,7 +2933,7 @@
         <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>20</v>
@@ -2976,7 +3010,7 @@
         <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>38</v>
@@ -3028,7 +3062,7 @@
         <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>54</v>
@@ -3105,7 +3139,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>30</v>
@@ -3129,14 +3163,14 @@
         <v>2019</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>6</v>
@@ -3207,7 +3241,7 @@
         <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>38</v>
@@ -3231,16 +3265,16 @@
         <v>2019</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>6</v>
@@ -3311,7 +3345,7 @@
         <v>81</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>54</v>
@@ -3338,7 +3372,7 @@
         <v>227</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>30</v>
@@ -3432,7 +3466,7 @@
       </c>
       <c r="I43" s="7"/>
     </row>
-    <row r="44" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="7">
         <v>2009</v>
       </c>
@@ -3440,7 +3474,7 @@
         <v>90</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>86</v>
@@ -3489,14 +3523,14 @@
         <v>2019</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>6</v>
@@ -3689,10 +3723,10 @@
         <v>2011</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>20</v>
@@ -3716,16 +3750,16 @@
         <v>2020</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>6</v>
@@ -3818,16 +3852,16 @@
         <v>2019</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>6</v>
@@ -3848,7 +3882,7 @@
         <v>118</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>54</v>
@@ -3922,14 +3956,14 @@
         <v>2021</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>6</v>
@@ -3947,16 +3981,16 @@
         <v>2023</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>6</v>
@@ -4052,7 +4086,7 @@
         <v>133</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>134</v>
@@ -4071,7 +4105,7 @@
       </c>
       <c r="I68" s="7"/>
     </row>
-    <row r="69" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="7">
         <v>2006</v>
       </c>
@@ -4079,7 +4113,7 @@
         <v>69</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>30</v>
@@ -4156,7 +4190,7 @@
         <v>143</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>144</v>
@@ -4183,7 +4217,7 @@
         <v>146</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>54</v>
@@ -4210,7 +4244,7 @@
         <v>147</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>54</v>
@@ -4237,7 +4271,7 @@
         <v>148</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>54</v>
@@ -4339,7 +4373,7 @@
         <v>156</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>54</v>
@@ -4391,7 +4425,7 @@
         <v>159</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>160</v>
@@ -4418,7 +4452,7 @@
         <v>162</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>54</v>
@@ -4445,7 +4479,7 @@
         <v>164</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>165</v>
@@ -4547,7 +4581,7 @@
         <v>173</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>109</v>
@@ -4574,7 +4608,7 @@
         <v>175</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>141</v>
@@ -4601,7 +4635,7 @@
         <v>177</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>109</v>
@@ -4678,7 +4712,7 @@
         <v>182</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>54</v>
@@ -4702,10 +4736,10 @@
         <v>2015</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>165</v>
@@ -4736,7 +4770,7 @@
         <v>20</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F94" s="7" t="s">
         <v>6</v>
@@ -4807,7 +4841,7 @@
         <v>188</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>109</v>
@@ -4856,14 +4890,14 @@
         <v>2021</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>6</v>
@@ -4909,7 +4943,7 @@
         <v>194</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>54</v>
@@ -4936,7 +4970,7 @@
         <v>196</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>54</v>
@@ -5088,13 +5122,13 @@
         <v>205</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F108" s="7" t="s">
         <v>6</v>
@@ -5140,7 +5174,7 @@
         <v>209</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>141</v>
@@ -5192,7 +5226,7 @@
         <v>212</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>54</v>
@@ -5294,7 +5328,7 @@
         <v>218</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>54</v>
@@ -5371,7 +5405,7 @@
         <v>223</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>109</v>
@@ -5398,7 +5432,7 @@
         <v>224</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>141</v>
@@ -5425,13 +5459,13 @@
         <v>226</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F121" s="7" t="s">
         <v>6</v>
@@ -5452,7 +5486,7 @@
         <v>106</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>30</v>
@@ -5479,13 +5513,13 @@
         <v>229</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>230</v>
+        <v>542</v>
       </c>
       <c r="F123" s="7" t="s">
         <v>6</v>
@@ -5503,10 +5537,10 @@
         <v>2017</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>141</v>
@@ -5530,10 +5564,10 @@
         <v>2017</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>54</v>
@@ -5557,7 +5591,7 @@
         <v>2017</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2" t="s">
@@ -5582,7 +5616,7 @@
         <v>2018</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2" t="s">
@@ -5607,10 +5641,10 @@
         <v>2018</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>165</v>
@@ -5634,14 +5668,14 @@
         <v>2018</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F129" s="7" t="s">
         <v>7</v>
@@ -5659,10 +5693,10 @@
         <v>2018</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>109</v>
@@ -5686,10 +5720,10 @@
         <v>2018</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>54</v>
@@ -5713,14 +5747,14 @@
         <v>2018</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F132" s="7" t="s">
         <v>6</v>
@@ -5763,7 +5797,7 @@
         <v>2018</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2" t="s">
@@ -5788,14 +5822,14 @@
         <v>2018</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2" t="s">
         <v>154</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F135" s="7" t="s">
         <v>7</v>
@@ -5813,16 +5847,16 @@
         <v>2018</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F136" s="7" t="s">
         <v>6</v>
@@ -5840,16 +5874,16 @@
         <v>2018</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F137" s="7" t="s">
         <v>6</v>
@@ -5892,16 +5926,16 @@
         <v>2018</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F139" s="7" t="s">
         <v>6</v>
@@ -5919,14 +5953,14 @@
         <v>2018</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2" t="s">
         <v>112</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F140" s="7" t="s">
         <v>7</v>
@@ -5944,14 +5978,14 @@
         <v>2018</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F141" s="7" t="s">
         <v>6</v>
@@ -5969,14 +6003,14 @@
         <v>2018</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F142" s="7" t="s">
         <v>6</v>
@@ -5994,10 +6028,10 @@
         <v>2018</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>141</v>
@@ -6021,16 +6055,16 @@
         <v>2019</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="D144" s="2" t="s">
+      <c r="E144" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>262</v>
       </c>
       <c r="F144" s="7" t="s">
         <v>6</v>
@@ -6048,7 +6082,7 @@
         <v>2019</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2" t="s">
@@ -6073,14 +6107,14 @@
         <v>2019</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="2" t="s">
         <v>144</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F146" s="7" t="s">
         <v>6</v>
@@ -6126,7 +6160,7 @@
         <v>74</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>30</v>
@@ -6153,7 +6187,7 @@
         <v>124</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>30</v>
@@ -6180,7 +6214,7 @@
         <v>83</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>30</v>
@@ -6204,14 +6238,14 @@
         <v>2019</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F151" s="7" t="s">
         <v>6</v>
@@ -6229,14 +6263,14 @@
         <v>2019</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F152" s="7" t="s">
         <v>6</v>
@@ -6254,16 +6288,16 @@
         <v>2019</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>144</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F153" s="7" t="s">
         <v>6</v>
@@ -6281,7 +6315,7 @@
         <v>2019</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2" t="s">
@@ -6301,21 +6335,21 @@
       </c>
       <c r="I154" s="7"/>
     </row>
-    <row r="155" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:9" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A155" s="7">
         <v>2020</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D155" s="2" t="s">
+      <c r="E155" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="F155" s="7" t="s">
         <v>6</v>
@@ -6336,7 +6370,7 @@
         <v>136</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>30</v>
@@ -6360,14 +6394,14 @@
         <v>2020</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F157" s="7" t="s">
         <v>6</v>
@@ -6385,7 +6419,7 @@
         <v>2020</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2" t="s">
@@ -6410,16 +6444,16 @@
         <v>2020</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F159" s="7" t="s">
         <v>6</v>
@@ -6437,14 +6471,14 @@
         <v>2020</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F160" s="7" t="s">
         <v>7</v>
@@ -6462,16 +6496,16 @@
         <v>2020</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="E161" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F161" s="7" t="s">
         <v>6</v>
@@ -6489,14 +6523,14 @@
         <v>2020</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F162" s="7" t="s">
         <v>6</v>
@@ -6514,7 +6548,7 @@
         <v>2020</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2" t="s">
@@ -6539,10 +6573,10 @@
         <v>2020</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>38</v>
@@ -6566,7 +6600,7 @@
         <v>2020</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="2" t="s">
@@ -6591,16 +6625,16 @@
         <v>2020</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F166" s="7" t="s">
         <v>6</v>
@@ -6618,16 +6652,16 @@
         <v>2020</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F167" s="7" t="s">
         <v>6</v>
@@ -6645,7 +6679,7 @@
         <v>2020</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" s="2" t="s">
@@ -6670,16 +6704,16 @@
         <v>2020</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F169" s="7" t="s">
         <v>6</v>
@@ -6697,16 +6731,16 @@
         <v>2020</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>144</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F170" s="7" t="s">
         <v>6</v>
@@ -6724,16 +6758,16 @@
         <v>2020</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F171" s="7" t="s">
         <v>6</v>
@@ -6751,10 +6785,10 @@
         <v>2020</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>54</v>
@@ -6778,14 +6812,14 @@
         <v>2020</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F173" s="7" t="s">
         <v>6</v>
@@ -6803,16 +6837,16 @@
         <v>2020</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F174" s="7" t="s">
         <v>6</v>
@@ -6830,16 +6864,16 @@
         <v>2020</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="F175" s="7" t="s">
         <v>6</v>
@@ -6857,16 +6891,16 @@
         <v>2021</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F176" s="7" t="s">
         <v>6</v>
@@ -6884,16 +6918,16 @@
         <v>2021</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F177" s="7" t="s">
         <v>6</v>
@@ -6911,16 +6945,16 @@
         <v>2021</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F178" s="7" t="s">
         <v>6</v>
@@ -6938,16 +6972,16 @@
         <v>2021</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F179" s="7" t="s">
         <v>6</v>
@@ -6965,14 +6999,14 @@
         <v>2021</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="2" t="s">
         <v>216</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F180" s="7" t="s">
         <v>6</v>
@@ -6990,16 +7024,16 @@
         <v>2021</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F181" s="7" t="s">
         <v>6</v>
@@ -7017,7 +7051,7 @@
         <v>2021</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="2" t="s">
@@ -7042,14 +7076,14 @@
         <v>2021</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F183" s="7" t="s">
         <v>6</v>
@@ -7067,7 +7101,7 @@
         <v>2021</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" s="2" t="s">
@@ -7092,16 +7126,16 @@
         <v>2021</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F185" s="7" t="s">
         <v>6</v>
@@ -7119,7 +7153,7 @@
         <v>2021</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="2" t="s">
@@ -7144,16 +7178,16 @@
         <v>2021</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F187" s="7" t="s">
         <v>6</v>
@@ -7171,16 +7205,16 @@
         <v>2021</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F188" s="7" t="s">
         <v>6</v>
@@ -7198,14 +7232,14 @@
         <v>2021</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="2" t="s">
         <v>144</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F189" s="7" t="s">
         <v>6</v>
@@ -7226,7 +7260,7 @@
         <v>138</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>30</v>
@@ -7250,16 +7284,16 @@
         <v>2021</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D191" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="D191" s="2" t="s">
+      <c r="E191" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>344</v>
       </c>
       <c r="F191" s="7" t="s">
         <v>6</v>
@@ -7277,16 +7311,16 @@
         <v>2018</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F192" s="7" t="s">
         <v>6</v>
@@ -7304,16 +7338,16 @@
         <v>2022</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F193" s="7" t="s">
         <v>6</v>
@@ -7331,14 +7365,14 @@
         <v>2022</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="2" t="s">
         <v>216</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F194" s="7" t="s">
         <v>6</v>
@@ -7356,16 +7390,16 @@
         <v>2022</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F195" s="7" t="s">
         <v>6</v>
@@ -7383,16 +7417,16 @@
         <v>2022</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>144</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F196" s="7" t="s">
         <v>6</v>
@@ -7410,14 +7444,14 @@
         <v>2022</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="2" t="s">
         <v>160</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F197" s="7" t="s">
         <v>6</v>
@@ -7435,14 +7469,14 @@
         <v>2022</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E198" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>363</v>
       </c>
       <c r="F198" s="7" t="s">
         <v>6</v>
@@ -7460,14 +7494,14 @@
         <v>2022</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F199" s="7" t="s">
         <v>6</v>
@@ -7485,16 +7519,16 @@
         <v>2022</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F200" s="7" t="s">
         <v>6</v>
@@ -7512,16 +7546,16 @@
         <v>2022</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>154</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F201" s="7" t="s">
         <v>6</v>
@@ -7539,16 +7573,16 @@
         <v>2022</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>160</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F202" s="7" t="s">
         <v>6</v>
@@ -7566,14 +7600,14 @@
         <v>2022</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="2" t="s">
         <v>160</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F203" s="7" t="s">
         <v>6</v>
@@ -7591,7 +7625,7 @@
         <v>2022</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="2" t="s">
@@ -7616,16 +7650,16 @@
         <v>2023</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F205" s="7" t="s">
         <v>6</v>
@@ -7643,10 +7677,10 @@
         <v>2023</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>25</v>
@@ -7670,14 +7704,14 @@
         <v>2023</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="2" t="s">
         <v>160</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F207" s="7" t="s">
         <v>6</v>
@@ -7695,14 +7729,14 @@
         <v>2023</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E208" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>371</v>
       </c>
       <c r="F208" s="7" t="s">
         <v>6</v>
@@ -7720,14 +7754,14 @@
         <v>2023</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="2" t="s">
         <v>160</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F209" s="7" t="s">
         <v>6</v>
@@ -7745,7 +7779,7 @@
         <v>2023</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" s="2" t="s">
@@ -7770,14 +7804,14 @@
         <v>2023</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F211" s="7" t="s">
         <v>6</v>
@@ -7795,7 +7829,7 @@
         <v>2023</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="2" t="s">
@@ -7820,16 +7854,16 @@
         <v>2023</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F213" s="7" t="s">
         <v>6</v>
@@ -7872,7 +7906,7 @@
         <v>2023</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="2" t="s">
@@ -7897,14 +7931,14 @@
         <v>2023</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" s="2" t="s">
         <v>160</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F216" s="7" t="s">
         <v>6</v>
@@ -7922,14 +7956,14 @@
         <v>2023</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F217" s="7" t="s">
         <v>6</v>
@@ -7947,14 +7981,14 @@
         <v>2023</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F218" s="7" t="s">
         <v>6</v>
@@ -7972,13 +8006,13 @@
         <v>2024</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F219" s="7" t="s">
         <v>6</v>
@@ -7995,14 +8029,14 @@
         <v>2024</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C220" s="14"/>
+        <v>463</v>
+      </c>
+      <c r="C220" s="13"/>
       <c r="D220" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F220" s="7" t="s">
         <v>6</v>
@@ -8019,16 +8053,16 @@
         <v>2024</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F221" s="7" t="s">
         <v>6</v>
@@ -8045,14 +8079,14 @@
         <v>2024</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="2" t="s">
         <v>160</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F222" s="7" t="s">
         <v>6</v>
@@ -8069,14 +8103,14 @@
         <v>2024</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E223" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>469</v>
       </c>
       <c r="F223" s="7" t="s">
         <v>6</v>
@@ -8093,16 +8127,16 @@
         <v>2024</v>
       </c>
       <c r="B224" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C224" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C224" s="2" t="s">
+      <c r="D224" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="D224" s="2" t="s">
+      <c r="E224" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>474</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>6</v>
@@ -8119,16 +8153,16 @@
         <v>2024</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>6</v>
@@ -8145,16 +8179,16 @@
         <v>2024</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F226" s="7" t="s">
         <v>6</v>
@@ -8172,16 +8206,16 @@
         <v>2024</v>
       </c>
       <c r="B227" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E227" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="F227" s="7" t="s">
         <v>6</v>
@@ -8198,16 +8232,16 @@
         <v>2024</v>
       </c>
       <c r="B228" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E228" s="2" t="s">
         <v>480</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>481</v>
       </c>
       <c r="F228" s="7" t="s">
         <v>6</v>
@@ -8224,16 +8258,16 @@
         <v>2024</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F229" s="7" t="s">
         <v>6</v>
@@ -8250,14 +8284,14 @@
         <v>2024</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="2" t="s">
         <v>216</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F230" s="7" t="s">
         <v>6</v>
@@ -8274,16 +8308,16 @@
         <v>2024</v>
       </c>
       <c r="B231" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C231" s="2" t="s">
         <v>497</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>498</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F231" s="7" t="s">
         <v>6</v>
@@ -8300,10 +8334,10 @@
         <v>2024</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>38</v>
@@ -8326,16 +8360,16 @@
         <v>2024</v>
       </c>
       <c r="B233" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C233" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="C233" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>504</v>
+      <c r="D233" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="E233" s="14" t="s">
+        <v>533</v>
       </c>
       <c r="F233" s="7" t="s">
         <v>6</v>
@@ -8352,13 +8386,13 @@
         <v>2024</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F234" s="7" t="s">
         <v>6</v>
@@ -8375,10 +8409,10 @@
         <v>2024</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>30</v>
@@ -8401,208 +8435,311 @@
         <v>2025</v>
       </c>
       <c r="B236" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="F236" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G236" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H236" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" ht="29" x14ac:dyDescent="0.2">
+      <c r="A237" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B237" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="C237" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="D237" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E237" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="F237" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G237" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H237" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A238" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B238" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="C236" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="F236" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G236" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H236" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A237" s="7">
+      <c r="C238" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="D238" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E238" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F238" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G238" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H238" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A239" s="5">
         <v>2025</v>
       </c>
-      <c r="B237" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="D237" s="2" t="s">
+      <c r="B239" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="C239" s="12"/>
+      <c r="D239" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E239" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="F239" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G239" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H239" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B240" s="14" t="s">
+        <v>527</v>
+      </c>
+      <c r="C240" s="12"/>
+      <c r="D240" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E240" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="F240" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G240" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H240" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.2">
+      <c r="A241" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B241" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="C241" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="D241" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E241" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="F241" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G241" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H241" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B242" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="C242" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="D242" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="E237" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="F237" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G237" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H237" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A238" s="7">
+      <c r="E242" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="F242" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G242" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H242" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="5">
         <v>2025</v>
       </c>
-      <c r="B238" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="D238" s="2" t="s">
+      <c r="B243" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="C243" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="D243" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E238" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F238" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G238" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H238" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A239" s="7">
+      <c r="E243" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="F243" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G243" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H243" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A244" s="5">
         <v>2025</v>
       </c>
-      <c r="B239" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="D239" s="2" t="s">
+      <c r="B244" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="C244" s="14"/>
+      <c r="D244" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E244" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="F244" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G244" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H244" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A245" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="D245" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E239" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="F239" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G239" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H239" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="7">
+      <c r="E245" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F245" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G245" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H245" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" ht="43" x14ac:dyDescent="0.2">
+      <c r="A246" s="5">
         <v>2025</v>
       </c>
-      <c r="B240" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="C240" s="12"/>
-      <c r="D240" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F240" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G240" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H240" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.2">
-      <c r="A241" s="4">
+      <c r="B246" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="C246" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="D246" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="E246" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="F246" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G246" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H246" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I246" s="6"/>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A247" s="5">
         <v>2025</v>
       </c>
-      <c r="B241" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="C241" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="D241" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="E241" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="F241" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G241" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H241" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="4">
-        <v>2025</v>
-      </c>
-      <c r="B242" s="10" t="s">
-        <v>531</v>
-      </c>
-      <c r="C242" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="D242" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="E242" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="F242" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G242" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H242" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="4">
-        <v>2025</v>
-      </c>
-      <c r="B243" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="C243" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="D243" s="10" t="s">
+      <c r="B247" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="D247" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E243" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="F243" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G243" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H243" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E244" s="2"/>
+      <c r="E247" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="F247" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G247" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H247" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I247" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I247" xr:uid="{6B89377A-76F6-CA40-8081-AAD80BFAB6B8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H217">
     <sortCondition ref="B2:B217"/>
   </sortState>
@@ -8626,37 +8763,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="59" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/content/files/oncologyTherapies/fda_approved_oncology_therapies.xlsx
+++ b/src/main/webapp/content/files/oncologyTherapies/fda_approved_oncology_therapies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cavendk1/Documents/New onc therapies/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luc2/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E48DA2-5F66-174E-9D87-A0BE250055A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B02D45-5751-7242-90DF-9362D1C95D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="-21100" windowWidth="30240" windowHeight="17460" xr2:uid="{D862B214-800F-AF40-9BAA-60FE1781D5C8}"/>
+    <workbookView xWindow="7560" yWindow="2100" windowWidth="35060" windowHeight="20900" xr2:uid="{D862B214-800F-AF40-9BAA-60FE1781D5C8}"/>
   </bookViews>
   <sheets>
     <sheet name="FDA-Approved Oncology Therapies" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FDA-Approved Oncology Therapies'!$A$1:$I$247</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="547">
   <si>
     <t>Year of drug’s first FDA- approval</t>
   </si>
@@ -1686,9 +1686,6 @@
     <t>Revumenib</t>
   </si>
   <si>
-    <t>KMT2A Rearrangement</t>
-  </si>
-  <si>
     <t>Zanidatamab</t>
   </si>
   <si>
@@ -1879,6 +1876,22 @@
   </si>
   <si>
     <t>EGFR/HER2 (ERBB2)/HER4 (ERBB4) inhibitor</t>
+  </si>
+  <si>
+    <t>Imlunestrant</t>
+  </si>
+  <si>
+    <t>Ziftomenib</t>
+  </si>
+  <si>
+    <t>Susceptible NPM1 mutations, which includes W288Cfs*12 and W290Rfs*10</t>
+  </si>
+  <si>
+    <t>*KMT2A Rearrangement
+*Susceptible NPM1 mutations, which includes W288Cfs*12 and W290Rfs*10</t>
+  </si>
+  <si>
+    <t>ESR1 V422del, S463F, S463P, L469V, L536, Y537, D538, or E380  and ER+/HER2-</t>
   </si>
 </sst>
 </file>
@@ -1994,7 +2007,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2026,6 +2039,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2340,11 +2357,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B89377A-76F6-CA40-8081-AAD80BFAB6B8}">
-  <dimension ref="A1:I247"/>
+  <dimension ref="A1:I249"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C245" sqref="C245"/>
+      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D237" sqref="D237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2362,16 +2379,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>506</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>507</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>1</v>
@@ -3723,7 +3740,7 @@
         <v>2011</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>395</v>
@@ -4608,7 +4625,7 @@
         <v>175</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>141</v>
@@ -5128,7 +5145,7 @@
         <v>109</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F108" s="7" t="s">
         <v>6</v>
@@ -5405,7 +5422,7 @@
         <v>223</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>109</v>
@@ -5519,7 +5536,7 @@
         <v>54</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F123" s="7" t="s">
         <v>6</v>
@@ -6291,7 +6308,7 @@
         <v>269</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>144</v>
@@ -6740,7 +6757,7 @@
         <v>144</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F170" s="7" t="s">
         <v>6</v>
@@ -7494,7 +7511,7 @@
         <v>2022</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" s="2" t="s">
@@ -8303,7 +8320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A231" s="7">
         <v>2024</v>
       </c>
@@ -8311,13 +8328,13 @@
         <v>496</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>497</v>
+        <v>545</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F231" s="7" t="s">
         <v>6</v>
@@ -8334,7 +8351,7 @@
         <v>2024</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>434</v>
@@ -8360,16 +8377,16 @@
         <v>2024</v>
       </c>
       <c r="B233" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C233" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="C233" s="2" t="s">
-        <v>500</v>
-      </c>
       <c r="D233" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="E233" s="14" t="s">
         <v>532</v>
-      </c>
-      <c r="E233" s="14" t="s">
-        <v>533</v>
       </c>
       <c r="F233" s="7" t="s">
         <v>6</v>
@@ -8386,13 +8403,13 @@
         <v>2024</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F234" s="7" t="s">
         <v>6</v>
@@ -8409,7 +8426,7 @@
         <v>2024</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>387</v>
@@ -8435,7 +8452,7 @@
         <v>2025</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>413</v>
@@ -8461,16 +8478,16 @@
         <v>2025</v>
       </c>
       <c r="B237" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C237" s="14" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D237" s="14" t="s">
         <v>144</v>
       </c>
       <c r="E237" s="14" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F237" s="5" t="s">
         <v>6</v>
@@ -8487,7 +8504,7 @@
         <v>2025</v>
       </c>
       <c r="B238" s="14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C238" s="14" t="s">
         <v>412</v>
@@ -8513,14 +8530,14 @@
         <v>2025</v>
       </c>
       <c r="B239" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C239" s="12"/>
       <c r="D239" s="14" t="s">
         <v>54</v>
       </c>
       <c r="E239" s="14" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F239" s="5" t="s">
         <v>6</v>
@@ -8537,7 +8554,7 @@
         <v>2025</v>
       </c>
       <c r="B240" s="14" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C240" s="12"/>
       <c r="D240" s="14" t="s">
@@ -8561,16 +8578,16 @@
         <v>2025</v>
       </c>
       <c r="B241" s="14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C241" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D241" s="14" t="s">
         <v>165</v>
       </c>
       <c r="E241" s="14" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F241" s="5" t="s">
         <v>6</v>
@@ -8587,16 +8604,16 @@
         <v>2025</v>
       </c>
       <c r="B242" s="14" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C242" s="14" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D242" s="14" t="s">
         <v>144</v>
       </c>
       <c r="E242" s="14" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F242" s="5" t="s">
         <v>6</v>
@@ -8613,16 +8630,16 @@
         <v>2025</v>
       </c>
       <c r="B243" s="14" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C243" s="14" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D243" s="14" t="s">
         <v>54</v>
       </c>
       <c r="E243" s="14" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F243" s="5" t="s">
         <v>6</v>
@@ -8639,7 +8656,7 @@
         <v>2025</v>
       </c>
       <c r="B244" s="14" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C244" s="14"/>
       <c r="D244" s="14" t="s">
@@ -8663,7 +8680,7 @@
         <v>2025</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>389</v>
@@ -8689,16 +8706,16 @@
         <v>2025</v>
       </c>
       <c r="B246" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="C246" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="D246" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="C246" s="14" t="s">
+      <c r="E246" s="5" t="s">
         <v>537</v>
-      </c>
-      <c r="D246" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="E246" s="5" t="s">
-        <v>538</v>
       </c>
       <c r="F246" s="5" t="s">
         <v>6</v>
@@ -8716,16 +8733,16 @@
         <v>2025</v>
       </c>
       <c r="B247" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="C247" s="5" t="s">
         <v>539</v>
-      </c>
-      <c r="C247" s="5" t="s">
-        <v>540</v>
       </c>
       <c r="D247" s="5" t="s">
         <v>54</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F247" s="5" t="s">
         <v>6</v>
@@ -8737,6 +8754,58 @@
         <v>6</v>
       </c>
       <c r="I247" s="6"/>
+    </row>
+    <row r="248" spans="1:9" s="9" customFormat="1" ht="43" x14ac:dyDescent="0.2">
+      <c r="A248" s="7">
+        <v>2025</v>
+      </c>
+      <c r="B248" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D248" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E248" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F248" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G248" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H248" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A249" s="7">
+        <v>2025</v>
+      </c>
+      <c r="B249" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="C249" s="13" t="s">
+        <v>544</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F249" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G249" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H249" s="16" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I247" xr:uid="{6B89377A-76F6-CA40-8081-AAD80BFAB6B8}"/>

--- a/src/main/webapp/content/files/oncologyTherapies/fda_approved_oncology_therapies.xlsx
+++ b/src/main/webapp/content/files/oncologyTherapies/fda_approved_oncology_therapies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luc2/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B02D45-5751-7242-90DF-9362D1C95D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB13DDE2-EC86-0847-AE1F-43E33362F577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="2100" windowWidth="35060" windowHeight="20900" xr2:uid="{D862B214-800F-AF40-9BAA-60FE1781D5C8}"/>
+    <workbookView xWindow="19220" yWindow="4460" windowWidth="30240" windowHeight="17440" xr2:uid="{D862B214-800F-AF40-9BAA-60FE1781D5C8}"/>
   </bookViews>
   <sheets>
     <sheet name="FDA-Approved Oncology Therapies" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="548">
   <si>
     <t>Year of drug’s first FDA- approval</t>
   </si>
@@ -1893,12 +1893,15 @@
   <si>
     <t>ESR1 V422del, S463F, S463P, L469V, L536, Y537, D538, or E380  and ER+/HER2-</t>
   </si>
+  <si>
+    <t>Sevabertinib</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1931,30 +1934,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2007,7 +1986,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2016,27 +1995,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2357,52 +2323,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B89377A-76F6-CA40-8081-AAD80BFAB6B8}">
-  <dimension ref="A1:I249"/>
+  <dimension ref="A1:H250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D237" sqref="D237"/>
+      <pane ySplit="1" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D255" sqref="D255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="29.5" style="11" customWidth="1"/>
-    <col min="5" max="5" width="77" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="11.1640625" style="6"/>
+    <col min="1" max="1" width="13.1640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="29.5" style="8" customWidth="1"/>
+    <col min="5" max="5" width="77" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="11.1640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="12" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2415,19 +2380,18 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2440,19 +2404,18 @@
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+      <c r="F3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2467,19 +2430,18 @@
       <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+      <c r="F4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2492,19 +2454,18 @@
       <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+      <c r="F5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2517,19 +2478,18 @@
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
+      <c r="F6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2544,19 +2504,18 @@
       <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
+      <c r="F7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2569,19 +2528,18 @@
       <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
+      <c r="F8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2596,19 +2554,18 @@
       <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+      <c r="F9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2623,19 +2580,18 @@
       <c r="E10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A11" s="7">
+      <c r="F10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
         <v>2018</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2650,19 +2606,18 @@
       <c r="E11" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
+      <c r="F11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2675,19 +2630,18 @@
       <c r="E12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
+      <c r="F12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2700,19 +2654,18 @@
       <c r="E13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
+      <c r="F13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2727,19 +2680,18 @@
       <c r="E14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
+      <c r="H14" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2752,19 +2704,18 @@
       <c r="E15" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+      <c r="F15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2777,19 +2728,18 @@
       <c r="E16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A17" s="7">
+      <c r="F16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A17" s="4">
         <v>2002</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2804,19 +2754,18 @@
       <c r="E17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A18" s="7">
+      <c r="H17" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A18" s="4">
         <v>2002</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2829,19 +2778,18 @@
       <c r="E18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A19" s="7">
+      <c r="F18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A19" s="4">
         <v>2002</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2854,19 +2802,18 @@
       <c r="E19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A20" s="7">
+      <c r="F19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A20" s="4">
         <v>2003</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2879,19 +2826,18 @@
       <c r="E20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A21" s="7">
+      <c r="H20" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A21" s="4">
         <v>2003</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2904,19 +2850,18 @@
       <c r="E21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A22" s="7">
+      <c r="F21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A22" s="4">
         <v>2003</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2931,19 +2876,18 @@
       <c r="E22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A23" s="7">
+      <c r="F22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A23" s="4">
         <v>2003</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2958,19 +2902,18 @@
       <c r="E23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A24" s="7">
+      <c r="H23" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A24" s="4">
         <v>2004</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2983,19 +2926,18 @@
       <c r="E24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A25" s="7">
+      <c r="F24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A25" s="4">
         <v>2004</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -3008,19 +2950,18 @@
       <c r="E25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A26" s="7">
+      <c r="F25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A26" s="4">
         <v>2004</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -3035,19 +2976,18 @@
       <c r="E26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A27" s="7">
+      <c r="H26" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A27" s="4">
         <v>2004</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -3060,19 +3000,18 @@
       <c r="E27" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A28" s="7">
+      <c r="F27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A28" s="4">
         <v>2004</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -3087,19 +3026,18 @@
       <c r="E28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A29" s="7">
+      <c r="F28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A29" s="4">
         <v>2004</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -3112,19 +3050,18 @@
       <c r="E29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H29" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A30" s="7">
+      <c r="H29" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A30" s="4">
         <v>2005</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -3137,19 +3074,18 @@
       <c r="E30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:9" s="5" customFormat="1" ht="70" x14ac:dyDescent="0.15">
-      <c r="A31" s="7" t="s">
+      <c r="F30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="4" customFormat="1" ht="70" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -3164,19 +3100,18 @@
       <c r="E31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A32" s="7">
+      <c r="F31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A32" s="4">
         <v>2019</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -3189,19 +3124,18 @@
       <c r="E32" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" s="7"/>
-    </row>
-    <row r="33" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A33" s="7">
+      <c r="F32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A33" s="4">
         <v>2006</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3214,19 +3148,18 @@
       <c r="E33" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A34" s="7">
+      <c r="F33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A34" s="4">
         <v>2006</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -3239,19 +3172,18 @@
       <c r="E34" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A35" s="7">
+      <c r="F34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A35" s="4">
         <v>2006</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3266,19 +3198,18 @@
       <c r="E35" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H35" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I35" s="7"/>
-    </row>
-    <row r="36" spans="1:9" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A36" s="7">
+      <c r="H35" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A36" s="4">
         <v>2019</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -3293,19 +3224,18 @@
       <c r="E36" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I36" s="7"/>
-    </row>
-    <row r="37" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A37" s="7">
+      <c r="F36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A37" s="4">
         <v>2006</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -3318,19 +3248,18 @@
       <c r="E37" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I37" s="7"/>
-    </row>
-    <row r="38" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A38" s="7">
+      <c r="F37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A38" s="4">
         <v>2007</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -3343,19 +3272,18 @@
       <c r="E38" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H38" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I38" s="7"/>
-    </row>
-    <row r="39" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A39" s="7">
+      <c r="H38" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A39" s="4">
         <v>2007</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -3370,19 +3298,18 @@
       <c r="E39" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F39" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I39" s="7"/>
-    </row>
-    <row r="40" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A40" s="7">
+      <c r="F39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A40" s="4">
         <v>2017</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -3397,19 +3324,18 @@
       <c r="E40" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H40" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I40" s="7"/>
-    </row>
-    <row r="41" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A41" s="7">
+      <c r="H40" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A41" s="4">
         <v>2007</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -3422,19 +3348,18 @@
       <c r="E41" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H41" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I41" s="7"/>
-    </row>
-    <row r="42" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A42" s="7">
+      <c r="H41" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A42" s="4">
         <v>2008</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -3447,19 +3372,18 @@
       <c r="E42" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="7"/>
-    </row>
-    <row r="43" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A43" s="7">
+      <c r="F42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A43" s="4">
         <v>2008</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -3472,19 +3396,18 @@
       <c r="E43" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F43" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I43" s="7"/>
-    </row>
-    <row r="44" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A44" s="7">
+      <c r="F43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A44" s="4">
         <v>2009</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -3499,19 +3422,18 @@
       <c r="E44" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H44" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I44" s="7"/>
-    </row>
-    <row r="45" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A45" s="7">
+      <c r="H44" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A45" s="4">
         <v>2009</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -3524,19 +3446,18 @@
       <c r="E45" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F45" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I45" s="7"/>
-    </row>
-    <row r="46" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A46" s="7">
+      <c r="F45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A46" s="4">
         <v>2019</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -3549,19 +3470,18 @@
       <c r="E46" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H46" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I46" s="7"/>
-    </row>
-    <row r="47" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A47" s="7">
+      <c r="H46" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A47" s="4">
         <v>2009</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -3574,19 +3494,18 @@
       <c r="E47" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H47" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" s="7"/>
-    </row>
-    <row r="48" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A48" s="7">
+      <c r="H47" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A48" s="4">
         <v>2009</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -3599,19 +3518,18 @@
       <c r="E48" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F48" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I48" s="7"/>
-    </row>
-    <row r="49" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A49" s="7">
+      <c r="F48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A49" s="4">
         <v>2010</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -3624,19 +3542,18 @@
       <c r="E49" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F49" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I49" s="7"/>
-    </row>
-    <row r="50" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A50" s="7">
+      <c r="F49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A50" s="4">
         <v>2010</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -3649,19 +3566,18 @@
       <c r="E50" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H50" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I50" s="7"/>
-    </row>
-    <row r="51" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A51" s="7">
+      <c r="H50" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A51" s="4">
         <v>2010</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -3674,19 +3590,18 @@
       <c r="E51" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F51" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I51" s="7"/>
-    </row>
-    <row r="52" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A52" s="7">
+      <c r="F51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A52" s="4">
         <v>2011</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -3699,19 +3614,18 @@
       <c r="E52" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F52" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="7"/>
-    </row>
-    <row r="53" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A53" s="7">
+      <c r="F52" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A53" s="4">
         <v>2011</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -3724,19 +3638,18 @@
       <c r="E53" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H53" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I53" s="7"/>
-    </row>
-    <row r="54" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A54" s="7">
+      <c r="H53" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A54" s="4">
         <v>2011</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -3751,19 +3664,18 @@
       <c r="E54" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F54" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I54" s="7"/>
-    </row>
-    <row r="55" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A55" s="7">
+      <c r="F54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A55" s="4">
         <v>2020</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -3778,19 +3690,18 @@
       <c r="E55" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="F55" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I55" s="7"/>
-    </row>
-    <row r="56" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A56" s="7">
+      <c r="F55" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A56" s="4">
         <v>2011</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -3803,19 +3714,18 @@
       <c r="E56" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H56" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I56" s="7"/>
-    </row>
-    <row r="57" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A57" s="7">
+      <c r="H56" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A57" s="4">
         <v>2011</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -3828,19 +3738,18 @@
       <c r="E57" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F57" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I57" s="7"/>
-    </row>
-    <row r="58" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A58" s="7">
+      <c r="F57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A58" s="4">
         <v>2011</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -3853,19 +3762,18 @@
       <c r="E58" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F58" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="7"/>
-    </row>
-    <row r="59" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A59" s="7">
+      <c r="F58" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A59" s="4">
         <v>2019</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -3880,19 +3788,18 @@
       <c r="E59" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="F59" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I59" s="7"/>
-    </row>
-    <row r="60" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A60" s="7">
+      <c r="F59" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A60" s="4">
         <v>2011</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -3907,19 +3814,18 @@
       <c r="E60" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F60" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I60" s="7"/>
-    </row>
-    <row r="61" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A61" s="7">
+      <c r="F60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A61" s="4">
         <v>2012</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -3932,19 +3838,18 @@
       <c r="E61" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F61" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I61" s="7"/>
-    </row>
-    <row r="62" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A62" s="7">
+      <c r="F61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A62" s="4">
         <v>2012</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -3957,19 +3862,18 @@
       <c r="E62" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="F62" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H62" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="7"/>
-    </row>
-    <row r="63" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A63" s="7">
+      <c r="H62" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A63" s="4">
         <v>2021</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -3982,19 +3886,18 @@
       <c r="E63" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="F63" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I63" s="7"/>
-    </row>
-    <row r="64" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A64" s="7">
+      <c r="F63" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A64" s="4">
         <v>2023</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -4009,19 +3912,18 @@
       <c r="E64" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="F64" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I64" s="7"/>
-    </row>
-    <row r="65" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A65" s="7">
+      <c r="F64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A65" s="4">
         <v>2012</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -4034,19 +3936,18 @@
       <c r="E65" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H65" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I65" s="7"/>
-    </row>
-    <row r="66" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A66" s="7">
+      <c r="H65" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A66" s="4">
         <v>2012</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -4059,19 +3960,18 @@
       <c r="E66" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F66" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I66" s="7"/>
-    </row>
-    <row r="67" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A67" s="7">
+      <c r="F66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A67" s="4">
         <v>2012</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -4084,19 +3984,18 @@
       <c r="E67" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F67" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I67" s="7"/>
-    </row>
-    <row r="68" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A68" s="7">
+      <c r="F67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A68" s="4">
         <v>2012</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -4111,19 +4010,18 @@
       <c r="E68" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="F68" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H68" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I68" s="7"/>
-    </row>
-    <row r="69" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A69" s="7">
+      <c r="H68" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A69" s="4">
         <v>2006</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -4138,19 +4036,18 @@
       <c r="E69" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="F69" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H69" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I69" s="7"/>
-    </row>
-    <row r="70" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A70" s="7">
+      <c r="H69" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A70" s="4">
         <v>2005</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -4163,19 +4060,18 @@
       <c r="E70" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F70" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I70" s="7"/>
-    </row>
-    <row r="71" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A71" s="7">
+      <c r="F70" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A71" s="4">
         <v>2012</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -4188,19 +4084,18 @@
       <c r="E71" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="F71" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H71" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I71" s="7"/>
-    </row>
-    <row r="72" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A72" s="7">
+      <c r="H71" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A72" s="4">
         <v>2013</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -4215,19 +4110,18 @@
       <c r="E72" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F72" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I72" s="7"/>
-    </row>
-    <row r="73" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A73" s="7">
+      <c r="F72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A73" s="4">
         <v>2013</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -4242,19 +4136,18 @@
       <c r="E73" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F73" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I73" s="7"/>
-    </row>
-    <row r="74" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A74" s="7">
+      <c r="F73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A74" s="4">
         <v>2013</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -4269,19 +4162,18 @@
       <c r="E74" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F74" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H74" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I74" s="7"/>
-    </row>
-    <row r="75" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A75" s="7">
+      <c r="H74" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A75" s="4">
         <v>2013</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -4296,19 +4188,18 @@
       <c r="E75" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F75" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I75" s="7"/>
-    </row>
-    <row r="76" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A76" s="7">
+      <c r="F75" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A76" s="4">
         <v>2013</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -4321,19 +4212,18 @@
       <c r="E76" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F76" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I76" s="7"/>
-    </row>
-    <row r="77" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A77" s="7">
+      <c r="F76" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A77" s="4">
         <v>2013</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -4346,19 +4236,18 @@
       <c r="E77" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F77" s="7" t="s">
+      <c r="F77" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H77" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I77" s="7"/>
-    </row>
-    <row r="78" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A78" s="7">
+      <c r="H77" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A78" s="4">
         <v>2013</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -4371,19 +4260,18 @@
       <c r="E78" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F78" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I78" s="7"/>
-    </row>
-    <row r="79" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A79" s="7">
+      <c r="F78" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A79" s="4">
         <v>2013</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -4398,19 +4286,18 @@
       <c r="E79" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F79" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I79" s="7"/>
-    </row>
-    <row r="80" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A80" s="7">
+      <c r="F79" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A80" s="4">
         <v>2014</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -4423,19 +4310,18 @@
       <c r="E80" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="F80" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H80" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I80" s="7"/>
-    </row>
-    <row r="81" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A81" s="7">
+      <c r="H80" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A81" s="4">
         <v>2014</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -4450,19 +4336,18 @@
       <c r="E81" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F81" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I81" s="7"/>
-    </row>
-    <row r="82" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A82" s="7">
+      <c r="F81" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A82" s="4">
         <v>2014</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -4477,19 +4362,18 @@
       <c r="E82" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F82" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I82" s="7"/>
-    </row>
-    <row r="83" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A83" s="7">
+      <c r="F82" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A83" s="4">
         <v>2014</v>
       </c>
       <c r="B83" s="2" t="s">
@@ -4504,19 +4388,18 @@
       <c r="E83" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="F83" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H83" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I83" s="7"/>
-    </row>
-    <row r="84" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A84" s="7">
+      <c r="H83" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A84" s="4">
         <v>2014</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -4529,19 +4412,18 @@
       <c r="E84" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F84" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H84" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I84" s="7"/>
-    </row>
-    <row r="85" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A85" s="7">
+      <c r="F84" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A85" s="4">
         <v>2014</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -4554,19 +4436,18 @@
       <c r="E85" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F85" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I85" s="7"/>
-    </row>
-    <row r="86" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A86" s="7">
+      <c r="F85" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A86" s="4">
         <v>2014</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -4579,19 +4460,18 @@
       <c r="E86" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="F86" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H86" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I86" s="7"/>
-    </row>
-    <row r="87" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A87" s="7">
+      <c r="H86" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A87" s="4">
         <v>2014</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -4606,19 +4486,18 @@
       <c r="E87" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F87" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H87" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I87" s="7"/>
-    </row>
-    <row r="88" spans="1:9" s="5" customFormat="1" ht="98" x14ac:dyDescent="0.15">
-      <c r="A88" s="7">
+      <c r="F87" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" s="4" customFormat="1" ht="98" x14ac:dyDescent="0.15">
+      <c r="A88" s="4">
         <v>2014</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -4633,19 +4512,18 @@
       <c r="E88" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F88" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H88" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I88" s="7"/>
-    </row>
-    <row r="89" spans="1:9" s="5" customFormat="1" ht="56" x14ac:dyDescent="0.15">
-      <c r="A89" s="7">
+      <c r="F88" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" s="4" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+      <c r="A89" s="4">
         <v>2014</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -4660,19 +4538,18 @@
       <c r="E89" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="F89" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H89" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I89" s="7"/>
-    </row>
-    <row r="90" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A90" s="7">
+      <c r="H89" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A90" s="4">
         <v>2014</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -4685,19 +4562,18 @@
       <c r="E90" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F90" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H90" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I90" s="7"/>
-    </row>
-    <row r="91" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A91" s="7">
+      <c r="F90" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A91" s="4">
         <v>2014</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -4710,19 +4586,18 @@
       <c r="E91" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F91" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H91" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="7"/>
-    </row>
-    <row r="92" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A92" s="7">
+      <c r="F91" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A92" s="4">
         <v>2015</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -4737,19 +4612,18 @@
       <c r="E92" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="F92" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H92" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I92" s="7"/>
-    </row>
-    <row r="93" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A93" s="7">
+      <c r="H92" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A93" s="4">
         <v>2015</v>
       </c>
       <c r="B93" s="2" t="s">
@@ -4764,19 +4638,18 @@
       <c r="E93" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F93" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H93" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I93" s="7"/>
-    </row>
-    <row r="94" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A94" s="7">
+      <c r="F93" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A94" s="4">
         <v>2015</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -4789,19 +4662,18 @@
       <c r="E94" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="F94" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H94" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I94" s="7"/>
-    </row>
-    <row r="95" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A95" s="7">
+      <c r="F94" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A95" s="4">
         <v>2015</v>
       </c>
       <c r="B95" s="2" t="s">
@@ -4814,19 +4686,18 @@
       <c r="E95" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F95" s="7" t="s">
+      <c r="F95" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H95" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I95" s="7"/>
-    </row>
-    <row r="96" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A96" s="7">
+      <c r="H95" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A96" s="4">
         <v>2015</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -4839,19 +4710,18 @@
       <c r="E96" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F96" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H96" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I96" s="7"/>
-    </row>
-    <row r="97" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A97" s="7">
+      <c r="F96" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A97" s="4">
         <v>2015</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -4866,19 +4736,18 @@
       <c r="E97" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F97" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H97" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I97" s="7"/>
-    </row>
-    <row r="98" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A98" s="7">
+      <c r="F97" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A98" s="4">
         <v>2015</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -4891,19 +4760,18 @@
       <c r="E98" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F98" s="7" t="s">
+      <c r="F98" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H98" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I98" s="7"/>
-    </row>
-    <row r="99" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A99" s="7">
+      <c r="H98" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A99" s="4">
         <v>2021</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -4916,19 +4784,18 @@
       <c r="E99" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="F99" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H99" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I99" s="7"/>
-    </row>
-    <row r="100" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A100" s="7">
+      <c r="F99" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A100" s="4">
         <v>2015</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -4941,19 +4808,18 @@
       <c r="E100" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F100" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H100" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I100" s="7"/>
-    </row>
-    <row r="101" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A101" s="7">
+      <c r="F100" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A101" s="4">
         <v>2015</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -4968,19 +4834,18 @@
       <c r="E101" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F101" s="7" t="s">
+      <c r="F101" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H101" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I101" s="7"/>
-    </row>
-    <row r="102" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A102" s="7">
+      <c r="H101" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A102" s="4">
         <v>2015</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -4995,19 +4860,18 @@
       <c r="E102" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F102" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H102" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I102" s="7"/>
-    </row>
-    <row r="103" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A103" s="7">
+      <c r="F102" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A103" s="4">
         <v>2015</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -5020,19 +4884,18 @@
       <c r="E103" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F103" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H103" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I103" s="7"/>
-    </row>
-    <row r="104" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A104" s="7">
+      <c r="F103" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A104" s="4">
         <v>2015</v>
       </c>
       <c r="B104" s="2" t="s">
@@ -5045,19 +4908,18 @@
       <c r="E104" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F104" s="7" t="s">
+      <c r="F104" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H104" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I104" s="7"/>
-    </row>
-    <row r="105" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A105" s="7">
+      <c r="H104" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A105" s="4">
         <v>2015</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -5070,19 +4932,18 @@
       <c r="E105" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="F105" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H105" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I105" s="7"/>
-    </row>
-    <row r="106" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A106" s="7">
+      <c r="F105" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A106" s="4">
         <v>2015</v>
       </c>
       <c r="B106" s="2" t="s">
@@ -5095,19 +4956,18 @@
       <c r="E106" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F106" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H106" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I106" s="7"/>
-    </row>
-    <row r="107" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A107" s="7">
+      <c r="F106" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A107" s="4">
         <v>2015</v>
       </c>
       <c r="B107" s="2" t="s">
@@ -5120,19 +4980,18 @@
       <c r="E107" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F107" s="7" t="s">
+      <c r="F107" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H107" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I107" s="7"/>
-    </row>
-    <row r="108" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A108" s="7">
+      <c r="H107" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A108" s="4">
         <v>2016</v>
       </c>
       <c r="B108" s="2" t="s">
@@ -5147,19 +5006,18 @@
       <c r="E108" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="F108" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H108" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I108" s="7"/>
-    </row>
-    <row r="109" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A109" s="7">
+      <c r="F108" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A109" s="4">
         <v>2016</v>
       </c>
       <c r="B109" s="2" t="s">
@@ -5172,19 +5030,18 @@
       <c r="E109" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F109" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G109" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H109" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I109" s="7"/>
-    </row>
-    <row r="110" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A110" s="7">
+      <c r="F109" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A110" s="4">
         <v>2016</v>
       </c>
       <c r="B110" s="2" t="s">
@@ -5199,19 +5056,18 @@
       <c r="E110" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F110" s="7" t="s">
+      <c r="F110" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H110" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I110" s="7"/>
-    </row>
-    <row r="111" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A111" s="7">
+      <c r="H110" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A111" s="4">
         <v>2016</v>
       </c>
       <c r="B111" s="2" t="s">
@@ -5224,19 +5080,18 @@
       <c r="E111" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F111" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G111" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H111" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I111" s="7"/>
-    </row>
-    <row r="112" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A112" s="7">
+      <c r="F111" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A112" s="4">
         <v>2017</v>
       </c>
       <c r="B112" s="2" t="s">
@@ -5251,19 +5106,18 @@
       <c r="E112" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F112" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G112" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H112" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I112" s="7"/>
-    </row>
-    <row r="113" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A113" s="7">
+      <c r="F112" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A113" s="4">
         <v>2017</v>
       </c>
       <c r="B113" s="2" t="s">
@@ -5276,19 +5130,18 @@
       <c r="E113" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F113" s="7" t="s">
+      <c r="F113" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H113" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I113" s="7"/>
-    </row>
-    <row r="114" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A114" s="7">
+      <c r="H113" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A114" s="4">
         <v>2017</v>
       </c>
       <c r="B114" s="2" t="s">
@@ -5301,19 +5154,18 @@
       <c r="E114" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F114" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G114" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H114" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I114" s="7"/>
-    </row>
-    <row r="115" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A115" s="7">
+      <c r="F114" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A115" s="4">
         <v>2017</v>
       </c>
       <c r="B115" s="2" t="s">
@@ -5326,19 +5178,18 @@
       <c r="E115" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F115" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H115" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I115" s="7"/>
-    </row>
-    <row r="116" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A116" s="7">
+      <c r="F115" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A116" s="4">
         <v>2017</v>
       </c>
       <c r="B116" s="2" t="s">
@@ -5353,19 +5204,18 @@
       <c r="E116" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F116" s="7" t="s">
+      <c r="F116" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H116" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I116" s="7"/>
-    </row>
-    <row r="117" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A117" s="7">
+      <c r="H116" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A117" s="4">
         <v>2017</v>
       </c>
       <c r="B117" s="2" t="s">
@@ -5378,19 +5228,18 @@
       <c r="E117" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="F117" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G117" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H117" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I117" s="7"/>
-    </row>
-    <row r="118" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A118" s="7">
+      <c r="F117" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A118" s="4">
         <v>2017</v>
       </c>
       <c r="B118" s="2" t="s">
@@ -5403,19 +5252,18 @@
       <c r="E118" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F118" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H118" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I118" s="7"/>
-    </row>
-    <row r="119" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A119" s="7">
+      <c r="F118" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A119" s="4">
         <v>2017</v>
       </c>
       <c r="B119" s="2" t="s">
@@ -5430,19 +5278,18 @@
       <c r="E119" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F119" s="7" t="s">
+      <c r="F119" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H119" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I119" s="7"/>
-    </row>
-    <row r="120" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A120" s="7">
+      <c r="H119" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A120" s="4">
         <v>2017</v>
       </c>
       <c r="B120" s="2" t="s">
@@ -5457,19 +5304,18 @@
       <c r="E120" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F120" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H120" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I120" s="7"/>
-    </row>
-    <row r="121" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A121" s="7">
+      <c r="F120" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A121" s="4">
         <v>2017</v>
       </c>
       <c r="B121" s="2" t="s">
@@ -5484,19 +5330,18 @@
       <c r="E121" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="F121" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G121" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H121" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I121" s="7"/>
-    </row>
-    <row r="122" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A122" s="7">
+      <c r="F121" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A122" s="4">
         <v>2011</v>
       </c>
       <c r="B122" s="2" t="s">
@@ -5511,19 +5356,18 @@
       <c r="E122" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F122" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G122" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H122" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I122" s="7"/>
-    </row>
-    <row r="123" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A123" s="7">
+      <c r="F122" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A123" s="4">
         <v>2017</v>
       </c>
       <c r="B123" s="2" t="s">
@@ -5538,19 +5382,18 @@
       <c r="E123" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="F123" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G123" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H123" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I123" s="7"/>
-    </row>
-    <row r="124" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A124" s="7">
+      <c r="F123" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A124" s="4">
         <v>2017</v>
       </c>
       <c r="B124" s="2" t="s">
@@ -5565,19 +5408,18 @@
       <c r="E124" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F124" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H124" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I124" s="7"/>
-    </row>
-    <row r="125" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A125" s="7">
+      <c r="F124" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A125" s="4">
         <v>2017</v>
       </c>
       <c r="B125" s="2" t="s">
@@ -5592,19 +5434,18 @@
       <c r="E125" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F125" s="7" t="s">
+      <c r="F125" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H125" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I125" s="7"/>
-    </row>
-    <row r="126" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A126" s="7">
+      <c r="H125" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A126" s="4">
         <v>2017</v>
       </c>
       <c r="B126" s="2" t="s">
@@ -5617,19 +5458,18 @@
       <c r="E126" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F126" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G126" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H126" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I126" s="7"/>
-    </row>
-    <row r="127" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A127" s="7">
+      <c r="F126" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A127" s="4">
         <v>2018</v>
       </c>
       <c r="B127" s="2" t="s">
@@ -5642,19 +5482,18 @@
       <c r="E127" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F127" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G127" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H127" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I127" s="7"/>
-    </row>
-    <row r="128" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A128" s="7">
+      <c r="F127" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A128" s="4">
         <v>2018</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -5669,19 +5508,18 @@
       <c r="E128" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F128" s="7" t="s">
+      <c r="F128" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H128" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I128" s="7"/>
-    </row>
-    <row r="129" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A129" s="7">
+      <c r="H128" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A129" s="4">
         <v>2018</v>
       </c>
       <c r="B129" s="2" t="s">
@@ -5694,19 +5532,18 @@
       <c r="E129" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="F129" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G129" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H129" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I129" s="7"/>
-    </row>
-    <row r="130" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A130" s="7">
+      <c r="F129" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A130" s="4">
         <v>2018</v>
       </c>
       <c r="B130" s="2" t="s">
@@ -5721,19 +5558,18 @@
       <c r="E130" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F130" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G130" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H130" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I130" s="7"/>
-    </row>
-    <row r="131" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A131" s="7">
+      <c r="F130" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A131" s="4">
         <v>2018</v>
       </c>
       <c r="B131" s="2" t="s">
@@ -5748,19 +5584,18 @@
       <c r="E131" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F131" s="7" t="s">
+      <c r="F131" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H131" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I131" s="7"/>
-    </row>
-    <row r="132" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A132" s="7">
+      <c r="H131" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A132" s="4">
         <v>2018</v>
       </c>
       <c r="B132" s="2" t="s">
@@ -5773,19 +5608,18 @@
       <c r="E132" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F132" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G132" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H132" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I132" s="7"/>
-    </row>
-    <row r="133" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A133" s="7">
+      <c r="F132" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A133" s="4">
         <v>2011</v>
       </c>
       <c r="B133" s="2" t="s">
@@ -5798,19 +5632,18 @@
       <c r="E133" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F133" s="7" t="s">
+      <c r="F133" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H133" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I133" s="7"/>
-    </row>
-    <row r="134" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A134" s="7">
+      <c r="H133" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A134" s="4">
         <v>2018</v>
       </c>
       <c r="B134" s="2" t="s">
@@ -5823,19 +5656,18 @@
       <c r="E134" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F134" s="7" t="s">
+      <c r="F134" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H134" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I134" s="7"/>
-    </row>
-    <row r="135" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A135" s="7">
+      <c r="H134" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A135" s="4">
         <v>2018</v>
       </c>
       <c r="B135" s="2" t="s">
@@ -5848,19 +5680,18 @@
       <c r="E135" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F135" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G135" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H135" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I135" s="7"/>
-    </row>
-    <row r="136" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A136" s="7">
+      <c r="F135" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A136" s="4">
         <v>2018</v>
       </c>
       <c r="B136" s="2" t="s">
@@ -5875,19 +5706,18 @@
       <c r="E136" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F136" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G136" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H136" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I136" s="7"/>
-    </row>
-    <row r="137" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A137" s="7">
+      <c r="F136" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A137" s="4">
         <v>2018</v>
       </c>
       <c r="B137" s="2" t="s">
@@ -5902,19 +5732,18 @@
       <c r="E137" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="F137" s="7" t="s">
+      <c r="F137" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H137" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I137" s="7"/>
-    </row>
-    <row r="138" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A138" s="7">
+      <c r="H137" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A138" s="4">
         <v>2012</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -5927,19 +5756,18 @@
       <c r="E138" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F138" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G138" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H138" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I138" s="7"/>
-    </row>
-    <row r="139" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A139" s="7">
+      <c r="F138" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A139" s="4">
         <v>2018</v>
       </c>
       <c r="B139" s="2" t="s">
@@ -5954,19 +5782,18 @@
       <c r="E139" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F139" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G139" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H139" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I139" s="7"/>
-    </row>
-    <row r="140" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A140" s="7">
+      <c r="F139" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A140" s="4">
         <v>2018</v>
       </c>
       <c r="B140" s="2" t="s">
@@ -5979,19 +5806,18 @@
       <c r="E140" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F140" s="7" t="s">
+      <c r="F140" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H140" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I140" s="7"/>
-    </row>
-    <row r="141" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A141" s="7">
+      <c r="H140" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A141" s="4">
         <v>2018</v>
       </c>
       <c r="B141" s="2" t="s">
@@ -6004,19 +5830,18 @@
       <c r="E141" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="F141" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G141" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H141" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I141" s="7"/>
-    </row>
-    <row r="142" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A142" s="7">
+      <c r="F141" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A142" s="4">
         <v>2018</v>
       </c>
       <c r="B142" s="2" t="s">
@@ -6029,19 +5854,18 @@
       <c r="E142" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="F142" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G142" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H142" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I142" s="7"/>
-    </row>
-    <row r="143" spans="1:9" s="5" customFormat="1" ht="84" x14ac:dyDescent="0.15">
-      <c r="A143" s="7">
+      <c r="F142" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" s="4" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A143" s="4">
         <v>2018</v>
       </c>
       <c r="B143" s="2" t="s">
@@ -6056,19 +5880,18 @@
       <c r="E143" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F143" s="7" t="s">
+      <c r="F143" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H143" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I143" s="7"/>
-    </row>
-    <row r="144" spans="1:9" s="5" customFormat="1" ht="56" x14ac:dyDescent="0.15">
-      <c r="A144" s="7">
+      <c r="H143" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" s="4" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+      <c r="A144" s="4">
         <v>2019</v>
       </c>
       <c r="B144" s="2" t="s">
@@ -6083,19 +5906,18 @@
       <c r="E144" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="F144" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G144" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H144" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I144" s="7"/>
-    </row>
-    <row r="145" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A145" s="7">
+      <c r="F144" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A145" s="4">
         <v>2019</v>
       </c>
       <c r="B145" s="2" t="s">
@@ -6108,19 +5930,18 @@
       <c r="E145" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F145" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G145" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H145" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I145" s="7"/>
-    </row>
-    <row r="146" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A146" s="7">
+      <c r="F145" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A146" s="4">
         <v>2019</v>
       </c>
       <c r="B146" s="2" t="s">
@@ -6133,19 +5954,18 @@
       <c r="E146" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="F146" s="7" t="s">
+      <c r="F146" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H146" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I146" s="7"/>
-    </row>
-    <row r="147" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A147" s="7">
+      <c r="H146" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A147" s="4">
         <v>2015</v>
       </c>
       <c r="B147" s="2" t="s">
@@ -6158,19 +5978,18 @@
       <c r="E147" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F147" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G147" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H147" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I147" s="7"/>
-    </row>
-    <row r="148" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A148" s="7">
+      <c r="F147" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A148" s="4">
         <v>2006</v>
       </c>
       <c r="B148" s="2" t="s">
@@ -6185,19 +6004,18 @@
       <c r="E148" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F148" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G148" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H148" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I148" s="7"/>
-    </row>
-    <row r="149" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A149" s="7">
+      <c r="F148" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A149" s="4">
         <v>2012</v>
       </c>
       <c r="B149" s="2" t="s">
@@ -6212,19 +6030,18 @@
       <c r="E149" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F149" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G149" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H149" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I149" s="7"/>
-    </row>
-    <row r="150" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A150" s="7">
+      <c r="F149" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A150" s="4">
         <v>2007</v>
       </c>
       <c r="B150" s="2" t="s">
@@ -6239,19 +6056,18 @@
       <c r="E150" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F150" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G150" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H150" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I150" s="7"/>
-    </row>
-    <row r="151" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A151" s="7">
+      <c r="F150" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A151" s="4">
         <v>2019</v>
       </c>
       <c r="B151" s="2" t="s">
@@ -6264,19 +6080,18 @@
       <c r="E151" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="F151" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G151" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H151" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I151" s="7"/>
-    </row>
-    <row r="152" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A152" s="7">
+      <c r="F151" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A152" s="4">
         <v>2019</v>
       </c>
       <c r="B152" s="2" t="s">
@@ -6289,19 +6104,18 @@
       <c r="E152" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="F152" s="7" t="s">
+      <c r="F152" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H152" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I152" s="7"/>
-    </row>
-    <row r="153" spans="1:9" s="5" customFormat="1" ht="56" x14ac:dyDescent="0.15">
-      <c r="A153" s="7">
+      <c r="H152" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" s="4" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+      <c r="A153" s="4">
         <v>2019</v>
       </c>
       <c r="B153" s="2" t="s">
@@ -6316,19 +6130,18 @@
       <c r="E153" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="F153" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G153" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H153" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I153" s="7"/>
-    </row>
-    <row r="154" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A154" s="7">
+      <c r="F153" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H153" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A154" s="4">
         <v>2019</v>
       </c>
       <c r="B154" s="2" t="s">
@@ -6341,19 +6154,18 @@
       <c r="E154" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F154" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G154" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H154" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I154" s="7"/>
-    </row>
-    <row r="155" spans="1:9" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A155" s="7">
+      <c r="F154" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H154" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A155" s="4">
         <v>2020</v>
       </c>
       <c r="B155" s="2" t="s">
@@ -6368,19 +6180,18 @@
       <c r="E155" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="F155" s="7" t="s">
+      <c r="F155" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H155" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I155" s="7"/>
-    </row>
-    <row r="156" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A156" s="7">
+      <c r="H155" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A156" s="4">
         <v>2012</v>
       </c>
       <c r="B156" s="2" t="s">
@@ -6395,19 +6206,18 @@
       <c r="E156" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F156" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G156" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H156" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I156" s="7"/>
-    </row>
-    <row r="157" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A157" s="7">
+      <c r="F156" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H156" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A157" s="4">
         <v>2020</v>
       </c>
       <c r="B157" s="2" t="s">
@@ -6420,19 +6230,18 @@
       <c r="E157" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="F157" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G157" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H157" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I157" s="7"/>
-    </row>
-    <row r="158" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A158" s="7">
+      <c r="F157" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H157" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A158" s="4">
         <v>2020</v>
       </c>
       <c r="B158" s="2" t="s">
@@ -6445,19 +6254,18 @@
       <c r="E158" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F158" s="7" t="s">
+      <c r="F158" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H158" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I158" s="7"/>
-    </row>
-    <row r="159" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A159" s="7">
+      <c r="H158" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A159" s="4">
         <v>2020</v>
       </c>
       <c r="B159" s="2" t="s">
@@ -6472,19 +6280,18 @@
       <c r="E159" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="F159" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G159" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H159" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I159" s="7"/>
-    </row>
-    <row r="160" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A160" s="7">
+      <c r="F159" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H159" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A160" s="4">
         <v>2020</v>
       </c>
       <c r="B160" s="2" t="s">
@@ -6497,19 +6304,18 @@
       <c r="E160" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="F160" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G160" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H160" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I160" s="7"/>
-    </row>
-    <row r="161" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A161" s="7">
+      <c r="F160" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H160" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A161" s="4">
         <v>2020</v>
       </c>
       <c r="B161" s="2" t="s">
@@ -6524,19 +6330,18 @@
       <c r="E161" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="F161" s="7" t="s">
+      <c r="F161" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H161" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I161" s="7"/>
-    </row>
-    <row r="162" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A162" s="7">
+      <c r="H161" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A162" s="4">
         <v>2020</v>
       </c>
       <c r="B162" s="2" t="s">
@@ -6549,19 +6354,18 @@
       <c r="E162" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="F162" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G162" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H162" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I162" s="7"/>
-    </row>
-    <row r="163" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A163" s="7">
+      <c r="F162" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H162" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A163" s="4">
         <v>2020</v>
       </c>
       <c r="B163" s="2" t="s">
@@ -6574,19 +6378,18 @@
       <c r="E163" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F163" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G163" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H163" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I163" s="7"/>
-    </row>
-    <row r="164" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A164" s="7">
+      <c r="F163" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H163" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A164" s="4">
         <v>2020</v>
       </c>
       <c r="B164" s="2" t="s">
@@ -6601,19 +6404,18 @@
       <c r="E164" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F164" s="7" t="s">
+      <c r="F164" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H164" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I164" s="7"/>
-    </row>
-    <row r="165" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A165" s="7">
+      <c r="H164" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A165" s="4">
         <v>2020</v>
       </c>
       <c r="B165" s="2" t="s">
@@ -6626,19 +6428,18 @@
       <c r="E165" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F165" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G165" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H165" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I165" s="7"/>
-    </row>
-    <row r="166" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A166" s="7">
+      <c r="F165" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H165" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A166" s="4">
         <v>2020</v>
       </c>
       <c r="B166" s="2" t="s">
@@ -6653,19 +6454,18 @@
       <c r="E166" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="F166" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G166" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H166" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I166" s="7"/>
-    </row>
-    <row r="167" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A167" s="7">
+      <c r="F166" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H166" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A167" s="4">
         <v>2020</v>
       </c>
       <c r="B167" s="2" t="s">
@@ -6680,19 +6480,18 @@
       <c r="E167" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="F167" s="7" t="s">
+      <c r="F167" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H167" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I167" s="7"/>
-    </row>
-    <row r="168" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A168" s="7">
+      <c r="H167" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A168" s="4">
         <v>2020</v>
       </c>
       <c r="B168" s="2" t="s">
@@ -6705,19 +6504,18 @@
       <c r="E168" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F168" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G168" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H168" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I168" s="7"/>
-    </row>
-    <row r="169" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A169" s="7">
+      <c r="F168" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H168" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A169" s="4">
         <v>2020</v>
       </c>
       <c r="B169" s="2" t="s">
@@ -6732,19 +6530,18 @@
       <c r="E169" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="F169" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G169" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H169" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I169" s="7"/>
-    </row>
-    <row r="170" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A170" s="7">
+      <c r="F169" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H169" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A170" s="4">
         <v>2020</v>
       </c>
       <c r="B170" s="2" t="s">
@@ -6759,19 +6556,18 @@
       <c r="E170" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="F170" s="7" t="s">
+      <c r="F170" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G170" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H170" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I170" s="7"/>
-    </row>
-    <row r="171" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A171" s="7">
+      <c r="H170" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A171" s="4">
         <v>2020</v>
       </c>
       <c r="B171" s="2" t="s">
@@ -6786,19 +6582,18 @@
       <c r="E171" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="F171" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G171" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H171" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I171" s="7"/>
-    </row>
-    <row r="172" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A172" s="7">
+      <c r="F171" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H171" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A172" s="4">
         <v>2020</v>
       </c>
       <c r="B172" s="2" t="s">
@@ -6813,19 +6608,18 @@
       <c r="E172" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F172" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G172" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H172" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I172" s="7"/>
-    </row>
-    <row r="173" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A173" s="7">
+      <c r="F172" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H172" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A173" s="4">
         <v>2020</v>
       </c>
       <c r="B173" s="2" t="s">
@@ -6838,19 +6632,18 @@
       <c r="E173" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="F173" s="7" t="s">
+      <c r="F173" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G173" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H173" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I173" s="7"/>
-    </row>
-    <row r="174" spans="1:9" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A174" s="7">
+      <c r="H173" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A174" s="4">
         <v>2020</v>
       </c>
       <c r="B174" s="2" t="s">
@@ -6865,19 +6658,18 @@
       <c r="E174" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="F174" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G174" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H174" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I174" s="7"/>
-    </row>
-    <row r="175" spans="1:9" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A175" s="7">
+      <c r="F174" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H174" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A175" s="4">
         <v>2020</v>
       </c>
       <c r="B175" s="2" t="s">
@@ -6892,19 +6684,18 @@
       <c r="E175" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="F175" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G175" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H175" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I175" s="7"/>
-    </row>
-    <row r="176" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A176" s="7">
+      <c r="F175" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H175" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A176" s="4">
         <v>2021</v>
       </c>
       <c r="B176" s="2" t="s">
@@ -6919,19 +6710,18 @@
       <c r="E176" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="F176" s="7" t="s">
+      <c r="F176" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G176" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H176" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I176" s="7"/>
-    </row>
-    <row r="177" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A177" s="7">
+      <c r="H176" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A177" s="4">
         <v>2021</v>
       </c>
       <c r="B177" s="2" t="s">
@@ -6946,19 +6736,18 @@
       <c r="E177" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="F177" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G177" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H177" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I177" s="7"/>
-    </row>
-    <row r="178" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A178" s="7">
+      <c r="F177" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H177" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A178" s="4">
         <v>2021</v>
       </c>
       <c r="B178" s="2" t="s">
@@ -6973,19 +6762,18 @@
       <c r="E178" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="F178" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G178" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H178" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I178" s="7"/>
-    </row>
-    <row r="179" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A179" s="7">
+      <c r="F178" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G178" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H178" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A179" s="4">
         <v>2021</v>
       </c>
       <c r="B179" s="2" t="s">
@@ -7000,19 +6788,18 @@
       <c r="E179" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="F179" s="7" t="s">
+      <c r="F179" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H179" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I179" s="7"/>
-    </row>
-    <row r="180" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A180" s="7">
+      <c r="H179" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A180" s="4">
         <v>2021</v>
       </c>
       <c r="B180" s="2" t="s">
@@ -7025,19 +6812,18 @@
       <c r="E180" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="F180" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G180" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H180" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I180" s="7"/>
-    </row>
-    <row r="181" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A181" s="7">
+      <c r="F180" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G180" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H180" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A181" s="4">
         <v>2021</v>
       </c>
       <c r="B181" s="2" t="s">
@@ -7052,19 +6838,18 @@
       <c r="E181" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="F181" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G181" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H181" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I181" s="7"/>
-    </row>
-    <row r="182" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A182" s="7">
+      <c r="F181" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G181" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H181" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A182" s="4">
         <v>2021</v>
       </c>
       <c r="B182" s="2" t="s">
@@ -7077,19 +6862,18 @@
       <c r="E182" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F182" s="7" t="s">
+      <c r="F182" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H182" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I182" s="7"/>
-    </row>
-    <row r="183" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A183" s="7">
+      <c r="H182" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A183" s="4">
         <v>2021</v>
       </c>
       <c r="B183" s="2" t="s">
@@ -7102,19 +6886,18 @@
       <c r="E183" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="F183" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G183" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H183" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I183" s="7"/>
-    </row>
-    <row r="184" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A184" s="7">
+      <c r="F183" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H183" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A184" s="4">
         <v>2021</v>
       </c>
       <c r="B184" s="2" t="s">
@@ -7127,19 +6910,18 @@
       <c r="E184" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F184" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G184" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H184" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I184" s="7"/>
-    </row>
-    <row r="185" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A185" s="7">
+      <c r="F184" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G184" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H184" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A185" s="4">
         <v>2021</v>
       </c>
       <c r="B185" s="2" t="s">
@@ -7154,19 +6936,18 @@
       <c r="E185" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="F185" s="7" t="s">
+      <c r="F185" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H185" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I185" s="7"/>
-    </row>
-    <row r="186" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A186" s="7">
+      <c r="H185" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A186" s="4">
         <v>2021</v>
       </c>
       <c r="B186" s="2" t="s">
@@ -7179,19 +6960,18 @@
       <c r="E186" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F186" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G186" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H186" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I186" s="7"/>
-    </row>
-    <row r="187" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A187" s="7">
+      <c r="F186" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G186" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H186" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A187" s="4">
         <v>2021</v>
       </c>
       <c r="B187" s="2" t="s">
@@ -7206,19 +6986,18 @@
       <c r="E187" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="F187" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G187" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H187" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I187" s="7"/>
-    </row>
-    <row r="188" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A188" s="7">
+      <c r="F187" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G187" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H187" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A188" s="4">
         <v>2021</v>
       </c>
       <c r="B188" s="2" t="s">
@@ -7233,19 +7012,18 @@
       <c r="E188" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="F188" s="7" t="s">
+      <c r="F188" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H188" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I188" s="7"/>
-    </row>
-    <row r="189" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A189" s="7">
+      <c r="H188" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A189" s="4">
         <v>2021</v>
       </c>
       <c r="B189" s="2" t="s">
@@ -7258,19 +7036,18 @@
       <c r="E189" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F189" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G189" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H189" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I189" s="7"/>
-    </row>
-    <row r="190" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A190" s="7">
+      <c r="F189" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H189" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A190" s="4">
         <v>2012</v>
       </c>
       <c r="B190" s="2" t="s">
@@ -7285,19 +7062,18 @@
       <c r="E190" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F190" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G190" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H190" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I190" s="7"/>
-    </row>
-    <row r="191" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A191" s="7">
+      <c r="F190" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H190" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A191" s="4">
         <v>2021</v>
       </c>
       <c r="B191" s="2" t="s">
@@ -7312,19 +7088,18 @@
       <c r="E191" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="F191" s="7" t="s">
+      <c r="F191" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H191" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I191" s="7"/>
-    </row>
-    <row r="192" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A192" s="7">
+      <c r="H191" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A192" s="4">
         <v>2018</v>
       </c>
       <c r="B192" s="2" t="s">
@@ -7339,19 +7114,18 @@
       <c r="E192" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F192" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G192" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H192" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I192" s="7"/>
-    </row>
-    <row r="193" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A193" s="7">
+      <c r="F192" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G192" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H192" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A193" s="4">
         <v>2022</v>
       </c>
       <c r="B193" s="2" t="s">
@@ -7366,19 +7140,18 @@
       <c r="E193" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="F193" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G193" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H193" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I193" s="7"/>
-    </row>
-    <row r="194" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A194" s="7">
+      <c r="F193" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G193" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H193" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A194" s="4">
         <v>2022</v>
       </c>
       <c r="B194" s="2" t="s">
@@ -7391,19 +7164,18 @@
       <c r="E194" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="F194" s="7" t="s">
+      <c r="F194" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G194" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H194" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I194" s="7"/>
-    </row>
-    <row r="195" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A195" s="7">
+      <c r="H194" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A195" s="4">
         <v>2022</v>
       </c>
       <c r="B195" s="2" t="s">
@@ -7418,19 +7190,18 @@
       <c r="E195" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="F195" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G195" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H195" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I195" s="7"/>
-    </row>
-    <row r="196" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A196" s="7">
+      <c r="F195" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G195" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H195" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A196" s="4">
         <v>2022</v>
       </c>
       <c r="B196" s="2" t="s">
@@ -7445,19 +7216,18 @@
       <c r="E196" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="F196" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G196" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H196" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I196" s="7"/>
-    </row>
-    <row r="197" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A197" s="7">
+      <c r="F196" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G196" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H196" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A197" s="4">
         <v>2022</v>
       </c>
       <c r="B197" s="2" t="s">
@@ -7470,19 +7240,18 @@
       <c r="E197" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="F197" s="7" t="s">
+      <c r="F197" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G197" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H197" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I197" s="7"/>
-    </row>
-    <row r="198" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A198" s="7">
+      <c r="H197" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A198" s="4">
         <v>2022</v>
       </c>
       <c r="B198" s="2" t="s">
@@ -7495,19 +7264,18 @@
       <c r="E198" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="F198" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G198" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H198" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I198" s="7"/>
-    </row>
-    <row r="199" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A199" s="7">
+      <c r="F198" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G198" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H198" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A199" s="4">
         <v>2022</v>
       </c>
       <c r="B199" s="2" t="s">
@@ -7520,19 +7288,18 @@
       <c r="E199" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="F199" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G199" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H199" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I199" s="7"/>
-    </row>
-    <row r="200" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A200" s="7">
+      <c r="F199" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G199" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H199" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A200" s="4">
         <v>2022</v>
       </c>
       <c r="B200" s="2" t="s">
@@ -7547,19 +7314,18 @@
       <c r="E200" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F200" s="7" t="s">
+      <c r="F200" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G200" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H200" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I200" s="7"/>
-    </row>
-    <row r="201" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A201" s="7">
+      <c r="H200" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A201" s="4">
         <v>2022</v>
       </c>
       <c r="B201" s="2" t="s">
@@ -7574,19 +7340,18 @@
       <c r="E201" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="F201" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G201" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H201" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I201" s="7"/>
-    </row>
-    <row r="202" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A202" s="7">
+      <c r="F201" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G201" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H201" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A202" s="4">
         <v>2022</v>
       </c>
       <c r="B202" s="2" t="s">
@@ -7601,19 +7366,18 @@
       <c r="E202" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="F202" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G202" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H202" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I202" s="7"/>
-    </row>
-    <row r="203" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A203" s="7">
+      <c r="F202" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G202" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H202" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A203" s="4">
         <v>2022</v>
       </c>
       <c r="B203" s="2" t="s">
@@ -7626,19 +7390,18 @@
       <c r="E203" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="F203" s="7" t="s">
+      <c r="F203" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G203" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H203" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I203" s="7"/>
-    </row>
-    <row r="204" spans="1:9" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A204" s="7">
+      <c r="H203" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" s="4" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A204" s="4">
         <v>2022</v>
       </c>
       <c r="B204" s="2" t="s">
@@ -7651,19 +7414,18 @@
       <c r="E204" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F204" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G204" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H204" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I204" s="7"/>
-    </row>
-    <row r="205" spans="1:9" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A205" s="7">
+      <c r="F204" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G204" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H204" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" s="4" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A205" s="4">
         <v>2023</v>
       </c>
       <c r="B205" s="2" t="s">
@@ -7678,19 +7440,18 @@
       <c r="E205" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="F205" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G205" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H205" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I205" s="7"/>
-    </row>
-    <row r="206" spans="1:9" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A206" s="7">
+      <c r="F205" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G205" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H205" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A206" s="4">
         <v>2023</v>
       </c>
       <c r="B206" s="2" t="s">
@@ -7705,19 +7466,18 @@
       <c r="E206" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F206" s="7" t="s">
+      <c r="F206" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G206" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H206" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I206" s="7"/>
-    </row>
-    <row r="207" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A207" s="7">
+      <c r="H206" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A207" s="4">
         <v>2023</v>
       </c>
       <c r="B207" s="2" t="s">
@@ -7730,19 +7490,18 @@
       <c r="E207" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="F207" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G207" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H207" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I207" s="7"/>
-    </row>
-    <row r="208" spans="1:9" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A208" s="7">
+      <c r="F207" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G207" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H207" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A208" s="4">
         <v>2023</v>
       </c>
       <c r="B208" s="2" t="s">
@@ -7755,19 +7514,18 @@
       <c r="E208" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="F208" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G208" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H208" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I208" s="7"/>
-    </row>
-    <row r="209" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A209" s="7">
+      <c r="F208" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G208" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H208" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A209" s="4">
         <v>2023</v>
       </c>
       <c r="B209" s="2" t="s">
@@ -7780,19 +7538,18 @@
       <c r="E209" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="F209" s="7" t="s">
+      <c r="F209" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G209" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H209" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I209" s="7"/>
-    </row>
-    <row r="210" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A210" s="7">
+      <c r="H209" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A210" s="4">
         <v>2023</v>
       </c>
       <c r="B210" s="2" t="s">
@@ -7805,19 +7562,18 @@
       <c r="E210" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F210" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G210" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H210" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I210" s="7"/>
-    </row>
-    <row r="211" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A211" s="7">
+      <c r="F210" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G210" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H210" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A211" s="4">
         <v>2023</v>
       </c>
       <c r="B211" s="2" t="s">
@@ -7830,19 +7586,18 @@
       <c r="E211" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="F211" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G211" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H211" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I211" s="7"/>
-    </row>
-    <row r="212" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A212" s="7">
+      <c r="F211" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G211" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H211" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A212" s="4">
         <v>2023</v>
       </c>
       <c r="B212" s="2" t="s">
@@ -7855,19 +7610,18 @@
       <c r="E212" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F212" s="7" t="s">
+      <c r="F212" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G212" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H212" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I212" s="7"/>
-    </row>
-    <row r="213" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A213" s="7">
+      <c r="H212" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A213" s="4">
         <v>2023</v>
       </c>
       <c r="B213" s="2" t="s">
@@ -7882,19 +7636,18 @@
       <c r="E213" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="F213" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G213" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H213" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I213" s="7"/>
-    </row>
-    <row r="214" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A214" s="7">
+      <c r="F213" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G213" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H213" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A214" s="4">
         <v>2009</v>
       </c>
       <c r="B214" s="2" t="s">
@@ -7907,19 +7660,18 @@
       <c r="E214" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F214" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G214" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H214" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I214" s="7"/>
-    </row>
-    <row r="215" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A215" s="7">
+      <c r="F214" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G214" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H214" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A215" s="4">
         <v>2023</v>
       </c>
       <c r="B215" s="2" t="s">
@@ -7932,19 +7684,18 @@
       <c r="E215" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F215" s="7" t="s">
+      <c r="F215" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G215" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H215" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I215" s="7"/>
-    </row>
-    <row r="216" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A216" s="7">
+      <c r="H215" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A216" s="4">
         <v>2023</v>
       </c>
       <c r="B216" s="2" t="s">
@@ -7957,19 +7708,18 @@
       <c r="E216" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="F216" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G216" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H216" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I216" s="7"/>
-    </row>
-    <row r="217" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A217" s="7">
+      <c r="F216" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G216" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H216" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A217" s="4">
         <v>2023</v>
       </c>
       <c r="B217" s="2" t="s">
@@ -7982,19 +7732,18 @@
       <c r="E217" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="F217" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G217" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H217" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I217" s="7"/>
-    </row>
-    <row r="218" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A218" s="7">
+      <c r="F217" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G217" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H217" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A218" s="4">
         <v>2023</v>
       </c>
       <c r="B218" s="2" t="s">
@@ -8007,19 +7756,18 @@
       <c r="E218" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="F218" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G218" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H218" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I218" s="7"/>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A219" s="7">
+      <c r="F218" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G218" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H218" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A219" s="4">
         <v>2024</v>
       </c>
       <c r="B219" s="2" t="s">
@@ -8031,42 +7779,42 @@
       <c r="E219" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="F219" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G219" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H219" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A220" s="7">
+      <c r="F219" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G219" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H219" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A220" s="4">
         <v>2024</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C220" s="13"/>
+      <c r="C220" s="7"/>
       <c r="D220" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="F220" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G220" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H220" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" ht="29" x14ac:dyDescent="0.2">
-      <c r="A221" s="7">
+      <c r="F220" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G220" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H220" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="29" x14ac:dyDescent="0.2">
+      <c r="A221" s="4">
         <v>2024</v>
       </c>
       <c r="B221" s="2" t="s">
@@ -8081,18 +7829,18 @@
       <c r="E221" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="F221" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G221" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H221" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A222" s="7">
+      <c r="F221" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G221" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H221" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A222" s="4">
         <v>2024</v>
       </c>
       <c r="B222" s="2" t="s">
@@ -8105,18 +7853,18 @@
       <c r="E222" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="F222" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G222" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H222" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A223" s="7">
+      <c r="F222" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G222" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H222" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A223" s="4">
         <v>2024</v>
       </c>
       <c r="B223" s="2" t="s">
@@ -8129,17 +7877,17 @@
       <c r="E223" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="F223" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G223" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H223" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" ht="43" x14ac:dyDescent="0.2">
+      <c r="F223" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G223" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H223" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="43" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>2024</v>
       </c>
@@ -8165,7 +7913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>2024</v>
       </c>
@@ -8191,8 +7939,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="1:9" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A226" s="7">
+    <row r="226" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A226" s="4">
         <v>2024</v>
       </c>
       <c r="B226" s="2" t="s">
@@ -8207,19 +7955,18 @@
       <c r="E226" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="F226" s="7" t="s">
+      <c r="F226" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G226" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H226" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I226" s="7"/>
-    </row>
-    <row r="227" spans="1:9" ht="29" x14ac:dyDescent="0.2">
-      <c r="A227" s="7">
+      <c r="H226" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="29" x14ac:dyDescent="0.2">
+      <c r="A227" s="4">
         <v>2024</v>
       </c>
       <c r="B227" s="2" t="s">
@@ -8234,18 +7981,18 @@
       <c r="E227" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="F227" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G227" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H227" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" ht="29" x14ac:dyDescent="0.2">
-      <c r="A228" s="7">
+      <c r="F227" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G227" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H227" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" ht="29" x14ac:dyDescent="0.2">
+      <c r="A228" s="4">
         <v>2024</v>
       </c>
       <c r="B228" s="2" t="s">
@@ -8260,18 +8007,18 @@
       <c r="E228" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="F228" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G228" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H228" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A229" s="7">
+      <c r="F228" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G228" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H228" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A229" s="4">
         <v>2024</v>
       </c>
       <c r="B229" s="2" t="s">
@@ -8286,18 +8033,18 @@
       <c r="E229" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="F229" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G229" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H229" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A230" s="7">
+      <c r="F229" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G229" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H229" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A230" s="4">
         <v>2024</v>
       </c>
       <c r="B230" s="2" t="s">
@@ -8310,18 +8057,18 @@
       <c r="E230" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="F230" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G230" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H230" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" ht="57" x14ac:dyDescent="0.2">
-      <c r="A231" s="7">
+      <c r="F230" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G230" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H230" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A231" s="4">
         <v>2024</v>
       </c>
       <c r="B231" s="2" t="s">
@@ -8336,18 +8083,18 @@
       <c r="E231" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="F231" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G231" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H231" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A232" s="7">
+      <c r="F231" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G231" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H231" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A232" s="4">
         <v>2024</v>
       </c>
       <c r="B232" s="2" t="s">
@@ -8362,18 +8109,18 @@
       <c r="E232" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F232" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G232" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H232" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A233" s="7">
+      <c r="F232" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G232" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H232" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A233" s="4">
         <v>2024</v>
       </c>
       <c r="B233" s="2" t="s">
@@ -8382,24 +8129,24 @@
       <c r="C233" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="D233" s="14" t="s">
+      <c r="D233" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="E233" s="14" t="s">
+      <c r="E233" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="F233" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G233" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H233" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A234" s="7">
+      <c r="F233" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G233" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H233" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A234" s="4">
         <v>2024</v>
       </c>
       <c r="B234" s="2" t="s">
@@ -8411,18 +8158,18 @@
       <c r="E234" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="F234" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G234" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H234" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A235" s="7">
+      <c r="F234" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G234" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H234" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A235" s="4">
         <v>2024</v>
       </c>
       <c r="B235" s="2" t="s">
@@ -8437,18 +8184,18 @@
       <c r="E235" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F235" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G235" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H235" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" ht="29" x14ac:dyDescent="0.2">
-      <c r="A236" s="7">
+      <c r="F235" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G235" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H235" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" ht="29" x14ac:dyDescent="0.2">
+      <c r="A236" s="4">
         <v>2025</v>
       </c>
       <c r="B236" s="2" t="s">
@@ -8463,332 +8210,328 @@
       <c r="E236" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="F236" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G236" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H236" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" ht="29" x14ac:dyDescent="0.2">
-      <c r="A237" s="5">
+      <c r="F236" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G236" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H236" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" ht="29" x14ac:dyDescent="0.2">
+      <c r="A237" s="4">
         <v>2025</v>
       </c>
-      <c r="B237" s="14" t="s">
+      <c r="B237" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="C237" s="14" t="s">
+      <c r="C237" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="D237" s="14" t="s">
+      <c r="D237" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E237" s="14" t="s">
+      <c r="E237" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="F237" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G237" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H237" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A238" s="5">
+      <c r="F237" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G237" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H237" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A238" s="4">
         <v>2025</v>
       </c>
-      <c r="B238" s="14" t="s">
+      <c r="B238" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="C238" s="14" t="s">
+      <c r="C238" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="D238" s="14" t="s">
+      <c r="D238" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E238" s="14" t="s">
+      <c r="E238" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F238" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G238" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H238" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A239" s="5">
+      <c r="F238" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G238" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H238" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A239" s="4">
         <v>2025</v>
       </c>
-      <c r="B239" s="14" t="s">
+      <c r="B239" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="C239" s="12"/>
-      <c r="D239" s="14" t="s">
+      <c r="D239" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E239" s="14" t="s">
+      <c r="E239" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="F239" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G239" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H239" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="5">
+      <c r="F239" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G239" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H239" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A240" s="4">
         <v>2025</v>
       </c>
-      <c r="B240" s="14" t="s">
+      <c r="B240" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="C240" s="12"/>
-      <c r="D240" s="14" t="s">
+      <c r="D240" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E240" s="14" t="s">
+      <c r="E240" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F240" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G240" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H240" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.2">
-      <c r="A241" s="5">
+      <c r="F240" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G240" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H240" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" ht="29" x14ac:dyDescent="0.2">
+      <c r="A241" s="4">
         <v>2025</v>
       </c>
-      <c r="B241" s="14" t="s">
+      <c r="B241" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="C241" s="14" t="s">
+      <c r="C241" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="D241" s="14" t="s">
+      <c r="D241" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E241" s="14" t="s">
+      <c r="E241" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="F241" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G241" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H241" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="5">
+      <c r="F241" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G241" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H241" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A242" s="4">
         <v>2025</v>
       </c>
-      <c r="B242" s="14" t="s">
+      <c r="B242" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="C242" s="14" t="s">
+      <c r="C242" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="D242" s="14" t="s">
+      <c r="D242" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E242" s="14" t="s">
+      <c r="E242" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="F242" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G242" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H242" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="5">
+      <c r="F242" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G242" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H242" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A243" s="4">
         <v>2025</v>
       </c>
-      <c r="B243" s="14" t="s">
+      <c r="B243" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="C243" s="14" t="s">
+      <c r="C243" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="D243" s="14" t="s">
+      <c r="D243" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E243" s="14" t="s">
+      <c r="E243" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="F243" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G243" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H243" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A244" s="5">
+      <c r="F243" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G243" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H243" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A244" s="4">
         <v>2025</v>
       </c>
-      <c r="B244" s="14" t="s">
+      <c r="B244" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="C244" s="14"/>
-      <c r="D244" s="14" t="s">
+      <c r="C244" s="2"/>
+      <c r="D244" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E244" s="14" t="s">
+      <c r="E244" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="F244" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G244" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H244" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A245" s="5">
+      <c r="F244" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G244" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H244" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A245" s="4">
         <v>2025</v>
       </c>
-      <c r="B245" s="5" t="s">
+      <c r="B245" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="C245" s="5" t="s">
+      <c r="C245" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="D245" s="5" t="s">
+      <c r="D245" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E245" s="5" t="s">
+      <c r="E245" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F245" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G245" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H245" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" ht="43" x14ac:dyDescent="0.2">
-      <c r="A246" s="5">
+      <c r="F245" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G245" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H245" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" ht="43" x14ac:dyDescent="0.2">
+      <c r="A246" s="4">
         <v>2025</v>
       </c>
-      <c r="B246" s="5" t="s">
+      <c r="B246" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="C246" s="14" t="s">
+      <c r="C246" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="D246" s="5" t="s">
+      <c r="D246" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="E246" s="5" t="s">
+      <c r="E246" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="F246" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G246" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H246" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I246" s="6"/>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A247" s="5">
+      <c r="F246" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G246" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H246" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A247" s="4">
         <v>2025</v>
       </c>
-      <c r="B247" s="5" t="s">
+      <c r="B247" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="C247" s="5" t="s">
+      <c r="C247" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="D247" s="5" t="s">
+      <c r="D247" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E247" s="5" t="s">
+      <c r="E247" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="F247" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G247" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H247" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I247" s="6"/>
-    </row>
-    <row r="248" spans="1:9" s="9" customFormat="1" ht="43" x14ac:dyDescent="0.2">
-      <c r="A248" s="7">
+      <c r="F247" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G247" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H247" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" ht="43" x14ac:dyDescent="0.2">
+      <c r="A248" s="4">
         <v>2025</v>
       </c>
-      <c r="B248" s="7" t="s">
+      <c r="B248" s="4" t="s">
         <v>542</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="D248" s="7" t="s">
+      <c r="D248" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E248" s="7" t="s">
+      <c r="E248" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F248" s="7" t="s">
+      <c r="F248" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G248" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H248" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A249" s="7">
+      <c r="H248" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A249" s="4">
         <v>2025</v>
       </c>
-      <c r="B249" s="15" t="s">
+      <c r="B249" s="8" t="s">
         <v>543</v>
       </c>
-      <c r="C249" s="13" t="s">
+      <c r="C249" s="7" t="s">
         <v>544</v>
       </c>
       <c r="D249" s="2" t="s">
@@ -8797,13 +8540,39 @@
       <c r="E249" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="F249" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G249" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H249" s="16" t="s">
+      <c r="F249" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G249" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H249" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A250" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="D250" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E250" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="F250" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G250" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H250" s="4" t="s">
         <v>6</v>
       </c>
     </row>

--- a/src/main/webapp/content/files/oncologyTherapies/fda_approved_oncology_therapies.xlsx
+++ b/src/main/webapp/content/files/oncologyTherapies/fda_approved_oncology_therapies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cavendk1/Documents/New onc therapies/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luc2/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E48DA2-5F66-174E-9D87-A0BE250055A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB13DDE2-EC86-0847-AE1F-43E33362F577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="-21100" windowWidth="30240" windowHeight="17460" xr2:uid="{D862B214-800F-AF40-9BAA-60FE1781D5C8}"/>
+    <workbookView xWindow="19220" yWindow="4460" windowWidth="30240" windowHeight="17440" xr2:uid="{D862B214-800F-AF40-9BAA-60FE1781D5C8}"/>
   </bookViews>
   <sheets>
     <sheet name="FDA-Approved Oncology Therapies" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FDA-Approved Oncology Therapies'!$A$1:$I$247</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="548">
   <si>
     <t>Year of drug’s first FDA- approval</t>
   </si>
@@ -1686,9 +1686,6 @@
     <t>Revumenib</t>
   </si>
   <si>
-    <t>KMT2A Rearrangement</t>
-  </si>
-  <si>
     <t>Zanidatamab</t>
   </si>
   <si>
@@ -1880,12 +1877,31 @@
   <si>
     <t>EGFR/HER2 (ERBB2)/HER4 (ERBB4) inhibitor</t>
   </si>
+  <si>
+    <t>Imlunestrant</t>
+  </si>
+  <si>
+    <t>Ziftomenib</t>
+  </si>
+  <si>
+    <t>Susceptible NPM1 mutations, which includes W288Cfs*12 and W290Rfs*10</t>
+  </si>
+  <si>
+    <t>*KMT2A Rearrangement
+*Susceptible NPM1 mutations, which includes W288Cfs*12 and W290Rfs*10</t>
+  </si>
+  <si>
+    <t>ESR1 V422del, S463F, S463P, L469V, L536, Y537, D538, or E380  and ER+/HER2-</t>
+  </si>
+  <si>
+    <t>Sevabertinib</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1918,30 +1934,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1994,7 +1986,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2003,29 +1995,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2340,52 +2323,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B89377A-76F6-CA40-8081-AAD80BFAB6B8}">
-  <dimension ref="A1:I247"/>
+  <dimension ref="A1:H250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C245" sqref="C245"/>
+      <pane ySplit="1" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D255" sqref="D255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="29.5" style="11" customWidth="1"/>
-    <col min="5" max="5" width="77" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="11.1640625" style="6"/>
+    <col min="1" max="1" width="13.1640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="29.5" style="8" customWidth="1"/>
+    <col min="5" max="5" width="77" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="11.1640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="12" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2398,19 +2380,18 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2423,19 +2404,18 @@
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+      <c r="F3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2450,19 +2430,18 @@
       <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+      <c r="F4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2475,19 +2454,18 @@
       <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+      <c r="F5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2500,19 +2478,18 @@
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
+      <c r="F6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2527,19 +2504,18 @@
       <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
+      <c r="F7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2552,19 +2528,18 @@
       <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
+      <c r="F8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2579,19 +2554,18 @@
       <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+      <c r="F9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2606,19 +2580,18 @@
       <c r="E10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A11" s="7">
+      <c r="F10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
         <v>2018</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2633,19 +2606,18 @@
       <c r="E11" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
+      <c r="F11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2658,19 +2630,18 @@
       <c r="E12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
+      <c r="F12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2683,19 +2654,18 @@
       <c r="E13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
+      <c r="F13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2710,19 +2680,18 @@
       <c r="E14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
+      <c r="H14" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2735,19 +2704,18 @@
       <c r="E15" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+      <c r="F15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2760,19 +2728,18 @@
       <c r="E16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A17" s="7">
+      <c r="F16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A17" s="4">
         <v>2002</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2787,19 +2754,18 @@
       <c r="E17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A18" s="7">
+      <c r="H17" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A18" s="4">
         <v>2002</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2812,19 +2778,18 @@
       <c r="E18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A19" s="7">
+      <c r="F18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A19" s="4">
         <v>2002</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2837,19 +2802,18 @@
       <c r="E19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A20" s="7">
+      <c r="F19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A20" s="4">
         <v>2003</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2862,19 +2826,18 @@
       <c r="E20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A21" s="7">
+      <c r="H20" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A21" s="4">
         <v>2003</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2887,19 +2850,18 @@
       <c r="E21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A22" s="7">
+      <c r="F21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A22" s="4">
         <v>2003</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2914,19 +2876,18 @@
       <c r="E22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A23" s="7">
+      <c r="F22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A23" s="4">
         <v>2003</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2941,19 +2902,18 @@
       <c r="E23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A24" s="7">
+      <c r="H23" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A24" s="4">
         <v>2004</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2966,19 +2926,18 @@
       <c r="E24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A25" s="7">
+      <c r="F24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A25" s="4">
         <v>2004</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2991,19 +2950,18 @@
       <c r="E25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A26" s="7">
+      <c r="F25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A26" s="4">
         <v>2004</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -3018,19 +2976,18 @@
       <c r="E26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A27" s="7">
+      <c r="H26" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A27" s="4">
         <v>2004</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -3043,19 +3000,18 @@
       <c r="E27" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A28" s="7">
+      <c r="F27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A28" s="4">
         <v>2004</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -3070,19 +3026,18 @@
       <c r="E28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A29" s="7">
+      <c r="F28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A29" s="4">
         <v>2004</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -3095,19 +3050,18 @@
       <c r="E29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H29" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A30" s="7">
+      <c r="H29" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A30" s="4">
         <v>2005</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -3120,19 +3074,18 @@
       <c r="E30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:9" s="5" customFormat="1" ht="70" x14ac:dyDescent="0.15">
-      <c r="A31" s="7" t="s">
+      <c r="F30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="4" customFormat="1" ht="70" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -3147,19 +3100,18 @@
       <c r="E31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A32" s="7">
+      <c r="F31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A32" s="4">
         <v>2019</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -3172,19 +3124,18 @@
       <c r="E32" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" s="7"/>
-    </row>
-    <row r="33" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A33" s="7">
+      <c r="F32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A33" s="4">
         <v>2006</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3197,19 +3148,18 @@
       <c r="E33" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A34" s="7">
+      <c r="F33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A34" s="4">
         <v>2006</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -3222,19 +3172,18 @@
       <c r="E34" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A35" s="7">
+      <c r="F34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A35" s="4">
         <v>2006</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3249,19 +3198,18 @@
       <c r="E35" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H35" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I35" s="7"/>
-    </row>
-    <row r="36" spans="1:9" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A36" s="7">
+      <c r="H35" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A36" s="4">
         <v>2019</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -3276,19 +3224,18 @@
       <c r="E36" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I36" s="7"/>
-    </row>
-    <row r="37" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A37" s="7">
+      <c r="F36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A37" s="4">
         <v>2006</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -3301,19 +3248,18 @@
       <c r="E37" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I37" s="7"/>
-    </row>
-    <row r="38" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A38" s="7">
+      <c r="F37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A38" s="4">
         <v>2007</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -3326,19 +3272,18 @@
       <c r="E38" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H38" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I38" s="7"/>
-    </row>
-    <row r="39" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A39" s="7">
+      <c r="H38" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A39" s="4">
         <v>2007</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -3353,19 +3298,18 @@
       <c r="E39" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F39" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I39" s="7"/>
-    </row>
-    <row r="40" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A40" s="7">
+      <c r="F39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A40" s="4">
         <v>2017</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -3380,19 +3324,18 @@
       <c r="E40" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H40" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I40" s="7"/>
-    </row>
-    <row r="41" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A41" s="7">
+      <c r="H40" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A41" s="4">
         <v>2007</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -3405,19 +3348,18 @@
       <c r="E41" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H41" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I41" s="7"/>
-    </row>
-    <row r="42" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A42" s="7">
+      <c r="H41" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A42" s="4">
         <v>2008</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -3430,19 +3372,18 @@
       <c r="E42" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="7"/>
-    </row>
-    <row r="43" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A43" s="7">
+      <c r="F42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A43" s="4">
         <v>2008</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -3455,19 +3396,18 @@
       <c r="E43" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F43" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I43" s="7"/>
-    </row>
-    <row r="44" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A44" s="7">
+      <c r="F43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A44" s="4">
         <v>2009</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -3482,19 +3422,18 @@
       <c r="E44" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H44" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I44" s="7"/>
-    </row>
-    <row r="45" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A45" s="7">
+      <c r="H44" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A45" s="4">
         <v>2009</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -3507,19 +3446,18 @@
       <c r="E45" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F45" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I45" s="7"/>
-    </row>
-    <row r="46" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A46" s="7">
+      <c r="F45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A46" s="4">
         <v>2019</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -3532,19 +3470,18 @@
       <c r="E46" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H46" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I46" s="7"/>
-    </row>
-    <row r="47" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A47" s="7">
+      <c r="H46" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A47" s="4">
         <v>2009</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -3557,19 +3494,18 @@
       <c r="E47" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H47" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" s="7"/>
-    </row>
-    <row r="48" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A48" s="7">
+      <c r="H47" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A48" s="4">
         <v>2009</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -3582,19 +3518,18 @@
       <c r="E48" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F48" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I48" s="7"/>
-    </row>
-    <row r="49" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A49" s="7">
+      <c r="F48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A49" s="4">
         <v>2010</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -3607,19 +3542,18 @@
       <c r="E49" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F49" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I49" s="7"/>
-    </row>
-    <row r="50" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A50" s="7">
+      <c r="F49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A50" s="4">
         <v>2010</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -3632,19 +3566,18 @@
       <c r="E50" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H50" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I50" s="7"/>
-    </row>
-    <row r="51" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A51" s="7">
+      <c r="H50" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A51" s="4">
         <v>2010</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -3657,19 +3590,18 @@
       <c r="E51" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F51" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I51" s="7"/>
-    </row>
-    <row r="52" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A52" s="7">
+      <c r="F51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A52" s="4">
         <v>2011</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -3682,19 +3614,18 @@
       <c r="E52" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F52" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="7"/>
-    </row>
-    <row r="53" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A53" s="7">
+      <c r="F52" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A53" s="4">
         <v>2011</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -3707,23 +3638,22 @@
       <c r="E53" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H53" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I53" s="7"/>
-    </row>
-    <row r="54" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A54" s="7">
+      <c r="H53" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A54" s="4">
         <v>2011</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>395</v>
@@ -3734,19 +3664,18 @@
       <c r="E54" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F54" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I54" s="7"/>
-    </row>
-    <row r="55" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A55" s="7">
+      <c r="F54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A55" s="4">
         <v>2020</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -3761,19 +3690,18 @@
       <c r="E55" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="F55" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I55" s="7"/>
-    </row>
-    <row r="56" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A56" s="7">
+      <c r="F55" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A56" s="4">
         <v>2011</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -3786,19 +3714,18 @@
       <c r="E56" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H56" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I56" s="7"/>
-    </row>
-    <row r="57" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A57" s="7">
+      <c r="H56" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A57" s="4">
         <v>2011</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -3811,19 +3738,18 @@
       <c r="E57" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F57" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I57" s="7"/>
-    </row>
-    <row r="58" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A58" s="7">
+      <c r="F57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A58" s="4">
         <v>2011</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -3836,19 +3762,18 @@
       <c r="E58" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F58" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="7"/>
-    </row>
-    <row r="59" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A59" s="7">
+      <c r="F58" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A59" s="4">
         <v>2019</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -3863,19 +3788,18 @@
       <c r="E59" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="F59" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I59" s="7"/>
-    </row>
-    <row r="60" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A60" s="7">
+      <c r="F59" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A60" s="4">
         <v>2011</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -3890,19 +3814,18 @@
       <c r="E60" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F60" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I60" s="7"/>
-    </row>
-    <row r="61" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A61" s="7">
+      <c r="F60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A61" s="4">
         <v>2012</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -3915,19 +3838,18 @@
       <c r="E61" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F61" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I61" s="7"/>
-    </row>
-    <row r="62" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A62" s="7">
+      <c r="F61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A62" s="4">
         <v>2012</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -3940,19 +3862,18 @@
       <c r="E62" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="F62" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H62" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="7"/>
-    </row>
-    <row r="63" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A63" s="7">
+      <c r="H62" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A63" s="4">
         <v>2021</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -3965,19 +3886,18 @@
       <c r="E63" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="F63" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I63" s="7"/>
-    </row>
-    <row r="64" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A64" s="7">
+      <c r="F63" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A64" s="4">
         <v>2023</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -3992,19 +3912,18 @@
       <c r="E64" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="F64" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I64" s="7"/>
-    </row>
-    <row r="65" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A65" s="7">
+      <c r="F64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A65" s="4">
         <v>2012</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -4017,19 +3936,18 @@
       <c r="E65" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H65" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I65" s="7"/>
-    </row>
-    <row r="66" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A66" s="7">
+      <c r="H65" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A66" s="4">
         <v>2012</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -4042,19 +3960,18 @@
       <c r="E66" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F66" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I66" s="7"/>
-    </row>
-    <row r="67" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A67" s="7">
+      <c r="F66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A67" s="4">
         <v>2012</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -4067,19 +3984,18 @@
       <c r="E67" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F67" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I67" s="7"/>
-    </row>
-    <row r="68" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A68" s="7">
+      <c r="F67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A68" s="4">
         <v>2012</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -4094,19 +4010,18 @@
       <c r="E68" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="F68" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H68" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I68" s="7"/>
-    </row>
-    <row r="69" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A69" s="7">
+      <c r="H68" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A69" s="4">
         <v>2006</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -4121,19 +4036,18 @@
       <c r="E69" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="F69" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H69" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I69" s="7"/>
-    </row>
-    <row r="70" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A70" s="7">
+      <c r="H69" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A70" s="4">
         <v>2005</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -4146,19 +4060,18 @@
       <c r="E70" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F70" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I70" s="7"/>
-    </row>
-    <row r="71" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A71" s="7">
+      <c r="F70" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A71" s="4">
         <v>2012</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -4171,19 +4084,18 @@
       <c r="E71" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="F71" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H71" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I71" s="7"/>
-    </row>
-    <row r="72" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A72" s="7">
+      <c r="H71" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A72" s="4">
         <v>2013</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -4198,19 +4110,18 @@
       <c r="E72" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F72" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I72" s="7"/>
-    </row>
-    <row r="73" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A73" s="7">
+      <c r="F72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A73" s="4">
         <v>2013</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -4225,19 +4136,18 @@
       <c r="E73" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F73" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I73" s="7"/>
-    </row>
-    <row r="74" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A74" s="7">
+      <c r="F73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A74" s="4">
         <v>2013</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -4252,19 +4162,18 @@
       <c r="E74" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F74" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H74" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I74" s="7"/>
-    </row>
-    <row r="75" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A75" s="7">
+      <c r="H74" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A75" s="4">
         <v>2013</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -4279,19 +4188,18 @@
       <c r="E75" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F75" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I75" s="7"/>
-    </row>
-    <row r="76" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A76" s="7">
+      <c r="F75" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A76" s="4">
         <v>2013</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -4304,19 +4212,18 @@
       <c r="E76" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F76" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I76" s="7"/>
-    </row>
-    <row r="77" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A77" s="7">
+      <c r="F76" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A77" s="4">
         <v>2013</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -4329,19 +4236,18 @@
       <c r="E77" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F77" s="7" t="s">
+      <c r="F77" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H77" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I77" s="7"/>
-    </row>
-    <row r="78" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A78" s="7">
+      <c r="H77" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A78" s="4">
         <v>2013</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -4354,19 +4260,18 @@
       <c r="E78" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F78" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I78" s="7"/>
-    </row>
-    <row r="79" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A79" s="7">
+      <c r="F78" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A79" s="4">
         <v>2013</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -4381,19 +4286,18 @@
       <c r="E79" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F79" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I79" s="7"/>
-    </row>
-    <row r="80" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A80" s="7">
+      <c r="F79" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A80" s="4">
         <v>2014</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -4406,19 +4310,18 @@
       <c r="E80" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="F80" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H80" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I80" s="7"/>
-    </row>
-    <row r="81" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A81" s="7">
+      <c r="H80" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A81" s="4">
         <v>2014</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -4433,19 +4336,18 @@
       <c r="E81" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F81" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I81" s="7"/>
-    </row>
-    <row r="82" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A82" s="7">
+      <c r="F81" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A82" s="4">
         <v>2014</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -4460,19 +4362,18 @@
       <c r="E82" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F82" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I82" s="7"/>
-    </row>
-    <row r="83" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A83" s="7">
+      <c r="F82" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A83" s="4">
         <v>2014</v>
       </c>
       <c r="B83" s="2" t="s">
@@ -4487,19 +4388,18 @@
       <c r="E83" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="F83" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H83" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I83" s="7"/>
-    </row>
-    <row r="84" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A84" s="7">
+      <c r="H83" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A84" s="4">
         <v>2014</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -4512,19 +4412,18 @@
       <c r="E84" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F84" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H84" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I84" s="7"/>
-    </row>
-    <row r="85" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A85" s="7">
+      <c r="F84" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A85" s="4">
         <v>2014</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -4537,19 +4436,18 @@
       <c r="E85" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F85" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I85" s="7"/>
-    </row>
-    <row r="86" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A86" s="7">
+      <c r="F85" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A86" s="4">
         <v>2014</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -4562,19 +4460,18 @@
       <c r="E86" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="F86" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H86" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I86" s="7"/>
-    </row>
-    <row r="87" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A87" s="7">
+      <c r="H86" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A87" s="4">
         <v>2014</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -4589,26 +4486,25 @@
       <c r="E87" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F87" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H87" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I87" s="7"/>
-    </row>
-    <row r="88" spans="1:9" s="5" customFormat="1" ht="98" x14ac:dyDescent="0.15">
-      <c r="A88" s="7">
+      <c r="F87" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" s="4" customFormat="1" ht="98" x14ac:dyDescent="0.15">
+      <c r="A88" s="4">
         <v>2014</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>175</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>141</v>
@@ -4616,19 +4512,18 @@
       <c r="E88" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F88" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H88" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I88" s="7"/>
-    </row>
-    <row r="89" spans="1:9" s="5" customFormat="1" ht="56" x14ac:dyDescent="0.15">
-      <c r="A89" s="7">
+      <c r="F88" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" s="4" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+      <c r="A89" s="4">
         <v>2014</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -4643,19 +4538,18 @@
       <c r="E89" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="F89" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H89" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I89" s="7"/>
-    </row>
-    <row r="90" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A90" s="7">
+      <c r="H89" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A90" s="4">
         <v>2014</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -4668,19 +4562,18 @@
       <c r="E90" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F90" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H90" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I90" s="7"/>
-    </row>
-    <row r="91" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A91" s="7">
+      <c r="F90" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A91" s="4">
         <v>2014</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -4693,19 +4586,18 @@
       <c r="E91" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F91" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H91" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="7"/>
-    </row>
-    <row r="92" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A92" s="7">
+      <c r="F91" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A92" s="4">
         <v>2015</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -4720,19 +4612,18 @@
       <c r="E92" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="F92" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H92" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I92" s="7"/>
-    </row>
-    <row r="93" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A93" s="7">
+      <c r="H92" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A93" s="4">
         <v>2015</v>
       </c>
       <c r="B93" s="2" t="s">
@@ -4747,19 +4638,18 @@
       <c r="E93" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F93" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H93" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I93" s="7"/>
-    </row>
-    <row r="94" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A94" s="7">
+      <c r="F93" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A94" s="4">
         <v>2015</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -4772,19 +4662,18 @@
       <c r="E94" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="F94" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H94" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I94" s="7"/>
-    </row>
-    <row r="95" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A95" s="7">
+      <c r="F94" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A95" s="4">
         <v>2015</v>
       </c>
       <c r="B95" s="2" t="s">
@@ -4797,19 +4686,18 @@
       <c r="E95" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F95" s="7" t="s">
+      <c r="F95" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H95" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I95" s="7"/>
-    </row>
-    <row r="96" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A96" s="7">
+      <c r="H95" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A96" s="4">
         <v>2015</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -4822,19 +4710,18 @@
       <c r="E96" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F96" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H96" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I96" s="7"/>
-    </row>
-    <row r="97" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A97" s="7">
+      <c r="F96" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A97" s="4">
         <v>2015</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -4849,19 +4736,18 @@
       <c r="E97" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F97" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H97" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I97" s="7"/>
-    </row>
-    <row r="98" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A98" s="7">
+      <c r="F97" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A98" s="4">
         <v>2015</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -4874,19 +4760,18 @@
       <c r="E98" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F98" s="7" t="s">
+      <c r="F98" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H98" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I98" s="7"/>
-    </row>
-    <row r="99" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A99" s="7">
+      <c r="H98" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A99" s="4">
         <v>2021</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -4899,19 +4784,18 @@
       <c r="E99" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="F99" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H99" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I99" s="7"/>
-    </row>
-    <row r="100" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A100" s="7">
+      <c r="F99" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A100" s="4">
         <v>2015</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -4924,19 +4808,18 @@
       <c r="E100" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F100" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H100" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I100" s="7"/>
-    </row>
-    <row r="101" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A101" s="7">
+      <c r="F100" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A101" s="4">
         <v>2015</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -4951,19 +4834,18 @@
       <c r="E101" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F101" s="7" t="s">
+      <c r="F101" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H101" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I101" s="7"/>
-    </row>
-    <row r="102" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A102" s="7">
+      <c r="H101" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A102" s="4">
         <v>2015</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -4978,19 +4860,18 @@
       <c r="E102" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F102" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H102" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I102" s="7"/>
-    </row>
-    <row r="103" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A103" s="7">
+      <c r="F102" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A103" s="4">
         <v>2015</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -5003,19 +4884,18 @@
       <c r="E103" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F103" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H103" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I103" s="7"/>
-    </row>
-    <row r="104" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A104" s="7">
+      <c r="F103" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A104" s="4">
         <v>2015</v>
       </c>
       <c r="B104" s="2" t="s">
@@ -5028,19 +4908,18 @@
       <c r="E104" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F104" s="7" t="s">
+      <c r="F104" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H104" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I104" s="7"/>
-    </row>
-    <row r="105" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A105" s="7">
+      <c r="H104" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A105" s="4">
         <v>2015</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -5053,19 +4932,18 @@
       <c r="E105" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="F105" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H105" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I105" s="7"/>
-    </row>
-    <row r="106" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A106" s="7">
+      <c r="F105" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A106" s="4">
         <v>2015</v>
       </c>
       <c r="B106" s="2" t="s">
@@ -5078,19 +4956,18 @@
       <c r="E106" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F106" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H106" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I106" s="7"/>
-    </row>
-    <row r="107" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A107" s="7">
+      <c r="F106" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A107" s="4">
         <v>2015</v>
       </c>
       <c r="B107" s="2" t="s">
@@ -5103,19 +4980,18 @@
       <c r="E107" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F107" s="7" t="s">
+      <c r="F107" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H107" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I107" s="7"/>
-    </row>
-    <row r="108" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A108" s="7">
+      <c r="H107" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A108" s="4">
         <v>2016</v>
       </c>
       <c r="B108" s="2" t="s">
@@ -5128,21 +5004,20 @@
         <v>109</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="F108" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H108" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I108" s="7"/>
-    </row>
-    <row r="109" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A109" s="7">
+        <v>508</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A109" s="4">
         <v>2016</v>
       </c>
       <c r="B109" s="2" t="s">
@@ -5155,19 +5030,18 @@
       <c r="E109" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F109" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G109" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H109" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I109" s="7"/>
-    </row>
-    <row r="110" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A110" s="7">
+      <c r="F109" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A110" s="4">
         <v>2016</v>
       </c>
       <c r="B110" s="2" t="s">
@@ -5182,19 +5056,18 @@
       <c r="E110" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F110" s="7" t="s">
+      <c r="F110" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H110" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I110" s="7"/>
-    </row>
-    <row r="111" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A111" s="7">
+      <c r="H110" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A111" s="4">
         <v>2016</v>
       </c>
       <c r="B111" s="2" t="s">
@@ -5207,19 +5080,18 @@
       <c r="E111" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F111" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G111" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H111" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I111" s="7"/>
-    </row>
-    <row r="112" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A112" s="7">
+      <c r="F111" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A112" s="4">
         <v>2017</v>
       </c>
       <c r="B112" s="2" t="s">
@@ -5234,19 +5106,18 @@
       <c r="E112" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F112" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G112" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H112" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I112" s="7"/>
-    </row>
-    <row r="113" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A113" s="7">
+      <c r="F112" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A113" s="4">
         <v>2017</v>
       </c>
       <c r="B113" s="2" t="s">
@@ -5259,19 +5130,18 @@
       <c r="E113" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F113" s="7" t="s">
+      <c r="F113" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H113" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I113" s="7"/>
-    </row>
-    <row r="114" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A114" s="7">
+      <c r="H113" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A114" s="4">
         <v>2017</v>
       </c>
       <c r="B114" s="2" t="s">
@@ -5284,19 +5154,18 @@
       <c r="E114" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F114" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G114" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H114" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I114" s="7"/>
-    </row>
-    <row r="115" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A115" s="7">
+      <c r="F114" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A115" s="4">
         <v>2017</v>
       </c>
       <c r="B115" s="2" t="s">
@@ -5309,19 +5178,18 @@
       <c r="E115" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F115" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H115" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I115" s="7"/>
-    </row>
-    <row r="116" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A116" s="7">
+      <c r="F115" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A116" s="4">
         <v>2017</v>
       </c>
       <c r="B116" s="2" t="s">
@@ -5336,19 +5204,18 @@
       <c r="E116" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F116" s="7" t="s">
+      <c r="F116" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H116" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I116" s="7"/>
-    </row>
-    <row r="117" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A117" s="7">
+      <c r="H116" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A117" s="4">
         <v>2017</v>
       </c>
       <c r="B117" s="2" t="s">
@@ -5361,19 +5228,18 @@
       <c r="E117" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="F117" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G117" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H117" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I117" s="7"/>
-    </row>
-    <row r="118" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A118" s="7">
+      <c r="F117" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A118" s="4">
         <v>2017</v>
       </c>
       <c r="B118" s="2" t="s">
@@ -5386,26 +5252,25 @@
       <c r="E118" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F118" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H118" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I118" s="7"/>
-    </row>
-    <row r="119" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A119" s="7">
+      <c r="F118" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A119" s="4">
         <v>2017</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>223</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>109</v>
@@ -5413,19 +5278,18 @@
       <c r="E119" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F119" s="7" t="s">
+      <c r="F119" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H119" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I119" s="7"/>
-    </row>
-    <row r="120" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A120" s="7">
+      <c r="H119" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A120" s="4">
         <v>2017</v>
       </c>
       <c r="B120" s="2" t="s">
@@ -5440,19 +5304,18 @@
       <c r="E120" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F120" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H120" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I120" s="7"/>
-    </row>
-    <row r="121" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A121" s="7">
+      <c r="F120" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A121" s="4">
         <v>2017</v>
       </c>
       <c r="B121" s="2" t="s">
@@ -5467,19 +5330,18 @@
       <c r="E121" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="F121" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G121" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H121" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I121" s="7"/>
-    </row>
-    <row r="122" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A122" s="7">
+      <c r="F121" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A122" s="4">
         <v>2011</v>
       </c>
       <c r="B122" s="2" t="s">
@@ -5494,19 +5356,18 @@
       <c r="E122" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F122" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G122" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H122" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I122" s="7"/>
-    </row>
-    <row r="123" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A123" s="7">
+      <c r="F122" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A123" s="4">
         <v>2017</v>
       </c>
       <c r="B123" s="2" t="s">
@@ -5519,21 +5380,20 @@
         <v>54</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="F123" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G123" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H123" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I123" s="7"/>
-    </row>
-    <row r="124" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A124" s="7">
+        <v>541</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A124" s="4">
         <v>2017</v>
       </c>
       <c r="B124" s="2" t="s">
@@ -5548,19 +5408,18 @@
       <c r="E124" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F124" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H124" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I124" s="7"/>
-    </row>
-    <row r="125" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A125" s="7">
+      <c r="F124" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A125" s="4">
         <v>2017</v>
       </c>
       <c r="B125" s="2" t="s">
@@ -5575,19 +5434,18 @@
       <c r="E125" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F125" s="7" t="s">
+      <c r="F125" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H125" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I125" s="7"/>
-    </row>
-    <row r="126" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A126" s="7">
+      <c r="H125" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A126" s="4">
         <v>2017</v>
       </c>
       <c r="B126" s="2" t="s">
@@ -5600,19 +5458,18 @@
       <c r="E126" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F126" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G126" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H126" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I126" s="7"/>
-    </row>
-    <row r="127" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A127" s="7">
+      <c r="F126" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A127" s="4">
         <v>2018</v>
       </c>
       <c r="B127" s="2" t="s">
@@ -5625,19 +5482,18 @@
       <c r="E127" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F127" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G127" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H127" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I127" s="7"/>
-    </row>
-    <row r="128" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A128" s="7">
+      <c r="F127" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A128" s="4">
         <v>2018</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -5652,19 +5508,18 @@
       <c r="E128" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F128" s="7" t="s">
+      <c r="F128" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H128" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I128" s="7"/>
-    </row>
-    <row r="129" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A129" s="7">
+      <c r="H128" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A129" s="4">
         <v>2018</v>
       </c>
       <c r="B129" s="2" t="s">
@@ -5677,19 +5532,18 @@
       <c r="E129" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="F129" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G129" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H129" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I129" s="7"/>
-    </row>
-    <row r="130" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A130" s="7">
+      <c r="F129" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A130" s="4">
         <v>2018</v>
       </c>
       <c r="B130" s="2" t="s">
@@ -5704,19 +5558,18 @@
       <c r="E130" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F130" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G130" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H130" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I130" s="7"/>
-    </row>
-    <row r="131" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A131" s="7">
+      <c r="F130" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A131" s="4">
         <v>2018</v>
       </c>
       <c r="B131" s="2" t="s">
@@ -5731,19 +5584,18 @@
       <c r="E131" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F131" s="7" t="s">
+      <c r="F131" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H131" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I131" s="7"/>
-    </row>
-    <row r="132" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A132" s="7">
+      <c r="H131" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A132" s="4">
         <v>2018</v>
       </c>
       <c r="B132" s="2" t="s">
@@ -5756,19 +5608,18 @@
       <c r="E132" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F132" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G132" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H132" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I132" s="7"/>
-    </row>
-    <row r="133" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A133" s="7">
+      <c r="F132" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A133" s="4">
         <v>2011</v>
       </c>
       <c r="B133" s="2" t="s">
@@ -5781,19 +5632,18 @@
       <c r="E133" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F133" s="7" t="s">
+      <c r="F133" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H133" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I133" s="7"/>
-    </row>
-    <row r="134" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A134" s="7">
+      <c r="H133" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A134" s="4">
         <v>2018</v>
       </c>
       <c r="B134" s="2" t="s">
@@ -5806,19 +5656,18 @@
       <c r="E134" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F134" s="7" t="s">
+      <c r="F134" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H134" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I134" s="7"/>
-    </row>
-    <row r="135" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A135" s="7">
+      <c r="H134" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A135" s="4">
         <v>2018</v>
       </c>
       <c r="B135" s="2" t="s">
@@ -5831,19 +5680,18 @@
       <c r="E135" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F135" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G135" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H135" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I135" s="7"/>
-    </row>
-    <row r="136" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A136" s="7">
+      <c r="F135" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A136" s="4">
         <v>2018</v>
       </c>
       <c r="B136" s="2" t="s">
@@ -5858,19 +5706,18 @@
       <c r="E136" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F136" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G136" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H136" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I136" s="7"/>
-    </row>
-    <row r="137" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A137" s="7">
+      <c r="F136" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A137" s="4">
         <v>2018</v>
       </c>
       <c r="B137" s="2" t="s">
@@ -5885,19 +5732,18 @@
       <c r="E137" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="F137" s="7" t="s">
+      <c r="F137" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H137" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I137" s="7"/>
-    </row>
-    <row r="138" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A138" s="7">
+      <c r="H137" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A138" s="4">
         <v>2012</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -5910,19 +5756,18 @@
       <c r="E138" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F138" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G138" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H138" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I138" s="7"/>
-    </row>
-    <row r="139" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A139" s="7">
+      <c r="F138" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A139" s="4">
         <v>2018</v>
       </c>
       <c r="B139" s="2" t="s">
@@ -5937,19 +5782,18 @@
       <c r="E139" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F139" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G139" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H139" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I139" s="7"/>
-    </row>
-    <row r="140" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A140" s="7">
+      <c r="F139" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A140" s="4">
         <v>2018</v>
       </c>
       <c r="B140" s="2" t="s">
@@ -5962,19 +5806,18 @@
       <c r="E140" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F140" s="7" t="s">
+      <c r="F140" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H140" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I140" s="7"/>
-    </row>
-    <row r="141" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A141" s="7">
+      <c r="H140" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A141" s="4">
         <v>2018</v>
       </c>
       <c r="B141" s="2" t="s">
@@ -5987,19 +5830,18 @@
       <c r="E141" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="F141" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G141" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H141" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I141" s="7"/>
-    </row>
-    <row r="142" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A142" s="7">
+      <c r="F141" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A142" s="4">
         <v>2018</v>
       </c>
       <c r="B142" s="2" t="s">
@@ -6012,19 +5854,18 @@
       <c r="E142" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="F142" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G142" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H142" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I142" s="7"/>
-    </row>
-    <row r="143" spans="1:9" s="5" customFormat="1" ht="84" x14ac:dyDescent="0.15">
-      <c r="A143" s="7">
+      <c r="F142" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" s="4" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A143" s="4">
         <v>2018</v>
       </c>
       <c r="B143" s="2" t="s">
@@ -6039,19 +5880,18 @@
       <c r="E143" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F143" s="7" t="s">
+      <c r="F143" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H143" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I143" s="7"/>
-    </row>
-    <row r="144" spans="1:9" s="5" customFormat="1" ht="56" x14ac:dyDescent="0.15">
-      <c r="A144" s="7">
+      <c r="H143" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" s="4" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+      <c r="A144" s="4">
         <v>2019</v>
       </c>
       <c r="B144" s="2" t="s">
@@ -6066,19 +5906,18 @@
       <c r="E144" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="F144" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G144" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H144" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I144" s="7"/>
-    </row>
-    <row r="145" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A145" s="7">
+      <c r="F144" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A145" s="4">
         <v>2019</v>
       </c>
       <c r="B145" s="2" t="s">
@@ -6091,19 +5930,18 @@
       <c r="E145" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F145" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G145" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H145" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I145" s="7"/>
-    </row>
-    <row r="146" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A146" s="7">
+      <c r="F145" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A146" s="4">
         <v>2019</v>
       </c>
       <c r="B146" s="2" t="s">
@@ -6116,19 +5954,18 @@
       <c r="E146" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="F146" s="7" t="s">
+      <c r="F146" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H146" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I146" s="7"/>
-    </row>
-    <row r="147" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A147" s="7">
+      <c r="H146" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A147" s="4">
         <v>2015</v>
       </c>
       <c r="B147" s="2" t="s">
@@ -6141,19 +5978,18 @@
       <c r="E147" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F147" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G147" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H147" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I147" s="7"/>
-    </row>
-    <row r="148" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A148" s="7">
+      <c r="F147" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A148" s="4">
         <v>2006</v>
       </c>
       <c r="B148" s="2" t="s">
@@ -6168,19 +6004,18 @@
       <c r="E148" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F148" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G148" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H148" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I148" s="7"/>
-    </row>
-    <row r="149" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A149" s="7">
+      <c r="F148" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A149" s="4">
         <v>2012</v>
       </c>
       <c r="B149" s="2" t="s">
@@ -6195,19 +6030,18 @@
       <c r="E149" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F149" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G149" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H149" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I149" s="7"/>
-    </row>
-    <row r="150" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A150" s="7">
+      <c r="F149" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A150" s="4">
         <v>2007</v>
       </c>
       <c r="B150" s="2" t="s">
@@ -6222,19 +6056,18 @@
       <c r="E150" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F150" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G150" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H150" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I150" s="7"/>
-    </row>
-    <row r="151" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A151" s="7">
+      <c r="F150" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A151" s="4">
         <v>2019</v>
       </c>
       <c r="B151" s="2" t="s">
@@ -6247,19 +6080,18 @@
       <c r="E151" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="F151" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G151" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H151" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I151" s="7"/>
-    </row>
-    <row r="152" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A152" s="7">
+      <c r="F151" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A152" s="4">
         <v>2019</v>
       </c>
       <c r="B152" s="2" t="s">
@@ -6272,26 +6104,25 @@
       <c r="E152" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="F152" s="7" t="s">
+      <c r="F152" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H152" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I152" s="7"/>
-    </row>
-    <row r="153" spans="1:9" s="5" customFormat="1" ht="56" x14ac:dyDescent="0.15">
-      <c r="A153" s="7">
+      <c r="H152" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" s="4" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+      <c r="A153" s="4">
         <v>2019</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>269</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>144</v>
@@ -6299,19 +6130,18 @@
       <c r="E153" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="F153" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G153" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H153" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I153" s="7"/>
-    </row>
-    <row r="154" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A154" s="7">
+      <c r="F153" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H153" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A154" s="4">
         <v>2019</v>
       </c>
       <c r="B154" s="2" t="s">
@@ -6324,19 +6154,18 @@
       <c r="E154" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F154" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G154" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H154" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I154" s="7"/>
-    </row>
-    <row r="155" spans="1:9" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A155" s="7">
+      <c r="F154" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H154" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A155" s="4">
         <v>2020</v>
       </c>
       <c r="B155" s="2" t="s">
@@ -6351,19 +6180,18 @@
       <c r="E155" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="F155" s="7" t="s">
+      <c r="F155" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H155" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I155" s="7"/>
-    </row>
-    <row r="156" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A156" s="7">
+      <c r="H155" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A156" s="4">
         <v>2012</v>
       </c>
       <c r="B156" s="2" t="s">
@@ -6378,19 +6206,18 @@
       <c r="E156" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F156" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G156" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H156" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I156" s="7"/>
-    </row>
-    <row r="157" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A157" s="7">
+      <c r="F156" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H156" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A157" s="4">
         <v>2020</v>
       </c>
       <c r="B157" s="2" t="s">
@@ -6403,19 +6230,18 @@
       <c r="E157" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="F157" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G157" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H157" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I157" s="7"/>
-    </row>
-    <row r="158" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A158" s="7">
+      <c r="F157" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H157" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A158" s="4">
         <v>2020</v>
       </c>
       <c r="B158" s="2" t="s">
@@ -6428,19 +6254,18 @@
       <c r="E158" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F158" s="7" t="s">
+      <c r="F158" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H158" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I158" s="7"/>
-    </row>
-    <row r="159" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A159" s="7">
+      <c r="H158" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A159" s="4">
         <v>2020</v>
       </c>
       <c r="B159" s="2" t="s">
@@ -6455,19 +6280,18 @@
       <c r="E159" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="F159" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G159" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H159" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I159" s="7"/>
-    </row>
-    <row r="160" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A160" s="7">
+      <c r="F159" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H159" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A160" s="4">
         <v>2020</v>
       </c>
       <c r="B160" s="2" t="s">
@@ -6480,19 +6304,18 @@
       <c r="E160" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="F160" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G160" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H160" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I160" s="7"/>
-    </row>
-    <row r="161" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A161" s="7">
+      <c r="F160" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H160" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A161" s="4">
         <v>2020</v>
       </c>
       <c r="B161" s="2" t="s">
@@ -6507,19 +6330,18 @@
       <c r="E161" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="F161" s="7" t="s">
+      <c r="F161" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H161" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I161" s="7"/>
-    </row>
-    <row r="162" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A162" s="7">
+      <c r="H161" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A162" s="4">
         <v>2020</v>
       </c>
       <c r="B162" s="2" t="s">
@@ -6532,19 +6354,18 @@
       <c r="E162" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="F162" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G162" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H162" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I162" s="7"/>
-    </row>
-    <row r="163" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A163" s="7">
+      <c r="F162" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H162" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A163" s="4">
         <v>2020</v>
       </c>
       <c r="B163" s="2" t="s">
@@ -6557,19 +6378,18 @@
       <c r="E163" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F163" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G163" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H163" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I163" s="7"/>
-    </row>
-    <row r="164" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A164" s="7">
+      <c r="F163" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H163" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A164" s="4">
         <v>2020</v>
       </c>
       <c r="B164" s="2" t="s">
@@ -6584,19 +6404,18 @@
       <c r="E164" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F164" s="7" t="s">
+      <c r="F164" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H164" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I164" s="7"/>
-    </row>
-    <row r="165" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A165" s="7">
+      <c r="H164" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A165" s="4">
         <v>2020</v>
       </c>
       <c r="B165" s="2" t="s">
@@ -6609,19 +6428,18 @@
       <c r="E165" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F165" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G165" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H165" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I165" s="7"/>
-    </row>
-    <row r="166" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A166" s="7">
+      <c r="F165" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H165" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A166" s="4">
         <v>2020</v>
       </c>
       <c r="B166" s="2" t="s">
@@ -6636,19 +6454,18 @@
       <c r="E166" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="F166" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G166" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H166" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I166" s="7"/>
-    </row>
-    <row r="167" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A167" s="7">
+      <c r="F166" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H166" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A167" s="4">
         <v>2020</v>
       </c>
       <c r="B167" s="2" t="s">
@@ -6663,19 +6480,18 @@
       <c r="E167" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="F167" s="7" t="s">
+      <c r="F167" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H167" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I167" s="7"/>
-    </row>
-    <row r="168" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A168" s="7">
+      <c r="H167" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A168" s="4">
         <v>2020</v>
       </c>
       <c r="B168" s="2" t="s">
@@ -6688,19 +6504,18 @@
       <c r="E168" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F168" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G168" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H168" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I168" s="7"/>
-    </row>
-    <row r="169" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A169" s="7">
+      <c r="F168" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H168" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A169" s="4">
         <v>2020</v>
       </c>
       <c r="B169" s="2" t="s">
@@ -6715,19 +6530,18 @@
       <c r="E169" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="F169" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G169" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H169" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I169" s="7"/>
-    </row>
-    <row r="170" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A170" s="7">
+      <c r="F169" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H169" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A170" s="4">
         <v>2020</v>
       </c>
       <c r="B170" s="2" t="s">
@@ -6740,21 +6554,20 @@
         <v>144</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F170" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="F170" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G170" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H170" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I170" s="7"/>
-    </row>
-    <row r="171" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A171" s="7">
+      <c r="H170" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A171" s="4">
         <v>2020</v>
       </c>
       <c r="B171" s="2" t="s">
@@ -6769,19 +6582,18 @@
       <c r="E171" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="F171" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G171" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H171" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I171" s="7"/>
-    </row>
-    <row r="172" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A172" s="7">
+      <c r="F171" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H171" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A172" s="4">
         <v>2020</v>
       </c>
       <c r="B172" s="2" t="s">
@@ -6796,19 +6608,18 @@
       <c r="E172" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F172" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G172" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H172" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I172" s="7"/>
-    </row>
-    <row r="173" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A173" s="7">
+      <c r="F172" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H172" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A173" s="4">
         <v>2020</v>
       </c>
       <c r="B173" s="2" t="s">
@@ -6821,19 +6632,18 @@
       <c r="E173" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="F173" s="7" t="s">
+      <c r="F173" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G173" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H173" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I173" s="7"/>
-    </row>
-    <row r="174" spans="1:9" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A174" s="7">
+      <c r="H173" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A174" s="4">
         <v>2020</v>
       </c>
       <c r="B174" s="2" t="s">
@@ -6848,19 +6658,18 @@
       <c r="E174" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="F174" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G174" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H174" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I174" s="7"/>
-    </row>
-    <row r="175" spans="1:9" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A175" s="7">
+      <c r="F174" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H174" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A175" s="4">
         <v>2020</v>
       </c>
       <c r="B175" s="2" t="s">
@@ -6875,19 +6684,18 @@
       <c r="E175" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="F175" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G175" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H175" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I175" s="7"/>
-    </row>
-    <row r="176" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A176" s="7">
+      <c r="F175" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H175" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A176" s="4">
         <v>2021</v>
       </c>
       <c r="B176" s="2" t="s">
@@ -6902,19 +6710,18 @@
       <c r="E176" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="F176" s="7" t="s">
+      <c r="F176" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G176" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H176" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I176" s="7"/>
-    </row>
-    <row r="177" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A177" s="7">
+      <c r="H176" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A177" s="4">
         <v>2021</v>
       </c>
       <c r="B177" s="2" t="s">
@@ -6929,19 +6736,18 @@
       <c r="E177" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="F177" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G177" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H177" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I177" s="7"/>
-    </row>
-    <row r="178" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A178" s="7">
+      <c r="F177" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H177" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A178" s="4">
         <v>2021</v>
       </c>
       <c r="B178" s="2" t="s">
@@ -6956,19 +6762,18 @@
       <c r="E178" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="F178" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G178" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H178" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I178" s="7"/>
-    </row>
-    <row r="179" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A179" s="7">
+      <c r="F178" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G178" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H178" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A179" s="4">
         <v>2021</v>
       </c>
       <c r="B179" s="2" t="s">
@@ -6983,19 +6788,18 @@
       <c r="E179" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="F179" s="7" t="s">
+      <c r="F179" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H179" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I179" s="7"/>
-    </row>
-    <row r="180" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A180" s="7">
+      <c r="H179" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A180" s="4">
         <v>2021</v>
       </c>
       <c r="B180" s="2" t="s">
@@ -7008,19 +6812,18 @@
       <c r="E180" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="F180" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G180" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H180" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I180" s="7"/>
-    </row>
-    <row r="181" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A181" s="7">
+      <c r="F180" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G180" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H180" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A181" s="4">
         <v>2021</v>
       </c>
       <c r="B181" s="2" t="s">
@@ -7035,19 +6838,18 @@
       <c r="E181" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="F181" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G181" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H181" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I181" s="7"/>
-    </row>
-    <row r="182" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A182" s="7">
+      <c r="F181" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G181" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H181" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A182" s="4">
         <v>2021</v>
       </c>
       <c r="B182" s="2" t="s">
@@ -7060,19 +6862,18 @@
       <c r="E182" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F182" s="7" t="s">
+      <c r="F182" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H182" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I182" s="7"/>
-    </row>
-    <row r="183" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A183" s="7">
+      <c r="H182" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A183" s="4">
         <v>2021</v>
       </c>
       <c r="B183" s="2" t="s">
@@ -7085,19 +6886,18 @@
       <c r="E183" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="F183" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G183" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H183" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I183" s="7"/>
-    </row>
-    <row r="184" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A184" s="7">
+      <c r="F183" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H183" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A184" s="4">
         <v>2021</v>
       </c>
       <c r="B184" s="2" t="s">
@@ -7110,19 +6910,18 @@
       <c r="E184" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F184" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G184" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H184" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I184" s="7"/>
-    </row>
-    <row r="185" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A185" s="7">
+      <c r="F184" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G184" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H184" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A185" s="4">
         <v>2021</v>
       </c>
       <c r="B185" s="2" t="s">
@@ -7137,19 +6936,18 @@
       <c r="E185" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="F185" s="7" t="s">
+      <c r="F185" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H185" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I185" s="7"/>
-    </row>
-    <row r="186" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A186" s="7">
+      <c r="H185" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A186" s="4">
         <v>2021</v>
       </c>
       <c r="B186" s="2" t="s">
@@ -7162,19 +6960,18 @@
       <c r="E186" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F186" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G186" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H186" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I186" s="7"/>
-    </row>
-    <row r="187" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A187" s="7">
+      <c r="F186" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G186" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H186" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A187" s="4">
         <v>2021</v>
       </c>
       <c r="B187" s="2" t="s">
@@ -7189,19 +6986,18 @@
       <c r="E187" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="F187" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G187" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H187" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I187" s="7"/>
-    </row>
-    <row r="188" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A188" s="7">
+      <c r="F187" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G187" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H187" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A188" s="4">
         <v>2021</v>
       </c>
       <c r="B188" s="2" t="s">
@@ -7216,19 +7012,18 @@
       <c r="E188" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="F188" s="7" t="s">
+      <c r="F188" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H188" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I188" s="7"/>
-    </row>
-    <row r="189" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A189" s="7">
+      <c r="H188" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A189" s="4">
         <v>2021</v>
       </c>
       <c r="B189" s="2" t="s">
@@ -7241,19 +7036,18 @@
       <c r="E189" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F189" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G189" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H189" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I189" s="7"/>
-    </row>
-    <row r="190" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A190" s="7">
+      <c r="F189" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H189" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A190" s="4">
         <v>2012</v>
       </c>
       <c r="B190" s="2" t="s">
@@ -7268,19 +7062,18 @@
       <c r="E190" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F190" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G190" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H190" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I190" s="7"/>
-    </row>
-    <row r="191" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A191" s="7">
+      <c r="F190" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H190" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A191" s="4">
         <v>2021</v>
       </c>
       <c r="B191" s="2" t="s">
@@ -7295,19 +7088,18 @@
       <c r="E191" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="F191" s="7" t="s">
+      <c r="F191" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H191" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I191" s="7"/>
-    </row>
-    <row r="192" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A192" s="7">
+      <c r="H191" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A192" s="4">
         <v>2018</v>
       </c>
       <c r="B192" s="2" t="s">
@@ -7322,19 +7114,18 @@
       <c r="E192" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F192" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G192" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H192" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I192" s="7"/>
-    </row>
-    <row r="193" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A193" s="7">
+      <c r="F192" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G192" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H192" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A193" s="4">
         <v>2022</v>
       </c>
       <c r="B193" s="2" t="s">
@@ -7349,19 +7140,18 @@
       <c r="E193" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="F193" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G193" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H193" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I193" s="7"/>
-    </row>
-    <row r="194" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A194" s="7">
+      <c r="F193" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G193" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H193" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A194" s="4">
         <v>2022</v>
       </c>
       <c r="B194" s="2" t="s">
@@ -7374,19 +7164,18 @@
       <c r="E194" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="F194" s="7" t="s">
+      <c r="F194" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G194" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H194" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I194" s="7"/>
-    </row>
-    <row r="195" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A195" s="7">
+      <c r="H194" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A195" s="4">
         <v>2022</v>
       </c>
       <c r="B195" s="2" t="s">
@@ -7401,19 +7190,18 @@
       <c r="E195" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="F195" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G195" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H195" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I195" s="7"/>
-    </row>
-    <row r="196" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A196" s="7">
+      <c r="F195" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G195" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H195" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A196" s="4">
         <v>2022</v>
       </c>
       <c r="B196" s="2" t="s">
@@ -7428,19 +7216,18 @@
       <c r="E196" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="F196" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G196" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H196" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I196" s="7"/>
-    </row>
-    <row r="197" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A197" s="7">
+      <c r="F196" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G196" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H196" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A197" s="4">
         <v>2022</v>
       </c>
       <c r="B197" s="2" t="s">
@@ -7453,19 +7240,18 @@
       <c r="E197" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="F197" s="7" t="s">
+      <c r="F197" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G197" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H197" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I197" s="7"/>
-    </row>
-    <row r="198" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A198" s="7">
+      <c r="H197" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A198" s="4">
         <v>2022</v>
       </c>
       <c r="B198" s="2" t="s">
@@ -7478,23 +7264,22 @@
       <c r="E198" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="F198" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G198" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H198" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I198" s="7"/>
-    </row>
-    <row r="199" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A199" s="7">
+      <c r="F198" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G198" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H198" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A199" s="4">
         <v>2022</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" s="2" t="s">
@@ -7503,19 +7288,18 @@
       <c r="E199" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="F199" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G199" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H199" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I199" s="7"/>
-    </row>
-    <row r="200" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A200" s="7">
+      <c r="F199" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G199" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H199" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A200" s="4">
         <v>2022</v>
       </c>
       <c r="B200" s="2" t="s">
@@ -7530,19 +7314,18 @@
       <c r="E200" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F200" s="7" t="s">
+      <c r="F200" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G200" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H200" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I200" s="7"/>
-    </row>
-    <row r="201" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A201" s="7">
+      <c r="H200" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A201" s="4">
         <v>2022</v>
       </c>
       <c r="B201" s="2" t="s">
@@ -7557,19 +7340,18 @@
       <c r="E201" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="F201" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G201" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H201" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I201" s="7"/>
-    </row>
-    <row r="202" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A202" s="7">
+      <c r="F201" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G201" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H201" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A202" s="4">
         <v>2022</v>
       </c>
       <c r="B202" s="2" t="s">
@@ -7584,19 +7366,18 @@
       <c r="E202" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="F202" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G202" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H202" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I202" s="7"/>
-    </row>
-    <row r="203" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A203" s="7">
+      <c r="F202" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G202" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H202" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A203" s="4">
         <v>2022</v>
       </c>
       <c r="B203" s="2" t="s">
@@ -7609,19 +7390,18 @@
       <c r="E203" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="F203" s="7" t="s">
+      <c r="F203" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G203" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H203" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I203" s="7"/>
-    </row>
-    <row r="204" spans="1:9" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A204" s="7">
+      <c r="H203" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" s="4" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A204" s="4">
         <v>2022</v>
       </c>
       <c r="B204" s="2" t="s">
@@ -7634,19 +7414,18 @@
       <c r="E204" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F204" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G204" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H204" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I204" s="7"/>
-    </row>
-    <row r="205" spans="1:9" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A205" s="7">
+      <c r="F204" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G204" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H204" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" s="4" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A205" s="4">
         <v>2023</v>
       </c>
       <c r="B205" s="2" t="s">
@@ -7661,19 +7440,18 @@
       <c r="E205" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="F205" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G205" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H205" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I205" s="7"/>
-    </row>
-    <row r="206" spans="1:9" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A206" s="7">
+      <c r="F205" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G205" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H205" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A206" s="4">
         <v>2023</v>
       </c>
       <c r="B206" s="2" t="s">
@@ -7688,19 +7466,18 @@
       <c r="E206" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F206" s="7" t="s">
+      <c r="F206" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G206" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H206" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I206" s="7"/>
-    </row>
-    <row r="207" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A207" s="7">
+      <c r="H206" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A207" s="4">
         <v>2023</v>
       </c>
       <c r="B207" s="2" t="s">
@@ -7713,19 +7490,18 @@
       <c r="E207" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="F207" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G207" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H207" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I207" s="7"/>
-    </row>
-    <row r="208" spans="1:9" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A208" s="7">
+      <c r="F207" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G207" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H207" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A208" s="4">
         <v>2023</v>
       </c>
       <c r="B208" s="2" t="s">
@@ -7738,19 +7514,18 @@
       <c r="E208" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="F208" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G208" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H208" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I208" s="7"/>
-    </row>
-    <row r="209" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A209" s="7">
+      <c r="F208" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G208" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H208" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A209" s="4">
         <v>2023</v>
       </c>
       <c r="B209" s="2" t="s">
@@ -7763,19 +7538,18 @@
       <c r="E209" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="F209" s="7" t="s">
+      <c r="F209" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G209" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H209" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I209" s="7"/>
-    </row>
-    <row r="210" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A210" s="7">
+      <c r="H209" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A210" s="4">
         <v>2023</v>
       </c>
       <c r="B210" s="2" t="s">
@@ -7788,19 +7562,18 @@
       <c r="E210" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F210" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G210" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H210" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I210" s="7"/>
-    </row>
-    <row r="211" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A211" s="7">
+      <c r="F210" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G210" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H210" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A211" s="4">
         <v>2023</v>
       </c>
       <c r="B211" s="2" t="s">
@@ -7813,19 +7586,18 @@
       <c r="E211" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="F211" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G211" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H211" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I211" s="7"/>
-    </row>
-    <row r="212" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A212" s="7">
+      <c r="F211" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G211" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H211" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A212" s="4">
         <v>2023</v>
       </c>
       <c r="B212" s="2" t="s">
@@ -7838,19 +7610,18 @@
       <c r="E212" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F212" s="7" t="s">
+      <c r="F212" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G212" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H212" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I212" s="7"/>
-    </row>
-    <row r="213" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A213" s="7">
+      <c r="H212" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A213" s="4">
         <v>2023</v>
       </c>
       <c r="B213" s="2" t="s">
@@ -7865,19 +7636,18 @@
       <c r="E213" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="F213" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G213" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H213" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I213" s="7"/>
-    </row>
-    <row r="214" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A214" s="7">
+      <c r="F213" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G213" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H213" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A214" s="4">
         <v>2009</v>
       </c>
       <c r="B214" s="2" t="s">
@@ -7890,19 +7660,18 @@
       <c r="E214" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F214" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G214" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H214" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I214" s="7"/>
-    </row>
-    <row r="215" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A215" s="7">
+      <c r="F214" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G214" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H214" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A215" s="4">
         <v>2023</v>
       </c>
       <c r="B215" s="2" t="s">
@@ -7915,19 +7684,18 @@
       <c r="E215" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F215" s="7" t="s">
+      <c r="F215" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G215" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H215" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I215" s="7"/>
-    </row>
-    <row r="216" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A216" s="7">
+      <c r="H215" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A216" s="4">
         <v>2023</v>
       </c>
       <c r="B216" s="2" t="s">
@@ -7940,19 +7708,18 @@
       <c r="E216" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="F216" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G216" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H216" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I216" s="7"/>
-    </row>
-    <row r="217" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A217" s="7">
+      <c r="F216" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G216" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H216" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A217" s="4">
         <v>2023</v>
       </c>
       <c r="B217" s="2" t="s">
@@ -7965,19 +7732,18 @@
       <c r="E217" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="F217" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G217" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H217" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I217" s="7"/>
-    </row>
-    <row r="218" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A218" s="7">
+      <c r="F217" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G217" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H217" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A218" s="4">
         <v>2023</v>
       </c>
       <c r="B218" s="2" t="s">
@@ -7990,19 +7756,18 @@
       <c r="E218" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="F218" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G218" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H218" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I218" s="7"/>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A219" s="7">
+      <c r="F218" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G218" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H218" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A219" s="4">
         <v>2024</v>
       </c>
       <c r="B219" s="2" t="s">
@@ -8014,42 +7779,42 @@
       <c r="E219" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="F219" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G219" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H219" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A220" s="7">
+      <c r="F219" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G219" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H219" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A220" s="4">
         <v>2024</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C220" s="13"/>
+      <c r="C220" s="7"/>
       <c r="D220" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="F220" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G220" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H220" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" ht="29" x14ac:dyDescent="0.2">
-      <c r="A221" s="7">
+      <c r="F220" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G220" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H220" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="29" x14ac:dyDescent="0.2">
+      <c r="A221" s="4">
         <v>2024</v>
       </c>
       <c r="B221" s="2" t="s">
@@ -8064,18 +7829,18 @@
       <c r="E221" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="F221" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G221" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H221" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A222" s="7">
+      <c r="F221" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G221" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H221" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A222" s="4">
         <v>2024</v>
       </c>
       <c r="B222" s="2" t="s">
@@ -8088,18 +7853,18 @@
       <c r="E222" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="F222" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G222" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H222" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A223" s="7">
+      <c r="F222" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G222" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H222" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A223" s="4">
         <v>2024</v>
       </c>
       <c r="B223" s="2" t="s">
@@ -8112,17 +7877,17 @@
       <c r="E223" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="F223" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G223" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H223" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" ht="43" x14ac:dyDescent="0.2">
+      <c r="F223" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G223" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H223" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="43" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>2024</v>
       </c>
@@ -8148,7 +7913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>2024</v>
       </c>
@@ -8174,8 +7939,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="1:9" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A226" s="7">
+    <row r="226" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A226" s="4">
         <v>2024</v>
       </c>
       <c r="B226" s="2" t="s">
@@ -8190,19 +7955,18 @@
       <c r="E226" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="F226" s="7" t="s">
+      <c r="F226" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G226" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H226" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I226" s="7"/>
-    </row>
-    <row r="227" spans="1:9" ht="29" x14ac:dyDescent="0.2">
-      <c r="A227" s="7">
+      <c r="H226" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="29" x14ac:dyDescent="0.2">
+      <c r="A227" s="4">
         <v>2024</v>
       </c>
       <c r="B227" s="2" t="s">
@@ -8217,18 +7981,18 @@
       <c r="E227" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="F227" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G227" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H227" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" ht="29" x14ac:dyDescent="0.2">
-      <c r="A228" s="7">
+      <c r="F227" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G227" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H227" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" ht="29" x14ac:dyDescent="0.2">
+      <c r="A228" s="4">
         <v>2024</v>
       </c>
       <c r="B228" s="2" t="s">
@@ -8243,18 +8007,18 @@
       <c r="E228" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="F228" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G228" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H228" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A229" s="7">
+      <c r="F228" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G228" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H228" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A229" s="4">
         <v>2024</v>
       </c>
       <c r="B229" s="2" t="s">
@@ -8269,18 +8033,18 @@
       <c r="E229" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="F229" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G229" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H229" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A230" s="7">
+      <c r="F229" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G229" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H229" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A230" s="4">
         <v>2024</v>
       </c>
       <c r="B230" s="2" t="s">
@@ -8293,48 +8057,48 @@
       <c r="E230" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="F230" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G230" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H230" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A231" s="7">
+      <c r="F230" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G230" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H230" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A231" s="4">
         <v>2024</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>496</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>497</v>
+        <v>545</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="F231" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G231" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H231" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A232" s="7">
+        <v>502</v>
+      </c>
+      <c r="F231" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G231" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H231" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A232" s="4">
         <v>2024</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>434</v>
@@ -8345,71 +8109,71 @@
       <c r="E232" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F232" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G232" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H232" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A233" s="7">
+      <c r="F232" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G232" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H232" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A233" s="4">
         <v>2024</v>
       </c>
       <c r="B233" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C233" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="C233" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="D233" s="14" t="s">
+      <c r="D233" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E233" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="E233" s="14" t="s">
-        <v>533</v>
-      </c>
-      <c r="F233" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G233" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H233" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A234" s="7">
+      <c r="F233" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G233" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H233" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A234" s="4">
         <v>2024</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="F234" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G234" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H234" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A235" s="7">
+        <v>508</v>
+      </c>
+      <c r="F234" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G234" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H234" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A235" s="4">
         <v>2024</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>387</v>
@@ -8420,22 +8184,22 @@
       <c r="E235" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F235" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G235" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H235" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" ht="29" x14ac:dyDescent="0.2">
-      <c r="A236" s="7">
+      <c r="F235" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G235" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H235" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" ht="29" x14ac:dyDescent="0.2">
+      <c r="A236" s="4">
         <v>2025</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>413</v>
@@ -8446,297 +8210,371 @@
       <c r="E236" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="F236" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G236" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H236" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" ht="29" x14ac:dyDescent="0.2">
-      <c r="A237" s="5">
+      <c r="F236" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G236" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H236" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" ht="29" x14ac:dyDescent="0.2">
+      <c r="A237" s="4">
         <v>2025</v>
       </c>
-      <c r="B237" s="14" t="s">
+      <c r="B237" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="F237" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G237" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H237" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A238" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B238" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="C237" s="14" t="s">
+      <c r="C238" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F238" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G238" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H238" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A239" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="F239" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G239" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H239" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A240" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F240" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G240" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H240" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" ht="29" x14ac:dyDescent="0.2">
+      <c r="A241" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="F241" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G241" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H241" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A242" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="F242" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G242" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H242" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A243" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="F243" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G243" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H243" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A244" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B244" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="D237" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="E237" s="14" t="s">
-        <v>518</v>
-      </c>
-      <c r="F237" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G237" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H237" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A238" s="5">
+      <c r="C244" s="2"/>
+      <c r="D244" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F244" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G244" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H244" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A245" s="4">
         <v>2025</v>
       </c>
-      <c r="B238" s="14" t="s">
-        <v>514</v>
-      </c>
-      <c r="C238" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="D238" s="14" t="s">
+      <c r="B245" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D245" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E238" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="F238" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G238" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H238" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A239" s="5">
+      <c r="E245" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F245" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G245" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H245" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" ht="43" x14ac:dyDescent="0.2">
+      <c r="A246" s="4">
         <v>2025</v>
       </c>
-      <c r="B239" s="14" t="s">
-        <v>516</v>
-      </c>
-      <c r="C239" s="12"/>
-      <c r="D239" s="14" t="s">
+      <c r="B246" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D246" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="E246" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="F246" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G246" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H246" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A247" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="D247" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E239" s="14" t="s">
-        <v>517</v>
-      </c>
-      <c r="F239" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G239" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H239" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="5">
+      <c r="E247" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="F247" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G247" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H247" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" ht="43" x14ac:dyDescent="0.2">
+      <c r="A248" s="4">
         <v>2025</v>
       </c>
-      <c r="B240" s="14" t="s">
-        <v>527</v>
-      </c>
-      <c r="C240" s="12"/>
-      <c r="D240" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E240" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="F240" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G240" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H240" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.2">
-      <c r="A241" s="5">
+      <c r="B248" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D248" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E248" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F248" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G248" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H248" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A249" s="4">
         <v>2025</v>
       </c>
-      <c r="B241" s="14" t="s">
-        <v>520</v>
-      </c>
-      <c r="C241" s="14" t="s">
-        <v>522</v>
-      </c>
-      <c r="D241" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="E241" s="14" t="s">
-        <v>521</v>
-      </c>
-      <c r="F241" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G241" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H241" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="5">
+      <c r="B249" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="C249" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F249" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G249" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H249" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A250" s="4">
         <v>2025</v>
       </c>
-      <c r="B242" s="14" t="s">
-        <v>529</v>
-      </c>
-      <c r="C242" s="14" t="s">
-        <v>528</v>
-      </c>
-      <c r="D242" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="E242" s="14" t="s">
-        <v>523</v>
-      </c>
-      <c r="F242" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G242" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H242" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="5">
-        <v>2025</v>
-      </c>
-      <c r="B243" s="14" t="s">
-        <v>524</v>
-      </c>
-      <c r="C243" s="14" t="s">
-        <v>526</v>
-      </c>
-      <c r="D243" s="14" t="s">
+      <c r="B250" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="D250" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E243" s="14" t="s">
-        <v>525</v>
-      </c>
-      <c r="F243" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G243" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H243" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A244" s="5">
-        <v>2025</v>
-      </c>
-      <c r="B244" s="14" t="s">
-        <v>531</v>
-      </c>
-      <c r="C244" s="14"/>
-      <c r="D244" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="E244" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="F244" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G244" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H244" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A245" s="5">
-        <v>2025</v>
-      </c>
-      <c r="B245" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="C245" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="D245" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E245" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F245" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G245" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H245" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" ht="43" x14ac:dyDescent="0.2">
-      <c r="A246" s="5">
-        <v>2025</v>
-      </c>
-      <c r="B246" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="C246" s="14" t="s">
-        <v>537</v>
-      </c>
-      <c r="D246" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="E246" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="F246" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G246" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H246" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I246" s="6"/>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A247" s="5">
-        <v>2025</v>
-      </c>
-      <c r="B247" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="C247" s="5" t="s">
+      <c r="E250" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="D247" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E247" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="F247" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G247" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H247" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I247" s="6"/>
+      <c r="F250" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G250" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H250" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I247" xr:uid="{6B89377A-76F6-CA40-8081-AAD80BFAB6B8}"/>

--- a/src/main/webapp/content/files/oncologyTherapies/fda_approved_oncology_therapies.xlsx
+++ b/src/main/webapp/content/files/oncologyTherapies/fda_approved_oncology_therapies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luc2/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cavendk1/Documents/New onc therapies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB13DDE2-EC86-0847-AE1F-43E33362F577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A50A02A-F303-074A-9252-DA2B75C15630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19220" yWindow="4460" windowWidth="30240" windowHeight="17440" xr2:uid="{D862B214-800F-AF40-9BAA-60FE1781D5C8}"/>
+    <workbookView xWindow="880" yWindow="760" windowWidth="29020" windowHeight="17440" xr2:uid="{D862B214-800F-AF40-9BAA-60FE1781D5C8}"/>
   </bookViews>
   <sheets>
     <sheet name="FDA-Approved Oncology Therapies" sheetId="1" r:id="rId1"/>
@@ -1901,7 +1901,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1936,6 +1936,30 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
@@ -1965,6 +1989,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1986,7 +2015,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1995,20 +2024,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2323,51 +2365,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B89377A-76F6-CA40-8081-AAD80BFAB6B8}">
-  <dimension ref="A1:H250"/>
+  <dimension ref="A1:I250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D255" sqref="D255"/>
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B209" sqref="B209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="29.5" style="8" customWidth="1"/>
-    <col min="5" max="5" width="77" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="11.1640625" style="9"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="11.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" s="12" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="8" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2380,18 +2423,19 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2404,18 +2448,19 @@
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="F3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2430,18 +2475,19 @@
       <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="F4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2454,18 +2500,19 @@
       <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="F5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2478,18 +2525,19 @@
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="F6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2504,18 +2552,19 @@
       <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+      <c r="F7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2528,18 +2577,19 @@
       <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+      <c r="F8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2554,18 +2604,19 @@
       <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="F9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A10" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2580,18 +2631,19 @@
       <c r="E10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
+      <c r="F10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
         <v>2018</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2606,18 +2658,19 @@
       <c r="E11" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
+      <c r="F11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2630,18 +2683,19 @@
       <c r="E12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
+      <c r="F12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A13" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2654,18 +2708,19 @@
       <c r="E13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
+      <c r="F13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A14" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2680,18 +2735,19 @@
       <c r="E14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
+      <c r="H14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A15" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2704,18 +2760,19 @@
       <c r="E15" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
+      <c r="F15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A16" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2728,18 +2785,19 @@
       <c r="E16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A17" s="4">
+      <c r="F16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A17" s="7">
         <v>2002</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2754,18 +2812,19 @@
       <c r="E17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A18" s="4">
+      <c r="H17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A18" s="7">
         <v>2002</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2778,18 +2837,19 @@
       <c r="E18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A19" s="4">
+      <c r="F18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A19" s="7">
         <v>2002</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2802,18 +2862,19 @@
       <c r="E19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A20" s="4">
+      <c r="F19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A20" s="7">
         <v>2003</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2826,18 +2887,19 @@
       <c r="E20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A21" s="4">
+      <c r="H20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A21" s="7">
         <v>2003</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2850,18 +2912,19 @@
       <c r="E21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A22" s="4">
+      <c r="F21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A22" s="7">
         <v>2003</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2876,18 +2939,19 @@
       <c r="E22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A23" s="4">
+      <c r="F22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A23" s="7">
         <v>2003</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2902,18 +2966,19 @@
       <c r="E23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A24" s="4">
+      <c r="H23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A24" s="7">
         <v>2004</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2926,18 +2991,19 @@
       <c r="E24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A25" s="4">
+      <c r="F24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A25" s="7">
         <v>2004</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2950,18 +3016,19 @@
       <c r="E25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A26" s="4">
+      <c r="F25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A26" s="7">
         <v>2004</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2976,18 +3043,19 @@
       <c r="E26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A27" s="4">
+      <c r="H26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A27" s="7">
         <v>2004</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -3000,18 +3068,19 @@
       <c r="E27" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A28" s="4">
+      <c r="F27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A28" s="7">
         <v>2004</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -3026,18 +3095,19 @@
       <c r="E28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A29" s="4">
+      <c r="F28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A29" s="7">
         <v>2004</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -3050,18 +3120,19 @@
       <c r="E29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A30" s="4">
+      <c r="H29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A30" s="7">
         <v>2005</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -3074,18 +3145,19 @@
       <c r="E30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="4" customFormat="1" ht="70" x14ac:dyDescent="0.15">
-      <c r="A31" s="4" t="s">
+      <c r="F30" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:9" s="5" customFormat="1" ht="70" x14ac:dyDescent="0.15">
+      <c r="A31" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -3100,18 +3172,19 @@
       <c r="E31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A32" s="4">
+      <c r="F31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A32" s="7">
         <v>2019</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -3124,18 +3197,19 @@
       <c r="E32" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A33" s="4">
+      <c r="F32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A33" s="7">
         <v>2006</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3148,18 +3222,19 @@
       <c r="E33" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A34" s="4">
+      <c r="F33" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A34" s="7">
         <v>2006</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -3172,18 +3247,19 @@
       <c r="E34" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A35" s="4">
+      <c r="F34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A35" s="7">
         <v>2006</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3198,18 +3274,19 @@
       <c r="E35" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H35" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A36" s="4">
+      <c r="H35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:9" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A36" s="7">
         <v>2019</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -3224,18 +3301,19 @@
       <c r="E36" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A37" s="4">
+      <c r="F36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A37" s="7">
         <v>2006</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -3248,18 +3326,19 @@
       <c r="E37" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A38" s="4">
+      <c r="F37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A38" s="7">
         <v>2007</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -3272,18 +3351,19 @@
       <c r="E38" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H38" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A39" s="4">
+      <c r="H38" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A39" s="7">
         <v>2007</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -3298,18 +3378,19 @@
       <c r="E39" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A40" s="4">
+      <c r="F39" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A40" s="7">
         <v>2017</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -3324,18 +3405,19 @@
       <c r="E40" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H40" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A41" s="4">
+      <c r="H40" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A41" s="7">
         <v>2007</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -3348,18 +3430,19 @@
       <c r="E41" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H41" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A42" s="4">
+      <c r="H41" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A42" s="7">
         <v>2008</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -3372,18 +3455,19 @@
       <c r="E42" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A43" s="4">
+      <c r="F42" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A43" s="7">
         <v>2008</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -3396,18 +3480,19 @@
       <c r="E43" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A44" s="4">
+      <c r="F43" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A44" s="7">
         <v>2009</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -3422,18 +3507,19 @@
       <c r="E44" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H44" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A45" s="4">
+      <c r="H44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I44" s="7"/>
+    </row>
+    <row r="45" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A45" s="7">
         <v>2009</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -3446,18 +3532,19 @@
       <c r="E45" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A46" s="4">
+      <c r="F45" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="7"/>
+    </row>
+    <row r="46" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A46" s="7">
         <v>2019</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -3470,18 +3557,19 @@
       <c r="E46" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H46" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A47" s="4">
+      <c r="H46" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="7"/>
+    </row>
+    <row r="47" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A47" s="7">
         <v>2009</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -3494,18 +3582,19 @@
       <c r="E47" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H47" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A48" s="4">
+      <c r="H47" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="7"/>
+    </row>
+    <row r="48" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A48" s="7">
         <v>2009</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -3518,18 +3607,19 @@
       <c r="E48" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A49" s="4">
+      <c r="F48" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A49" s="7">
         <v>2010</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -3542,18 +3632,19 @@
       <c r="E49" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F49" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A50" s="4">
+      <c r="F49" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="7"/>
+    </row>
+    <row r="50" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A50" s="7">
         <v>2010</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -3566,18 +3657,19 @@
       <c r="E50" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H50" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A51" s="4">
+      <c r="H50" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" s="7"/>
+    </row>
+    <row r="51" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A51" s="7">
         <v>2010</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -3590,18 +3682,19 @@
       <c r="E51" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F51" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A52" s="4">
+      <c r="F51" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="7"/>
+    </row>
+    <row r="52" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A52" s="7">
         <v>2011</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -3614,18 +3707,19 @@
       <c r="E52" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F52" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A53" s="4">
+      <c r="F52" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="7"/>
+    </row>
+    <row r="53" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A53" s="7">
         <v>2011</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -3638,18 +3732,19 @@
       <c r="E53" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F53" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H53" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A54" s="4">
+      <c r="H53" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="7"/>
+    </row>
+    <row r="54" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A54" s="7">
         <v>2011</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -3664,18 +3759,19 @@
       <c r="E54" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F54" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A55" s="4">
+      <c r="F54" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I54" s="7"/>
+    </row>
+    <row r="55" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A55" s="7">
         <v>2020</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -3690,18 +3786,19 @@
       <c r="E55" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A56" s="4">
+      <c r="F55" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I55" s="7"/>
+    </row>
+    <row r="56" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A56" s="7">
         <v>2011</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -3714,18 +3811,19 @@
       <c r="E56" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F56" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H56" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A57" s="4">
+      <c r="H56" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I56" s="7"/>
+    </row>
+    <row r="57" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A57" s="7">
         <v>2011</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -3738,18 +3836,19 @@
       <c r="E57" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F57" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A58" s="4">
+      <c r="F57" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="7"/>
+    </row>
+    <row r="58" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A58" s="7">
         <v>2011</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -3762,18 +3861,19 @@
       <c r="E58" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F58" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A59" s="4">
+      <c r="F58" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="7"/>
+    </row>
+    <row r="59" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A59" s="7">
         <v>2019</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -3788,18 +3888,19 @@
       <c r="E59" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="F59" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A60" s="4">
+      <c r="F59" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I59" s="7"/>
+    </row>
+    <row r="60" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A60" s="7">
         <v>2011</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -3814,18 +3915,19 @@
       <c r="E60" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F60" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A61" s="4">
+      <c r="F60" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I60" s="7"/>
+    </row>
+    <row r="61" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A61" s="7">
         <v>2012</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -3838,18 +3940,19 @@
       <c r="E61" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F61" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A62" s="4">
+      <c r="F61" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I61" s="7"/>
+    </row>
+    <row r="62" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A62" s="7">
         <v>2012</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -3862,18 +3965,19 @@
       <c r="E62" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F62" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H62" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A63" s="4">
+      <c r="H62" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="7"/>
+    </row>
+    <row r="63" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A63" s="7">
         <v>2021</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -3886,18 +3990,19 @@
       <c r="E63" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="F63" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A64" s="4">
+      <c r="F63" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I63" s="7"/>
+    </row>
+    <row r="64" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A64" s="7">
         <v>2023</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -3912,18 +4017,19 @@
       <c r="E64" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="F64" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A65" s="4">
+      <c r="F64" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I64" s="7"/>
+    </row>
+    <row r="65" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A65" s="7">
         <v>2012</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -3936,18 +4042,19 @@
       <c r="E65" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="F65" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H65" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A66" s="4">
+      <c r="H65" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I65" s="7"/>
+    </row>
+    <row r="66" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A66" s="7">
         <v>2012</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -3960,18 +4067,19 @@
       <c r="E66" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F66" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A67" s="4">
+      <c r="F66" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" s="7"/>
+    </row>
+    <row r="67" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A67" s="7">
         <v>2012</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -3984,18 +4092,19 @@
       <c r="E67" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F67" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A68" s="4">
+      <c r="F67" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I67" s="7"/>
+    </row>
+    <row r="68" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A68" s="7">
         <v>2012</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -4010,18 +4119,19 @@
       <c r="E68" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F68" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H68" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A69" s="4">
+      <c r="H68" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I68" s="7"/>
+    </row>
+    <row r="69" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A69" s="7">
         <v>2006</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -4036,18 +4146,19 @@
       <c r="E69" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F69" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H69" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A70" s="4">
+      <c r="H69" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I69" s="7"/>
+    </row>
+    <row r="70" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A70" s="7">
         <v>2005</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -4060,18 +4171,19 @@
       <c r="E70" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F70" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A71" s="4">
+      <c r="F70" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I70" s="7"/>
+    </row>
+    <row r="71" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A71" s="7">
         <v>2012</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -4084,18 +4196,19 @@
       <c r="E71" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="F71" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H71" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A72" s="4">
+      <c r="H71" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I71" s="7"/>
+    </row>
+    <row r="72" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A72" s="7">
         <v>2013</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -4110,18 +4223,19 @@
       <c r="E72" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F72" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A73" s="4">
+      <c r="F72" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I72" s="7"/>
+    </row>
+    <row r="73" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A73" s="7">
         <v>2013</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -4136,18 +4250,19 @@
       <c r="E73" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F73" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A74" s="4">
+      <c r="F73" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I73" s="7"/>
+    </row>
+    <row r="74" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A74" s="7">
         <v>2013</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -4162,18 +4277,19 @@
       <c r="E74" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="F74" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H74" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A75" s="4">
+      <c r="H74" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I74" s="7"/>
+    </row>
+    <row r="75" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A75" s="7">
         <v>2013</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -4188,18 +4304,19 @@
       <c r="E75" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F75" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A76" s="4">
+      <c r="F75" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I75" s="7"/>
+    </row>
+    <row r="76" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A76" s="7">
         <v>2013</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -4212,18 +4329,19 @@
       <c r="E76" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F76" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A77" s="4">
+      <c r="F76" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" s="7"/>
+    </row>
+    <row r="77" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A77" s="7">
         <v>2013</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -4236,18 +4354,19 @@
       <c r="E77" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="F77" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H77" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A78" s="4">
+      <c r="H77" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I77" s="7"/>
+    </row>
+    <row r="78" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A78" s="7">
         <v>2013</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -4260,18 +4379,19 @@
       <c r="E78" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F78" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A79" s="4">
+      <c r="F78" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I78" s="7"/>
+    </row>
+    <row r="79" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A79" s="7">
         <v>2013</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -4286,18 +4406,19 @@
       <c r="E79" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F79" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A80" s="4">
+      <c r="F79" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I79" s="7"/>
+    </row>
+    <row r="80" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A80" s="7">
         <v>2014</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -4310,18 +4431,19 @@
       <c r="E80" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="F80" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H80" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A81" s="4">
+      <c r="H80" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I80" s="7"/>
+    </row>
+    <row r="81" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A81" s="7">
         <v>2014</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -4336,18 +4458,19 @@
       <c r="E81" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F81" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A82" s="4">
+      <c r="F81" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I81" s="7"/>
+    </row>
+    <row r="82" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A82" s="7">
         <v>2014</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -4362,18 +4485,19 @@
       <c r="E82" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F82" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A83" s="4">
+      <c r="F82" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I82" s="7"/>
+    </row>
+    <row r="83" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A83" s="7">
         <v>2014</v>
       </c>
       <c r="B83" s="2" t="s">
@@ -4388,18 +4512,19 @@
       <c r="E83" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="F83" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H83" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A84" s="4">
+      <c r="H83" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I83" s="7"/>
+    </row>
+    <row r="84" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A84" s="7">
         <v>2014</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -4412,18 +4537,19 @@
       <c r="E84" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F84" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A85" s="4">
+      <c r="F84" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I84" s="7"/>
+    </row>
+    <row r="85" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A85" s="7">
         <v>2014</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -4436,18 +4562,19 @@
       <c r="E85" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F85" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A86" s="4">
+      <c r="F85" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I85" s="7"/>
+    </row>
+    <row r="86" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A86" s="7">
         <v>2014</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -4460,18 +4587,19 @@
       <c r="E86" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="F86" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H86" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A87" s="4">
+      <c r="H86" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I86" s="7"/>
+    </row>
+    <row r="87" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A87" s="7">
         <v>2014</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -4486,18 +4614,19 @@
       <c r="E87" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F87" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" s="4" customFormat="1" ht="98" x14ac:dyDescent="0.15">
-      <c r="A88" s="4">
+      <c r="F87" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I87" s="7"/>
+    </row>
+    <row r="88" spans="1:9" s="5" customFormat="1" ht="98" x14ac:dyDescent="0.15">
+      <c r="A88" s="7">
         <v>2014</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -4512,18 +4641,19 @@
       <c r="E88" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F88" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" s="4" customFormat="1" ht="56" x14ac:dyDescent="0.15">
-      <c r="A89" s="4">
+      <c r="F88" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I88" s="7"/>
+    </row>
+    <row r="89" spans="1:9" s="5" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+      <c r="A89" s="7">
         <v>2014</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -4538,18 +4668,19 @@
       <c r="E89" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="F89" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H89" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A90" s="4">
+      <c r="H89" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I89" s="7"/>
+    </row>
+    <row r="90" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A90" s="7">
         <v>2014</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -4562,18 +4693,19 @@
       <c r="E90" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F90" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A91" s="4">
+      <c r="F90" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I90" s="7"/>
+    </row>
+    <row r="91" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A91" s="7">
         <v>2014</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -4586,18 +4718,19 @@
       <c r="E91" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F91" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A92" s="4">
+      <c r="F91" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="7"/>
+    </row>
+    <row r="92" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A92" s="7">
         <v>2015</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -4612,18 +4745,19 @@
       <c r="E92" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F92" s="4" t="s">
+      <c r="F92" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H92" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A93" s="4">
+      <c r="H92" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I92" s="7"/>
+    </row>
+    <row r="93" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A93" s="7">
         <v>2015</v>
       </c>
       <c r="B93" s="2" t="s">
@@ -4638,18 +4772,19 @@
       <c r="E93" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F93" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A94" s="4">
+      <c r="F93" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I93" s="7"/>
+    </row>
+    <row r="94" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A94" s="7">
         <v>2015</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -4662,18 +4797,19 @@
       <c r="E94" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="F94" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A95" s="4">
+      <c r="F94" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="7"/>
+    </row>
+    <row r="95" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A95" s="7">
         <v>2015</v>
       </c>
       <c r="B95" s="2" t="s">
@@ -4686,18 +4822,19 @@
       <c r="E95" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F95" s="4" t="s">
+      <c r="F95" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H95" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A96" s="4">
+      <c r="H95" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I95" s="7"/>
+    </row>
+    <row r="96" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A96" s="7">
         <v>2015</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -4710,18 +4847,19 @@
       <c r="E96" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F96" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G96" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H96" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A97" s="4">
+      <c r="F96" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I96" s="7"/>
+    </row>
+    <row r="97" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A97" s="7">
         <v>2015</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -4736,18 +4874,19 @@
       <c r="E97" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F97" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A98" s="4">
+      <c r="F97" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I97" s="7"/>
+    </row>
+    <row r="98" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A98" s="7">
         <v>2015</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -4760,18 +4899,19 @@
       <c r="E98" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F98" s="4" t="s">
+      <c r="F98" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H98" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A99" s="4">
+      <c r="H98" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I98" s="7"/>
+    </row>
+    <row r="99" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A99" s="7">
         <v>2021</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -4784,18 +4924,19 @@
       <c r="E99" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="F99" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H99" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A100" s="4">
+      <c r="F99" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I99" s="7"/>
+    </row>
+    <row r="100" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A100" s="7">
         <v>2015</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -4808,18 +4949,19 @@
       <c r="E100" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F100" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H100" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A101" s="4">
+      <c r="F100" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="7"/>
+    </row>
+    <row r="101" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A101" s="7">
         <v>2015</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -4834,18 +4976,19 @@
       <c r="E101" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F101" s="4" t="s">
+      <c r="F101" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H101" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A102" s="4">
+      <c r="H101" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I101" s="7"/>
+    </row>
+    <row r="102" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A102" s="7">
         <v>2015</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -4860,18 +5003,19 @@
       <c r="E102" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F102" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H102" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A103" s="4">
+      <c r="F102" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I102" s="7"/>
+    </row>
+    <row r="103" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A103" s="7">
         <v>2015</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -4884,18 +5028,19 @@
       <c r="E103" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F103" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A104" s="4">
+      <c r="F103" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I103" s="7"/>
+    </row>
+    <row r="104" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A104" s="7">
         <v>2015</v>
       </c>
       <c r="B104" s="2" t="s">
@@ -4908,18 +5053,19 @@
       <c r="E104" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F104" s="4" t="s">
+      <c r="F104" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H104" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A105" s="4">
+      <c r="H104" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I104" s="7"/>
+    </row>
+    <row r="105" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A105" s="7">
         <v>2015</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -4932,18 +5078,19 @@
       <c r="E105" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="F105" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H105" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A106" s="4">
+      <c r="F105" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I105" s="7"/>
+    </row>
+    <row r="106" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A106" s="7">
         <v>2015</v>
       </c>
       <c r="B106" s="2" t="s">
@@ -4956,18 +5103,19 @@
       <c r="E106" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F106" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H106" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A107" s="4">
+      <c r="F106" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I106" s="7"/>
+    </row>
+    <row r="107" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A107" s="7">
         <v>2015</v>
       </c>
       <c r="B107" s="2" t="s">
@@ -4980,18 +5128,19 @@
       <c r="E107" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F107" s="4" t="s">
+      <c r="F107" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H107" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A108" s="4">
+      <c r="H107" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I107" s="7"/>
+    </row>
+    <row r="108" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A108" s="7">
         <v>2016</v>
       </c>
       <c r="B108" s="2" t="s">
@@ -5006,18 +5155,19 @@
       <c r="E108" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="F108" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G108" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H108" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A109" s="4">
+      <c r="F108" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I108" s="7"/>
+    </row>
+    <row r="109" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A109" s="7">
         <v>2016</v>
       </c>
       <c r="B109" s="2" t="s">
@@ -5030,18 +5180,19 @@
       <c r="E109" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F109" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G109" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H109" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A110" s="4">
+      <c r="F109" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I109" s="7"/>
+    </row>
+    <row r="110" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A110" s="7">
         <v>2016</v>
       </c>
       <c r="B110" s="2" t="s">
@@ -5056,18 +5207,19 @@
       <c r="E110" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F110" s="4" t="s">
+      <c r="F110" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H110" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A111" s="4">
+      <c r="H110" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I110" s="7"/>
+    </row>
+    <row r="111" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A111" s="7">
         <v>2016</v>
       </c>
       <c r="B111" s="2" t="s">
@@ -5080,18 +5232,19 @@
       <c r="E111" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F111" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H111" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A112" s="4">
+      <c r="F111" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I111" s="7"/>
+    </row>
+    <row r="112" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A112" s="7">
         <v>2017</v>
       </c>
       <c r="B112" s="2" t="s">
@@ -5106,18 +5259,19 @@
       <c r="E112" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F112" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G112" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H112" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A113" s="4">
+      <c r="F112" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H112" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I112" s="7"/>
+    </row>
+    <row r="113" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A113" s="7">
         <v>2017</v>
       </c>
       <c r="B113" s="2" t="s">
@@ -5130,18 +5284,19 @@
       <c r="E113" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F113" s="4" t="s">
+      <c r="F113" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H113" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A114" s="4">
+      <c r="H113" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I113" s="7"/>
+    </row>
+    <row r="114" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A114" s="7">
         <v>2017</v>
       </c>
       <c r="B114" s="2" t="s">
@@ -5154,18 +5309,19 @@
       <c r="E114" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F114" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G114" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H114" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A115" s="4">
+      <c r="F114" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H114" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I114" s="7"/>
+    </row>
+    <row r="115" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A115" s="7">
         <v>2017</v>
       </c>
       <c r="B115" s="2" t="s">
@@ -5178,18 +5334,19 @@
       <c r="E115" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F115" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G115" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H115" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A116" s="4">
+      <c r="F115" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I115" s="7"/>
+    </row>
+    <row r="116" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A116" s="7">
         <v>2017</v>
       </c>
       <c r="B116" s="2" t="s">
@@ -5204,18 +5361,19 @@
       <c r="E116" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F116" s="4" t="s">
+      <c r="F116" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H116" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A117" s="4">
+      <c r="H116" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I116" s="7"/>
+    </row>
+    <row r="117" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A117" s="7">
         <v>2017</v>
       </c>
       <c r="B117" s="2" t="s">
@@ -5228,18 +5386,19 @@
       <c r="E117" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="F117" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G117" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H117" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A118" s="4">
+      <c r="F117" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I117" s="7"/>
+    </row>
+    <row r="118" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A118" s="7">
         <v>2017</v>
       </c>
       <c r="B118" s="2" t="s">
@@ -5252,18 +5411,19 @@
       <c r="E118" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F118" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G118" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H118" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A119" s="4">
+      <c r="F118" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H118" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I118" s="7"/>
+    </row>
+    <row r="119" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A119" s="7">
         <v>2017</v>
       </c>
       <c r="B119" s="2" t="s">
@@ -5278,18 +5438,19 @@
       <c r="E119" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F119" s="4" t="s">
+      <c r="F119" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H119" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A120" s="4">
+      <c r="H119" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I119" s="7"/>
+    </row>
+    <row r="120" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A120" s="7">
         <v>2017</v>
       </c>
       <c r="B120" s="2" t="s">
@@ -5304,18 +5465,19 @@
       <c r="E120" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F120" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H120" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A121" s="4">
+      <c r="F120" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I120" s="7"/>
+    </row>
+    <row r="121" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A121" s="7">
         <v>2017</v>
       </c>
       <c r="B121" s="2" t="s">
@@ -5330,18 +5492,19 @@
       <c r="E121" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="F121" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G121" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H121" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A122" s="4">
+      <c r="F121" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I121" s="7"/>
+    </row>
+    <row r="122" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A122" s="7">
         <v>2011</v>
       </c>
       <c r="B122" s="2" t="s">
@@ -5356,18 +5519,19 @@
       <c r="E122" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F122" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G122" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H122" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A123" s="4">
+      <c r="F122" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I122" s="7"/>
+    </row>
+    <row r="123" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A123" s="7">
         <v>2017</v>
       </c>
       <c r="B123" s="2" t="s">
@@ -5382,18 +5546,19 @@
       <c r="E123" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="F123" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G123" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H123" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A124" s="4">
+      <c r="F123" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I123" s="7"/>
+    </row>
+    <row r="124" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A124" s="7">
         <v>2017</v>
       </c>
       <c r="B124" s="2" t="s">
@@ -5408,18 +5573,19 @@
       <c r="E124" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F124" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G124" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H124" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A125" s="4">
+      <c r="F124" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I124" s="7"/>
+    </row>
+    <row r="125" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A125" s="7">
         <v>2017</v>
       </c>
       <c r="B125" s="2" t="s">
@@ -5434,18 +5600,19 @@
       <c r="E125" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F125" s="4" t="s">
+      <c r="F125" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H125" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A126" s="4">
+      <c r="H125" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I125" s="7"/>
+    </row>
+    <row r="126" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A126" s="7">
         <v>2017</v>
       </c>
       <c r="B126" s="2" t="s">
@@ -5458,18 +5625,19 @@
       <c r="E126" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F126" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G126" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H126" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A127" s="4">
+      <c r="F126" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I126" s="7"/>
+    </row>
+    <row r="127" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A127" s="7">
         <v>2018</v>
       </c>
       <c r="B127" s="2" t="s">
@@ -5482,18 +5650,19 @@
       <c r="E127" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F127" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G127" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H127" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A128" s="4">
+      <c r="F127" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I127" s="7"/>
+    </row>
+    <row r="128" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A128" s="7">
         <v>2018</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -5508,18 +5677,19 @@
       <c r="E128" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F128" s="4" t="s">
+      <c r="F128" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H128" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A129" s="4">
+      <c r="H128" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I128" s="7"/>
+    </row>
+    <row r="129" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A129" s="7">
         <v>2018</v>
       </c>
       <c r="B129" s="2" t="s">
@@ -5532,18 +5702,19 @@
       <c r="E129" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="F129" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G129" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H129" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A130" s="4">
+      <c r="F129" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I129" s="7"/>
+    </row>
+    <row r="130" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A130" s="7">
         <v>2018</v>
       </c>
       <c r="B130" s="2" t="s">
@@ -5558,18 +5729,19 @@
       <c r="E130" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F130" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G130" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H130" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A131" s="4">
+      <c r="F130" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I130" s="7"/>
+    </row>
+    <row r="131" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A131" s="7">
         <v>2018</v>
       </c>
       <c r="B131" s="2" t="s">
@@ -5584,18 +5756,19 @@
       <c r="E131" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F131" s="4" t="s">
+      <c r="F131" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H131" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A132" s="4">
+      <c r="H131" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I131" s="7"/>
+    </row>
+    <row r="132" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A132" s="7">
         <v>2018</v>
       </c>
       <c r="B132" s="2" t="s">
@@ -5608,18 +5781,19 @@
       <c r="E132" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F132" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G132" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H132" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A133" s="4">
+      <c r="F132" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H132" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I132" s="7"/>
+    </row>
+    <row r="133" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A133" s="7">
         <v>2011</v>
       </c>
       <c r="B133" s="2" t="s">
@@ -5632,18 +5806,19 @@
       <c r="E133" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F133" s="4" t="s">
+      <c r="F133" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H133" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A134" s="4">
+      <c r="H133" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I133" s="7"/>
+    </row>
+    <row r="134" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A134" s="7">
         <v>2018</v>
       </c>
       <c r="B134" s="2" t="s">
@@ -5656,18 +5831,19 @@
       <c r="E134" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F134" s="4" t="s">
+      <c r="F134" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H134" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A135" s="4">
+      <c r="H134" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I134" s="7"/>
+    </row>
+    <row r="135" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A135" s="7">
         <v>2018</v>
       </c>
       <c r="B135" s="2" t="s">
@@ -5680,18 +5856,19 @@
       <c r="E135" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F135" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G135" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H135" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A136" s="4">
+      <c r="F135" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I135" s="7"/>
+    </row>
+    <row r="136" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A136" s="7">
         <v>2018</v>
       </c>
       <c r="B136" s="2" t="s">
@@ -5706,18 +5883,19 @@
       <c r="E136" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F136" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G136" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H136" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A137" s="4">
+      <c r="F136" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G136" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H136" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I136" s="7"/>
+    </row>
+    <row r="137" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A137" s="7">
         <v>2018</v>
       </c>
       <c r="B137" s="2" t="s">
@@ -5732,18 +5910,19 @@
       <c r="E137" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="F137" s="4" t="s">
+      <c r="F137" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H137" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A138" s="4">
+      <c r="H137" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I137" s="7"/>
+    </row>
+    <row r="138" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A138" s="7">
         <v>2012</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -5756,18 +5935,19 @@
       <c r="E138" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F138" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G138" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H138" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A139" s="4">
+      <c r="F138" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G138" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H138" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I138" s="7"/>
+    </row>
+    <row r="139" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A139" s="7">
         <v>2018</v>
       </c>
       <c r="B139" s="2" t="s">
@@ -5782,18 +5962,19 @@
       <c r="E139" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F139" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G139" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H139" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A140" s="4">
+      <c r="F139" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G139" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H139" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I139" s="7"/>
+    </row>
+    <row r="140" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A140" s="7">
         <v>2018</v>
       </c>
       <c r="B140" s="2" t="s">
@@ -5806,18 +5987,19 @@
       <c r="E140" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F140" s="4" t="s">
+      <c r="F140" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H140" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A141" s="4">
+      <c r="H140" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I140" s="7"/>
+    </row>
+    <row r="141" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A141" s="7">
         <v>2018</v>
       </c>
       <c r="B141" s="2" t="s">
@@ -5830,18 +6012,19 @@
       <c r="E141" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="F141" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G141" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H141" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A142" s="4">
+      <c r="F141" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G141" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H141" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I141" s="7"/>
+    </row>
+    <row r="142" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A142" s="7">
         <v>2018</v>
       </c>
       <c r="B142" s="2" t="s">
@@ -5854,18 +6037,19 @@
       <c r="E142" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="F142" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G142" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H142" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" s="4" customFormat="1" ht="84" x14ac:dyDescent="0.15">
-      <c r="A143" s="4">
+      <c r="F142" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G142" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H142" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I142" s="7"/>
+    </row>
+    <row r="143" spans="1:9" s="5" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A143" s="7">
         <v>2018</v>
       </c>
       <c r="B143" s="2" t="s">
@@ -5880,18 +6064,19 @@
       <c r="E143" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F143" s="4" t="s">
+      <c r="F143" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H143" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" s="4" customFormat="1" ht="56" x14ac:dyDescent="0.15">
-      <c r="A144" s="4">
+      <c r="H143" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I143" s="7"/>
+    </row>
+    <row r="144" spans="1:9" s="5" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+      <c r="A144" s="7">
         <v>2019</v>
       </c>
       <c r="B144" s="2" t="s">
@@ -5906,18 +6091,19 @@
       <c r="E144" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="F144" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G144" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H144" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A145" s="4">
+      <c r="F144" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H144" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I144" s="7"/>
+    </row>
+    <row r="145" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A145" s="7">
         <v>2019</v>
       </c>
       <c r="B145" s="2" t="s">
@@ -5930,18 +6116,19 @@
       <c r="E145" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F145" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G145" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H145" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A146" s="4">
+      <c r="F145" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G145" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H145" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I145" s="7"/>
+    </row>
+    <row r="146" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A146" s="7">
         <v>2019</v>
       </c>
       <c r="B146" s="2" t="s">
@@ -5954,18 +6141,19 @@
       <c r="E146" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="F146" s="4" t="s">
+      <c r="F146" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H146" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A147" s="4">
+      <c r="H146" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I146" s="7"/>
+    </row>
+    <row r="147" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A147" s="7">
         <v>2015</v>
       </c>
       <c r="B147" s="2" t="s">
@@ -5978,18 +6166,19 @@
       <c r="E147" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F147" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G147" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H147" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A148" s="4">
+      <c r="F147" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G147" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H147" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I147" s="7"/>
+    </row>
+    <row r="148" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A148" s="7">
         <v>2006</v>
       </c>
       <c r="B148" s="2" t="s">
@@ -6004,18 +6193,19 @@
       <c r="E148" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F148" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G148" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H148" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A149" s="4">
+      <c r="F148" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G148" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H148" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I148" s="7"/>
+    </row>
+    <row r="149" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A149" s="7">
         <v>2012</v>
       </c>
       <c r="B149" s="2" t="s">
@@ -6030,18 +6220,19 @@
       <c r="E149" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F149" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G149" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H149" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A150" s="4">
+      <c r="F149" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G149" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H149" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I149" s="7"/>
+    </row>
+    <row r="150" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A150" s="7">
         <v>2007</v>
       </c>
       <c r="B150" s="2" t="s">
@@ -6056,18 +6247,19 @@
       <c r="E150" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F150" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G150" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H150" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A151" s="4">
+      <c r="F150" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G150" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H150" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I150" s="7"/>
+    </row>
+    <row r="151" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A151" s="7">
         <v>2019</v>
       </c>
       <c r="B151" s="2" t="s">
@@ -6080,18 +6272,19 @@
       <c r="E151" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="F151" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G151" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H151" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A152" s="4">
+      <c r="F151" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G151" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H151" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I151" s="7"/>
+    </row>
+    <row r="152" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A152" s="7">
         <v>2019</v>
       </c>
       <c r="B152" s="2" t="s">
@@ -6104,18 +6297,19 @@
       <c r="E152" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="F152" s="4" t="s">
+      <c r="F152" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H152" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" s="4" customFormat="1" ht="56" x14ac:dyDescent="0.15">
-      <c r="A153" s="4">
+      <c r="H152" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I152" s="7"/>
+    </row>
+    <row r="153" spans="1:9" s="5" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+      <c r="A153" s="7">
         <v>2019</v>
       </c>
       <c r="B153" s="2" t="s">
@@ -6130,18 +6324,19 @@
       <c r="E153" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="F153" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G153" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H153" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A154" s="4">
+      <c r="F153" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G153" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H153" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I153" s="7"/>
+    </row>
+    <row r="154" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A154" s="7">
         <v>2019</v>
       </c>
       <c r="B154" s="2" t="s">
@@ -6154,18 +6349,19 @@
       <c r="E154" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F154" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G154" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H154" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A155" s="4">
+      <c r="F154" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G154" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H154" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I154" s="7"/>
+    </row>
+    <row r="155" spans="1:9" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A155" s="7">
         <v>2020</v>
       </c>
       <c r="B155" s="2" t="s">
@@ -6180,18 +6376,19 @@
       <c r="E155" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="F155" s="4" t="s">
+      <c r="F155" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H155" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A156" s="4">
+      <c r="H155" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I155" s="7"/>
+    </row>
+    <row r="156" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A156" s="7">
         <v>2012</v>
       </c>
       <c r="B156" s="2" t="s">
@@ -6206,18 +6403,19 @@
       <c r="E156" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F156" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G156" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H156" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A157" s="4">
+      <c r="F156" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G156" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H156" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I156" s="7"/>
+    </row>
+    <row r="157" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A157" s="7">
         <v>2020</v>
       </c>
       <c r="B157" s="2" t="s">
@@ -6230,18 +6428,19 @@
       <c r="E157" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="F157" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G157" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H157" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A158" s="4">
+      <c r="F157" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G157" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H157" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I157" s="7"/>
+    </row>
+    <row r="158" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A158" s="7">
         <v>2020</v>
       </c>
       <c r="B158" s="2" t="s">
@@ -6254,18 +6453,19 @@
       <c r="E158" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F158" s="4" t="s">
+      <c r="F158" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H158" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A159" s="4">
+      <c r="H158" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I158" s="7"/>
+    </row>
+    <row r="159" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A159" s="7">
         <v>2020</v>
       </c>
       <c r="B159" s="2" t="s">
@@ -6280,18 +6480,19 @@
       <c r="E159" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="F159" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G159" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H159" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A160" s="4">
+      <c r="F159" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G159" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H159" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I159" s="7"/>
+    </row>
+    <row r="160" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A160" s="7">
         <v>2020</v>
       </c>
       <c r="B160" s="2" t="s">
@@ -6304,18 +6505,19 @@
       <c r="E160" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="F160" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G160" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H160" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A161" s="4">
+      <c r="F160" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G160" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H160" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I160" s="7"/>
+    </row>
+    <row r="161" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A161" s="7">
         <v>2020</v>
       </c>
       <c r="B161" s="2" t="s">
@@ -6330,18 +6532,19 @@
       <c r="E161" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="F161" s="4" t="s">
+      <c r="F161" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H161" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A162" s="4">
+      <c r="H161" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I161" s="7"/>
+    </row>
+    <row r="162" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A162" s="7">
         <v>2020</v>
       </c>
       <c r="B162" s="2" t="s">
@@ -6354,18 +6557,19 @@
       <c r="E162" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="F162" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G162" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H162" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A163" s="4">
+      <c r="F162" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G162" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H162" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I162" s="7"/>
+    </row>
+    <row r="163" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A163" s="7">
         <v>2020</v>
       </c>
       <c r="B163" s="2" t="s">
@@ -6378,18 +6582,19 @@
       <c r="E163" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F163" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G163" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H163" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A164" s="4">
+      <c r="F163" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G163" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H163" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I163" s="7"/>
+    </row>
+    <row r="164" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A164" s="7">
         <v>2020</v>
       </c>
       <c r="B164" s="2" t="s">
@@ -6404,18 +6609,19 @@
       <c r="E164" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F164" s="4" t="s">
+      <c r="F164" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H164" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A165" s="4">
+      <c r="H164" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I164" s="7"/>
+    </row>
+    <row r="165" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A165" s="7">
         <v>2020</v>
       </c>
       <c r="B165" s="2" t="s">
@@ -6428,18 +6634,19 @@
       <c r="E165" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F165" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G165" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H165" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A166" s="4">
+      <c r="F165" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G165" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H165" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I165" s="7"/>
+    </row>
+    <row r="166" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A166" s="7">
         <v>2020</v>
       </c>
       <c r="B166" s="2" t="s">
@@ -6454,18 +6661,19 @@
       <c r="E166" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="F166" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G166" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H166" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A167" s="4">
+      <c r="F166" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G166" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H166" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I166" s="7"/>
+    </row>
+    <row r="167" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A167" s="7">
         <v>2020</v>
       </c>
       <c r="B167" s="2" t="s">
@@ -6480,18 +6688,19 @@
       <c r="E167" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="F167" s="4" t="s">
+      <c r="F167" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H167" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A168" s="4">
+      <c r="H167" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I167" s="7"/>
+    </row>
+    <row r="168" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A168" s="7">
         <v>2020</v>
       </c>
       <c r="B168" s="2" t="s">
@@ -6504,18 +6713,19 @@
       <c r="E168" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F168" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G168" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H168" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A169" s="4">
+      <c r="F168" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G168" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H168" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I168" s="7"/>
+    </row>
+    <row r="169" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A169" s="7">
         <v>2020</v>
       </c>
       <c r="B169" s="2" t="s">
@@ -6530,18 +6740,19 @@
       <c r="E169" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="F169" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G169" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H169" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A170" s="4">
+      <c r="F169" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G169" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H169" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I169" s="7"/>
+    </row>
+    <row r="170" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A170" s="7">
         <v>2020</v>
       </c>
       <c r="B170" s="2" t="s">
@@ -6556,18 +6767,19 @@
       <c r="E170" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="F170" s="4" t="s">
+      <c r="F170" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G170" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H170" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A171" s="4">
+      <c r="H170" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I170" s="7"/>
+    </row>
+    <row r="171" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A171" s="7">
         <v>2020</v>
       </c>
       <c r="B171" s="2" t="s">
@@ -6582,18 +6794,19 @@
       <c r="E171" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="F171" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G171" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H171" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A172" s="4">
+      <c r="F171" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G171" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H171" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I171" s="7"/>
+    </row>
+    <row r="172" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A172" s="7">
         <v>2020</v>
       </c>
       <c r="B172" s="2" t="s">
@@ -6608,18 +6821,19 @@
       <c r="E172" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F172" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G172" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H172" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A173" s="4">
+      <c r="F172" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G172" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H172" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I172" s="7"/>
+    </row>
+    <row r="173" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A173" s="7">
         <v>2020</v>
       </c>
       <c r="B173" s="2" t="s">
@@ -6632,18 +6846,19 @@
       <c r="E173" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="F173" s="4" t="s">
+      <c r="F173" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G173" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H173" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A174" s="4">
+      <c r="H173" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I173" s="7"/>
+    </row>
+    <row r="174" spans="1:9" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A174" s="7">
         <v>2020</v>
       </c>
       <c r="B174" s="2" t="s">
@@ -6658,18 +6873,19 @@
       <c r="E174" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="F174" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G174" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H174" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A175" s="4">
+      <c r="F174" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G174" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H174" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I174" s="7"/>
+    </row>
+    <row r="175" spans="1:9" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A175" s="7">
         <v>2020</v>
       </c>
       <c r="B175" s="2" t="s">
@@ -6684,18 +6900,19 @@
       <c r="E175" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="F175" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G175" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H175" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A176" s="4">
+      <c r="F175" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G175" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H175" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I175" s="7"/>
+    </row>
+    <row r="176" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A176" s="7">
         <v>2021</v>
       </c>
       <c r="B176" s="2" t="s">
@@ -6710,18 +6927,19 @@
       <c r="E176" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="F176" s="4" t="s">
+      <c r="F176" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G176" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H176" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A177" s="4">
+      <c r="H176" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I176" s="7"/>
+    </row>
+    <row r="177" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A177" s="7">
         <v>2021</v>
       </c>
       <c r="B177" s="2" t="s">
@@ -6736,18 +6954,19 @@
       <c r="E177" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="F177" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G177" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H177" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A178" s="4">
+      <c r="F177" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G177" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H177" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I177" s="7"/>
+    </row>
+    <row r="178" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A178" s="7">
         <v>2021</v>
       </c>
       <c r="B178" s="2" t="s">
@@ -6762,18 +6981,19 @@
       <c r="E178" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="F178" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G178" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H178" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A179" s="4">
+      <c r="F178" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G178" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H178" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I178" s="7"/>
+    </row>
+    <row r="179" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A179" s="7">
         <v>2021</v>
       </c>
       <c r="B179" s="2" t="s">
@@ -6788,18 +7008,19 @@
       <c r="E179" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="F179" s="4" t="s">
+      <c r="F179" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H179" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A180" s="4">
+      <c r="H179" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I179" s="7"/>
+    </row>
+    <row r="180" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A180" s="7">
         <v>2021</v>
       </c>
       <c r="B180" s="2" t="s">
@@ -6812,18 +7033,19 @@
       <c r="E180" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="F180" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G180" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H180" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A181" s="4">
+      <c r="F180" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G180" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H180" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I180" s="7"/>
+    </row>
+    <row r="181" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A181" s="7">
         <v>2021</v>
       </c>
       <c r="B181" s="2" t="s">
@@ -6838,18 +7060,19 @@
       <c r="E181" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="F181" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G181" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H181" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A182" s="4">
+      <c r="F181" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G181" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H181" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I181" s="7"/>
+    </row>
+    <row r="182" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A182" s="7">
         <v>2021</v>
       </c>
       <c r="B182" s="2" t="s">
@@ -6862,18 +7085,19 @@
       <c r="E182" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F182" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H182" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A183" s="4">
+      <c r="F182" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G182" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H182" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I182" s="7"/>
+    </row>
+    <row r="183" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A183" s="7">
         <v>2021</v>
       </c>
       <c r="B183" s="2" t="s">
@@ -6886,18 +7110,19 @@
       <c r="E183" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="F183" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G183" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H183" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A184" s="4">
+      <c r="F183" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G183" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H183" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I183" s="7"/>
+    </row>
+    <row r="184" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A184" s="7">
         <v>2021</v>
       </c>
       <c r="B184" s="2" t="s">
@@ -6910,18 +7135,19 @@
       <c r="E184" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F184" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G184" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H184" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A185" s="4">
+      <c r="F184" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G184" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H184" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I184" s="7"/>
+    </row>
+    <row r="185" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A185" s="7">
         <v>2021</v>
       </c>
       <c r="B185" s="2" t="s">
@@ -6936,18 +7162,19 @@
       <c r="E185" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="F185" s="4" t="s">
+      <c r="F185" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H185" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A186" s="4">
+      <c r="H185" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I185" s="7"/>
+    </row>
+    <row r="186" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A186" s="7">
         <v>2021</v>
       </c>
       <c r="B186" s="2" t="s">
@@ -6960,18 +7187,19 @@
       <c r="E186" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F186" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G186" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H186" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A187" s="4">
+      <c r="F186" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G186" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H186" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I186" s="7"/>
+    </row>
+    <row r="187" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A187" s="7">
         <v>2021</v>
       </c>
       <c r="B187" s="2" t="s">
@@ -6986,18 +7214,19 @@
       <c r="E187" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="F187" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G187" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H187" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A188" s="4">
+      <c r="F187" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G187" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H187" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I187" s="7"/>
+    </row>
+    <row r="188" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A188" s="7">
         <v>2021</v>
       </c>
       <c r="B188" s="2" t="s">
@@ -7012,18 +7241,19 @@
       <c r="E188" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="F188" s="4" t="s">
+      <c r="F188" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H188" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A189" s="4">
+      <c r="H188" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I188" s="7"/>
+    </row>
+    <row r="189" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A189" s="7">
         <v>2021</v>
       </c>
       <c r="B189" s="2" t="s">
@@ -7036,18 +7266,19 @@
       <c r="E189" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F189" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G189" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H189" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A190" s="4">
+      <c r="F189" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G189" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H189" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I189" s="7"/>
+    </row>
+    <row r="190" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A190" s="7">
         <v>2012</v>
       </c>
       <c r="B190" s="2" t="s">
@@ -7062,18 +7293,19 @@
       <c r="E190" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F190" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G190" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H190" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A191" s="4">
+      <c r="F190" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G190" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H190" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I190" s="7"/>
+    </row>
+    <row r="191" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A191" s="7">
         <v>2021</v>
       </c>
       <c r="B191" s="2" t="s">
@@ -7088,18 +7320,19 @@
       <c r="E191" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="F191" s="4" t="s">
+      <c r="F191" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H191" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A192" s="4">
+      <c r="H191" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I191" s="7"/>
+    </row>
+    <row r="192" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A192" s="7">
         <v>2018</v>
       </c>
       <c r="B192" s="2" t="s">
@@ -7114,18 +7347,19 @@
       <c r="E192" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F192" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G192" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H192" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A193" s="4">
+      <c r="F192" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G192" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H192" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I192" s="7"/>
+    </row>
+    <row r="193" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A193" s="7">
         <v>2022</v>
       </c>
       <c r="B193" s="2" t="s">
@@ -7140,18 +7374,19 @@
       <c r="E193" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="F193" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G193" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H193" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A194" s="4">
+      <c r="F193" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G193" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H193" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I193" s="7"/>
+    </row>
+    <row r="194" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A194" s="7">
         <v>2022</v>
       </c>
       <c r="B194" s="2" t="s">
@@ -7164,18 +7399,19 @@
       <c r="E194" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="F194" s="4" t="s">
+      <c r="F194" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G194" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H194" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A195" s="4">
+      <c r="H194" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I194" s="7"/>
+    </row>
+    <row r="195" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A195" s="7">
         <v>2022</v>
       </c>
       <c r="B195" s="2" t="s">
@@ -7190,18 +7426,19 @@
       <c r="E195" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="F195" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G195" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H195" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A196" s="4">
+      <c r="F195" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G195" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H195" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I195" s="7"/>
+    </row>
+    <row r="196" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A196" s="7">
         <v>2022</v>
       </c>
       <c r="B196" s="2" t="s">
@@ -7216,18 +7453,19 @@
       <c r="E196" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="F196" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G196" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H196" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A197" s="4">
+      <c r="F196" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G196" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H196" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I196" s="7"/>
+    </row>
+    <row r="197" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A197" s="7">
         <v>2022</v>
       </c>
       <c r="B197" s="2" t="s">
@@ -7240,18 +7478,19 @@
       <c r="E197" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="F197" s="4" t="s">
+      <c r="F197" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G197" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H197" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A198" s="4">
+      <c r="H197" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I197" s="7"/>
+    </row>
+    <row r="198" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A198" s="7">
         <v>2022</v>
       </c>
       <c r="B198" s="2" t="s">
@@ -7264,18 +7503,19 @@
       <c r="E198" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="F198" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G198" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H198" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A199" s="4">
+      <c r="F198" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G198" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H198" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I198" s="7"/>
+    </row>
+    <row r="199" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A199" s="7">
         <v>2022</v>
       </c>
       <c r="B199" s="2" t="s">
@@ -7288,18 +7528,19 @@
       <c r="E199" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="F199" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G199" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H199" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A200" s="4">
+      <c r="F199" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G199" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H199" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I199" s="7"/>
+    </row>
+    <row r="200" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A200" s="7">
         <v>2022</v>
       </c>
       <c r="B200" s="2" t="s">
@@ -7314,18 +7555,19 @@
       <c r="E200" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F200" s="4" t="s">
+      <c r="F200" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G200" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H200" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A201" s="4">
+      <c r="H200" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I200" s="7"/>
+    </row>
+    <row r="201" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A201" s="7">
         <v>2022</v>
       </c>
       <c r="B201" s="2" t="s">
@@ -7340,18 +7582,19 @@
       <c r="E201" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="F201" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G201" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H201" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A202" s="4">
+      <c r="F201" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G201" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H201" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I201" s="7"/>
+    </row>
+    <row r="202" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A202" s="7">
         <v>2022</v>
       </c>
       <c r="B202" s="2" t="s">
@@ -7366,18 +7609,19 @@
       <c r="E202" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="F202" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G202" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H202" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A203" s="4">
+      <c r="F202" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G202" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H202" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I202" s="7"/>
+    </row>
+    <row r="203" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A203" s="7">
         <v>2022</v>
       </c>
       <c r="B203" s="2" t="s">
@@ -7390,18 +7634,19 @@
       <c r="E203" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="F203" s="4" t="s">
+      <c r="F203" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G203" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H203" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" s="4" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A204" s="4">
+      <c r="H203" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I203" s="7"/>
+    </row>
+    <row r="204" spans="1:9" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A204" s="7">
         <v>2022</v>
       </c>
       <c r="B204" s="2" t="s">
@@ -7414,18 +7659,19 @@
       <c r="E204" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F204" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G204" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H204" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" s="4" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A205" s="4">
+      <c r="F204" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G204" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H204" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I204" s="7"/>
+    </row>
+    <row r="205" spans="1:9" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A205" s="7">
         <v>2023</v>
       </c>
       <c r="B205" s="2" t="s">
@@ -7440,18 +7686,19 @@
       <c r="E205" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="F205" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G205" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H205" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A206" s="4">
+      <c r="F205" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G205" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H205" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I205" s="7"/>
+    </row>
+    <row r="206" spans="1:9" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A206" s="7">
         <v>2023</v>
       </c>
       <c r="B206" s="2" t="s">
@@ -7466,18 +7713,19 @@
       <c r="E206" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F206" s="4" t="s">
+      <c r="F206" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G206" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H206" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A207" s="4">
+      <c r="H206" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I206" s="7"/>
+    </row>
+    <row r="207" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A207" s="7">
         <v>2023</v>
       </c>
       <c r="B207" s="2" t="s">
@@ -7490,18 +7738,19 @@
       <c r="E207" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="F207" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G207" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H207" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A208" s="4">
+      <c r="F207" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G207" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H207" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I207" s="7"/>
+    </row>
+    <row r="208" spans="1:9" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A208" s="7">
         <v>2023</v>
       </c>
       <c r="B208" s="2" t="s">
@@ -7514,18 +7763,19 @@
       <c r="E208" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="F208" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G208" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H208" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A209" s="4">
+      <c r="F208" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G208" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H208" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I208" s="7"/>
+    </row>
+    <row r="209" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A209" s="7">
         <v>2023</v>
       </c>
       <c r="B209" s="2" t="s">
@@ -7538,18 +7788,19 @@
       <c r="E209" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="F209" s="4" t="s">
+      <c r="F209" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G209" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H209" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A210" s="4">
+      <c r="H209" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I209" s="7"/>
+    </row>
+    <row r="210" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A210" s="7">
         <v>2023</v>
       </c>
       <c r="B210" s="2" t="s">
@@ -7562,18 +7813,19 @@
       <c r="E210" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F210" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G210" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H210" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A211" s="4">
+      <c r="F210" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G210" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H210" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I210" s="7"/>
+    </row>
+    <row r="211" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A211" s="7">
         <v>2023</v>
       </c>
       <c r="B211" s="2" t="s">
@@ -7586,18 +7838,19 @@
       <c r="E211" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="F211" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G211" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H211" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A212" s="4">
+      <c r="F211" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G211" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H211" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I211" s="7"/>
+    </row>
+    <row r="212" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A212" s="7">
         <v>2023</v>
       </c>
       <c r="B212" s="2" t="s">
@@ -7610,18 +7863,19 @@
       <c r="E212" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F212" s="4" t="s">
+      <c r="F212" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G212" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H212" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A213" s="4">
+      <c r="H212" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I212" s="7"/>
+    </row>
+    <row r="213" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A213" s="7">
         <v>2023</v>
       </c>
       <c r="B213" s="2" t="s">
@@ -7636,18 +7890,19 @@
       <c r="E213" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="F213" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G213" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H213" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A214" s="4">
+      <c r="F213" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G213" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H213" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I213" s="7"/>
+    </row>
+    <row r="214" spans="1:9" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A214" s="7">
         <v>2009</v>
       </c>
       <c r="B214" s="2" t="s">
@@ -7660,18 +7915,19 @@
       <c r="E214" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F214" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G214" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H214" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A215" s="4">
+      <c r="F214" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G214" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H214" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I214" s="7"/>
+    </row>
+    <row r="215" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A215" s="7">
         <v>2023</v>
       </c>
       <c r="B215" s="2" t="s">
@@ -7684,18 +7940,19 @@
       <c r="E215" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F215" s="4" t="s">
+      <c r="F215" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G215" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H215" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A216" s="4">
+      <c r="H215" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I215" s="7"/>
+    </row>
+    <row r="216" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A216" s="7">
         <v>2023</v>
       </c>
       <c r="B216" s="2" t="s">
@@ -7708,18 +7965,19 @@
       <c r="E216" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="F216" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G216" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H216" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A217" s="4">
+      <c r="F216" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G216" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H216" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I216" s="7"/>
+    </row>
+    <row r="217" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A217" s="7">
         <v>2023</v>
       </c>
       <c r="B217" s="2" t="s">
@@ -7732,18 +7990,19 @@
       <c r="E217" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="F217" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G217" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H217" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A218" s="4">
+      <c r="F217" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G217" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H217" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I217" s="7"/>
+    </row>
+    <row r="218" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A218" s="7">
         <v>2023</v>
       </c>
       <c r="B218" s="2" t="s">
@@ -7756,18 +8015,19 @@
       <c r="E218" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="F218" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G218" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H218" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A219" s="4">
+      <c r="F218" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G218" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H218" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I218" s="7"/>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A219" s="7">
         <v>2024</v>
       </c>
       <c r="B219" s="2" t="s">
@@ -7779,42 +8039,42 @@
       <c r="E219" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="F219" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G219" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H219" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A220" s="4">
+      <c r="F219" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G219" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H219" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A220" s="7">
         <v>2024</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C220" s="7"/>
+      <c r="C220" s="13"/>
       <c r="D220" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="F220" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G220" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H220" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" ht="29" x14ac:dyDescent="0.2">
-      <c r="A221" s="4">
+      <c r="F220" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G220" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H220" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" ht="29" x14ac:dyDescent="0.2">
+      <c r="A221" s="7">
         <v>2024</v>
       </c>
       <c r="B221" s="2" t="s">
@@ -7829,18 +8089,18 @@
       <c r="E221" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="F221" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G221" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H221" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A222" s="4">
+      <c r="F221" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G221" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H221" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A222" s="7">
         <v>2024</v>
       </c>
       <c r="B222" s="2" t="s">
@@ -7853,18 +8113,18 @@
       <c r="E222" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="F222" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G222" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H222" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A223" s="4">
+      <c r="F222" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G222" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H222" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A223" s="7">
         <v>2024</v>
       </c>
       <c r="B223" s="2" t="s">
@@ -7877,17 +8137,17 @@
       <c r="E223" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="F223" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G223" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H223" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" ht="43" x14ac:dyDescent="0.2">
+      <c r="F223" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G223" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H223" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" ht="43" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>2024</v>
       </c>
@@ -7913,7 +8173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>2024</v>
       </c>
@@ -7939,8 +8199,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A226" s="4">
+    <row r="226" spans="1:9" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A226" s="7">
         <v>2024</v>
       </c>
       <c r="B226" s="2" t="s">
@@ -7955,18 +8215,19 @@
       <c r="E226" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="F226" s="4" t="s">
+      <c r="F226" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G226" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H226" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" ht="29" x14ac:dyDescent="0.2">
-      <c r="A227" s="4">
+      <c r="H226" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I226" s="7"/>
+    </row>
+    <row r="227" spans="1:9" ht="29" x14ac:dyDescent="0.2">
+      <c r="A227" s="7">
         <v>2024</v>
       </c>
       <c r="B227" s="2" t="s">
@@ -7981,18 +8242,18 @@
       <c r="E227" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="F227" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G227" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H227" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" ht="29" x14ac:dyDescent="0.2">
-      <c r="A228" s="4">
+      <c r="F227" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G227" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H227" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" ht="29" x14ac:dyDescent="0.2">
+      <c r="A228" s="7">
         <v>2024</v>
       </c>
       <c r="B228" s="2" t="s">
@@ -8007,18 +8268,18 @@
       <c r="E228" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="F228" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G228" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H228" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A229" s="4">
+      <c r="F228" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G228" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H228" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A229" s="7">
         <v>2024</v>
       </c>
       <c r="B229" s="2" t="s">
@@ -8033,18 +8294,18 @@
       <c r="E229" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="F229" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G229" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H229" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A230" s="4">
+      <c r="F229" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G229" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H229" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A230" s="7">
         <v>2024</v>
       </c>
       <c r="B230" s="2" t="s">
@@ -8057,24 +8318,24 @@
       <c r="E230" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="F230" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G230" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H230" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A231" s="4">
+      <c r="F230" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G230" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H230" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+      <c r="A231" s="7">
         <v>2024</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="C231" s="2" t="s">
+      <c r="C231" s="14" t="s">
         <v>545</v>
       </c>
       <c r="D231" s="2" t="s">
@@ -8083,18 +8344,18 @@
       <c r="E231" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="F231" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G231" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H231" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A232" s="4">
+      <c r="F231" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G231" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H231" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A232" s="7">
         <v>2024</v>
       </c>
       <c r="B232" s="2" t="s">
@@ -8109,18 +8370,18 @@
       <c r="E232" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F232" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G232" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H232" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A233" s="4">
+      <c r="F232" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G232" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H232" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A233" s="7">
         <v>2024</v>
       </c>
       <c r="B233" s="2" t="s">
@@ -8129,24 +8390,24 @@
       <c r="C233" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="D233" s="2" t="s">
+      <c r="D233" s="14" t="s">
         <v>531</v>
       </c>
-      <c r="E233" s="2" t="s">
+      <c r="E233" s="14" t="s">
         <v>532</v>
       </c>
-      <c r="F233" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G233" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H233" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A234" s="4">
+      <c r="F233" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G233" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H233" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A234" s="7">
         <v>2024</v>
       </c>
       <c r="B234" s="2" t="s">
@@ -8158,18 +8419,18 @@
       <c r="E234" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="F234" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G234" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H234" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A235" s="4">
+      <c r="F234" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G234" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H234" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A235" s="7">
         <v>2024</v>
       </c>
       <c r="B235" s="2" t="s">
@@ -8184,18 +8445,18 @@
       <c r="E235" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F235" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G235" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H235" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" ht="29" x14ac:dyDescent="0.2">
-      <c r="A236" s="4">
+      <c r="F235" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G235" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H235" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" ht="29" x14ac:dyDescent="0.2">
+      <c r="A236" s="7">
         <v>2025</v>
       </c>
       <c r="B236" s="2" t="s">
@@ -8210,328 +8471,331 @@
       <c r="E236" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="F236" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G236" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H236" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" ht="29" x14ac:dyDescent="0.2">
-      <c r="A237" s="4">
+      <c r="F236" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G236" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H236" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" ht="29" x14ac:dyDescent="0.2">
+      <c r="A237" s="5">
         <v>2025</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B237" s="14" t="s">
         <v>512</v>
       </c>
-      <c r="C237" s="2" t="s">
+      <c r="C237" s="14" t="s">
         <v>529</v>
       </c>
-      <c r="D237" s="2" t="s">
+      <c r="D237" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="E237" s="2" t="s">
+      <c r="E237" s="14" t="s">
         <v>517</v>
       </c>
-      <c r="F237" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G237" s="4" t="s">
+      <c r="F237" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G237" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H237" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A238" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A238" s="5">
         <v>2025</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B238" s="14" t="s">
         <v>513</v>
       </c>
-      <c r="C238" s="2" t="s">
+      <c r="C238" s="14" t="s">
         <v>412</v>
       </c>
-      <c r="D238" s="2" t="s">
+      <c r="D238" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E238" s="2" t="s">
+      <c r="E238" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="F238" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G238" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H238" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A239" s="4">
+      <c r="F238" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G238" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H238" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A239" s="5">
         <v>2025</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="B239" s="14" t="s">
         <v>515</v>
       </c>
-      <c r="D239" s="2" t="s">
+      <c r="C239" s="12"/>
+      <c r="D239" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E239" s="2" t="s">
+      <c r="E239" s="14" t="s">
         <v>516</v>
       </c>
-      <c r="F239" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G239" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H239" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A240" s="4">
+      <c r="F239" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G239" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H239" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="5">
         <v>2025</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B240" s="14" t="s">
         <v>526</v>
       </c>
-      <c r="D240" s="2" t="s">
+      <c r="C240" s="12"/>
+      <c r="D240" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E240" s="2" t="s">
+      <c r="E240" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="F240" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G240" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H240" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" ht="29" x14ac:dyDescent="0.2">
-      <c r="A241" s="4">
+      <c r="F240" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G240" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H240" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.2">
+      <c r="A241" s="5">
         <v>2025</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="B241" s="14" t="s">
         <v>519</v>
       </c>
-      <c r="C241" s="2" t="s">
+      <c r="C241" s="14" t="s">
         <v>521</v>
       </c>
-      <c r="D241" s="2" t="s">
+      <c r="D241" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="E241" s="2" t="s">
+      <c r="E241" s="14" t="s">
         <v>520</v>
       </c>
-      <c r="F241" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G241" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H241" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A242" s="4">
+      <c r="F241" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G241" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H241" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="5">
         <v>2025</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B242" s="14" t="s">
         <v>528</v>
       </c>
-      <c r="C242" s="2" t="s">
+      <c r="C242" s="14" t="s">
         <v>527</v>
       </c>
-      <c r="D242" s="2" t="s">
+      <c r="D242" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="E242" s="2" t="s">
+      <c r="E242" s="14" t="s">
         <v>522</v>
       </c>
-      <c r="F242" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G242" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H242" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A243" s="4">
+      <c r="F242" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G242" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H242" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="5">
         <v>2025</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="B243" s="14" t="s">
         <v>523</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="C243" s="14" t="s">
         <v>525</v>
       </c>
-      <c r="D243" s="2" t="s">
+      <c r="D243" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E243" s="2" t="s">
+      <c r="E243" s="14" t="s">
         <v>524</v>
       </c>
-      <c r="F243" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G243" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H243" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A244" s="4">
+      <c r="F243" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G243" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H243" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A244" s="5">
         <v>2025</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="B244" s="14" t="s">
         <v>530</v>
       </c>
-      <c r="C244" s="2"/>
-      <c r="D244" s="2" t="s">
+      <c r="C244" s="14"/>
+      <c r="D244" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="E244" s="2" t="s">
+      <c r="E244" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="F244" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G244" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H244" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A245" s="4">
+      <c r="F244" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G244" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H244" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A245" s="5">
         <v>2025</v>
       </c>
-      <c r="B245" s="4" t="s">
+      <c r="B245" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="C245" s="4" t="s">
+      <c r="C245" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="D245" s="4" t="s">
+      <c r="D245" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E245" s="4" t="s">
+      <c r="E245" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F245" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G245" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H245" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" ht="43" x14ac:dyDescent="0.2">
-      <c r="A246" s="4">
+      <c r="F245" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G245" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H245" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" ht="43" x14ac:dyDescent="0.2">
+      <c r="A246" s="5">
         <v>2025</v>
       </c>
-      <c r="B246" s="4" t="s">
+      <c r="B246" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="C246" s="2" t="s">
+      <c r="C246" s="14" t="s">
         <v>536</v>
       </c>
-      <c r="D246" s="4" t="s">
+      <c r="D246" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="E246" s="4" t="s">
+      <c r="E246" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="F246" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G246" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H246" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A247" s="4">
+      <c r="F246" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G246" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H246" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I246" s="6"/>
+    </row>
+    <row r="247" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="5">
         <v>2025</v>
       </c>
-      <c r="B247" s="4" t="s">
+      <c r="B247" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="C247" s="4" t="s">
+      <c r="C247" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="D247" s="4" t="s">
+      <c r="D247" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E247" s="4" t="s">
+      <c r="E247" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="F247" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G247" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H247" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" ht="43" x14ac:dyDescent="0.2">
-      <c r="A248" s="4">
+      <c r="F247" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G247" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H247" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" s="7" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A248" s="7">
         <v>2025</v>
       </c>
-      <c r="B248" s="4" t="s">
+      <c r="B248" s="7" t="s">
         <v>542</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="D248" s="4" t="s">
+      <c r="D248" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E248" s="4" t="s">
+      <c r="E248" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F248" s="4" t="s">
+      <c r="F248" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G248" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H248" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A249" s="4">
+      <c r="H248" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" s="7" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A249" s="7">
         <v>2025</v>
       </c>
-      <c r="B249" s="8" t="s">
+      <c r="B249" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="C249" s="7" t="s">
+      <c r="C249" s="2" t="s">
         <v>544</v>
       </c>
       <c r="D249" s="2" t="s">
@@ -8540,39 +8804,39 @@
       <c r="E249" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="F249" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G249" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H249" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A250" s="4">
+      <c r="F249" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G249" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H249" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A250" s="7">
         <v>2025</v>
       </c>
-      <c r="B250" s="4" t="s">
+      <c r="B250" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="C250" s="4" t="s">
+      <c r="C250" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="D250" s="4" t="s">
+      <c r="D250" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E250" s="4" t="s">
+      <c r="E250" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="F250" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G250" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H250" s="4" t="s">
+      <c r="F250" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G250" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H250" s="7" t="s">
         <v>6</v>
       </c>
     </row>
